--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-28.xlsx
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="G2" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="H2" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I2" t="n">
         <v>14</v>
@@ -805,19 +805,19 @@
         <v>8</v>
       </c>
       <c r="G3" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H3" t="n">
         <v>1.51</v>
       </c>
       <c r="I3" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="J3" t="n">
         <v>4.2</v>
       </c>
       <c r="K3" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -826,28 +826,28 @@
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.36</v>
       </c>
       <c r="P3" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R3" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S3" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="T3" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="U3" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>15.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="Z3" t="n">
         <v>9.4</v>
@@ -871,13 +871,13 @@
         <v>28</v>
       </c>
       <c r="AC3" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD3" t="n">
         <v>10.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
@@ -895,7 +895,7 @@
         <v>400</v>
       </c>
       <c r="AK3" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
         <v>180</v>
@@ -946,7 +946,7 @@
         <v>2.58</v>
       </c>
       <c r="I4" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="J4" t="n">
         <v>3.25</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="Q4" t="n">
         <v>2.2</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.36</v>
+        <v>2.58</v>
       </c>
       <c r="G5" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H5" t="n">
-        <v>2.78</v>
+        <v>3.05</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="J5" t="n">
-        <v>2.34</v>
+        <v>2.94</v>
       </c>
       <c r="K5" t="n">
-        <v>4.7</v>
+        <v>3.3</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.46</v>
+        <v>1.56</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G6" t="n">
-        <v>2.58</v>
+        <v>2.48</v>
       </c>
       <c r="H6" t="n">
         <v>3.55</v>
       </c>
       <c r="I6" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="J6" t="n">
         <v>3.05</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="G7" t="n">
         <v>5.3</v>
@@ -1351,13 +1351,13 @@
         <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="J7" t="n">
         <v>3.2</v>
       </c>
       <c r="K7" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.23</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>1000</v>
+        <v>2.3</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="I8" t="n">
-        <v>5.4</v>
+        <v>4.7</v>
       </c>
       <c r="J8" t="n">
-        <v>1.23</v>
+        <v>3.25</v>
       </c>
       <c r="K8" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="G9" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="H9" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J9" t="n">
         <v>3.25</v>
       </c>
-      <c r="I9" t="n">
-        <v>5</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.46</v>
-      </c>
       <c r="K9" t="n">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="Q9" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="G10" t="n">
         <v>1.64</v>
       </c>
       <c r="H10" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I10" t="n">
         <v>6.6</v>
       </c>
       <c r="J10" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K10" t="n">
         <v>6.2</v>
@@ -1885,19 +1885,19 @@
         <v>2.24</v>
       </c>
       <c r="G11" t="n">
-        <v>2.66</v>
+        <v>2.46</v>
       </c>
       <c r="H11" t="n">
         <v>2.98</v>
       </c>
       <c r="I11" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J11" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="K11" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>2.12</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="G12" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="H12" t="n">
         <v>2.82</v>
       </c>
       <c r="I12" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="J12" t="n">
         <v>3.5</v>
       </c>
       <c r="K12" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2050,16 +2050,16 @@
         <v>2</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="R12" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="S12" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="T12" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="U12" t="n">
         <v>2.28</v>
@@ -2074,7 +2074,7 @@
         <v>17</v>
       </c>
       <c r="Y12" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z12" t="n">
         <v>21</v>
@@ -2086,7 +2086,7 @@
         <v>13</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD12" t="n">
         <v>14.5</v>
@@ -2104,10 +2104,10 @@
         <v>17</v>
       </c>
       <c r="AI12" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>48</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>50</v>
       </c>
       <c r="AK12" t="n">
         <v>32</v>
@@ -2116,10 +2116,10 @@
         <v>48</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN12" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AO12" t="n">
         <v>27</v>
@@ -2155,16 +2155,16 @@
         <v>1.74</v>
       </c>
       <c r="G13" t="n">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="H13" t="n">
-        <v>3.45</v>
+        <v>3.95</v>
       </c>
       <c r="I13" t="n">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K13" t="n">
         <v>4.4</v>
@@ -2182,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="Q13" t="n">
         <v>2.08</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.68</v>
+        <v>1.01</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2425,10 +2425,10 @@
         <v>2.08</v>
       </c>
       <c r="G15" t="n">
-        <v>2.46</v>
+        <v>2.34</v>
       </c>
       <c r="H15" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="I15" t="n">
         <v>4.6</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-28.xlsx
@@ -679,7 +679,7 @@
         <v>14</v>
       </c>
       <c r="J2" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="K2" t="n">
         <v>7.2</v>
@@ -805,19 +805,19 @@
         <v>8</v>
       </c>
       <c r="G3" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="I3" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="J3" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K3" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -826,16 +826,16 @@
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O3" t="n">
         <v>1.36</v>
       </c>
       <c r="P3" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="R3" t="n">
         <v>1.31</v>
@@ -859,19 +859,19 @@
         <v>15.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA3" t="n">
         <v>14</v>
       </c>
       <c r="AB3" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD3" t="n">
         <v>10.5</v>
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="G4" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H4" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="I4" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K4" t="n">
         <v>3.5</v>
@@ -1105,7 +1105,7 @@
         <v>1.56</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G6" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="H6" t="n">
         <v>3.55</v>
@@ -1219,10 +1219,10 @@
         <v>4.3</v>
       </c>
       <c r="J6" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K6" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>1.62</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.32</v>
+        <v>2.16</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1342,40 +1342,40 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="G7" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="I7" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q7" t="n">
         <v>2.18</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>4</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.2</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1480,19 +1480,19 @@
         <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H8" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J8" t="n">
         <v>3.25</v>
       </c>
       <c r="K8" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q8" t="n">
         <v>2.12</v>
@@ -1759,7 +1759,7 @@
         <v>6.6</v>
       </c>
       <c r="J10" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K10" t="n">
         <v>6.2</v>
@@ -1882,13 +1882,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="G11" t="n">
-        <v>2.46</v>
+        <v>2.66</v>
       </c>
       <c r="H11" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="I11" t="n">
         <v>3.75</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="G12" t="n">
         <v>2.76</v>
@@ -2038,13 +2038,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P12" t="n">
         <v>2</v>
@@ -2053,7 +2053,7 @@
         <v>1.91</v>
       </c>
       <c r="R12" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="S12" t="n">
         <v>3.3</v>
@@ -2071,28 +2071,28 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z12" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AB12" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
         <v>23</v>
@@ -2104,16 +2104,16 @@
         <v>17</v>
       </c>
       <c r="AI12" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AJ12" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AK12" t="n">
         <v>32</v>
       </c>
       <c r="AL12" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
         <v>100</v>
@@ -2122,7 +2122,7 @@
         <v>32</v>
       </c>
       <c r="AO12" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -2155,16 +2155,16 @@
         <v>1.74</v>
       </c>
       <c r="G13" t="n">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="H13" t="n">
-        <v>3.95</v>
+        <v>3.45</v>
       </c>
       <c r="I13" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="J13" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
         <v>4.4</v>
@@ -2185,7 +2185,7 @@
         <v>1.53</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.08</v>
+        <v>1.02</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.25</v>
+        <v>2.16</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.08</v>
+        <v>1.91</v>
       </c>
       <c r="G15" t="n">
-        <v>2.34</v>
+        <v>2.14</v>
       </c>
       <c r="H15" t="n">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="I15" t="n">
-        <v>4.6</v>
+        <v>6</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="K15" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO15"/>
+  <dimension ref="A1:AO16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Czech 1 Liga</t>
+          <t>Czech 2 Liga</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sparta Prague</t>
+          <t>Slavia Praha B</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Bohemians 1905</t>
+          <t>Usti Nad Labem</t>
         </is>
       </c>
       <c r="F2" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N2" t="n">
         <v>1.32</v>
       </c>
-      <c r="G2" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-      <c r="I2" t="n">
-        <v>14</v>
-      </c>
-      <c r="J2" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="P2" t="n">
-        <v>2.34</v>
+        <v>1.32</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.52</v>
+        <v>1.16</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Czech 1 Liga</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,66 +788,66 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Sparta Prague</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Bohemians 1905</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>8</v>
+        <v>1.32</v>
       </c>
       <c r="G3" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H3" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="H3" t="n">
-        <v>1.55</v>
-      </c>
       <c r="I3" t="n">
-        <v>1.56</v>
+        <v>14</v>
       </c>
       <c r="J3" t="n">
-        <v>4.3</v>
+        <v>5.4</v>
       </c>
       <c r="K3" t="n">
-        <v>4.4</v>
+        <v>7.2</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.83</v>
+        <v>2.36</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.12</v>
+        <v>1.52</v>
       </c>
       <c r="R3" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>3.85</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -856,64 +856,64 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,66 +923,66 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Calcio Avellino SSD</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.84</v>
+        <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>3.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>2.64</v>
+        <v>1.55</v>
       </c>
       <c r="I4" t="n">
-        <v>2.92</v>
+        <v>1.56</v>
       </c>
       <c r="J4" t="n">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="K4" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="P4" t="n">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="Q4" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T4" t="n">
         <v>2.2</v>
       </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -991,58 +991,58 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1063,31 +1063,31 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Calcio Avellino SSD</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.58</v>
+        <v>2.9</v>
       </c>
       <c r="G5" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="H5" t="n">
-        <v>3.05</v>
+        <v>2.62</v>
       </c>
       <c r="I5" t="n">
-        <v>3.7</v>
+        <v>2.86</v>
       </c>
       <c r="J5" t="n">
-        <v>2.94</v>
+        <v>3.25</v>
       </c>
       <c r="K5" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.56</v>
+        <v>1.69</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1198,31 +1198,31 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.26</v>
+        <v>2.58</v>
       </c>
       <c r="G6" t="n">
-        <v>2.46</v>
+        <v>3.05</v>
       </c>
       <c r="H6" t="n">
-        <v>3.55</v>
+        <v>3.05</v>
       </c>
       <c r="I6" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="J6" t="n">
-        <v>3.1</v>
+        <v>2.94</v>
       </c>
       <c r="K6" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1333,31 +1333,31 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Reggiana</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Modena</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="F7" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I7" t="n">
         <v>4.2</v>
       </c>
-      <c r="G7" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.42</v>
-      </c>
       <c r="J7" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="K7" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.71</v>
+        <v>1.62</v>
       </c>
       <c r="Q7" t="n">
         <v>2.18</v>
@@ -1468,28 +1468,28 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Reggiana</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="G8" t="n">
-        <v>2.2</v>
+        <v>5.1</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>1.96</v>
       </c>
       <c r="I8" t="n">
-        <v>4.6</v>
+        <v>2.42</v>
       </c>
       <c r="J8" t="n">
-        <v>3.25</v>
+        <v>2.88</v>
       </c>
       <c r="K8" t="n">
         <v>3.7</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1603,31 +1603,31 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>AC Monza</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G9" t="n">
-        <v>2.54</v>
+        <v>2.2</v>
       </c>
       <c r="H9" t="n">
-        <v>3.35</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="J9" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K9" t="n">
-        <v>4.8</v>
+        <v>3.65</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.61</v>
+        <v>1.74</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,31 +1738,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Thun</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>AC Monza</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.55</v>
+        <v>2.08</v>
       </c>
       <c r="G10" t="n">
-        <v>1.64</v>
+        <v>2.52</v>
       </c>
       <c r="H10" t="n">
-        <v>5.4</v>
+        <v>1.09</v>
       </c>
       <c r="I10" t="n">
-        <v>6.6</v>
+        <v>4.8</v>
       </c>
       <c r="J10" t="n">
-        <v>4.7</v>
+        <v>3.05</v>
       </c>
       <c r="K10" t="n">
-        <v>6.2</v>
+        <v>980</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.68</v>
+        <v>1.61</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.49</v>
+        <v>2.02</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1873,31 +1873,31 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sion</t>
+          <t>Thun</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>St Gallen</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.22</v>
+        <v>1.56</v>
       </c>
       <c r="G11" t="n">
-        <v>2.66</v>
+        <v>1.63</v>
       </c>
       <c r="H11" t="n">
-        <v>2.96</v>
+        <v>5.6</v>
       </c>
       <c r="I11" t="n">
-        <v>3.75</v>
+        <v>6.4</v>
       </c>
       <c r="J11" t="n">
-        <v>3.5</v>
+        <v>4.7</v>
       </c>
       <c r="K11" t="n">
-        <v>4.2</v>
+        <v>5.8</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>2.12</v>
+        <v>2.68</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.72</v>
+        <v>1.49</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1993,7 +1993,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,66 +2003,66 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Sion</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>St Gallen</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.74</v>
+        <v>2.24</v>
       </c>
       <c r="G12" t="n">
-        <v>2.76</v>
+        <v>2.66</v>
       </c>
       <c r="H12" t="n">
-        <v>2.82</v>
+        <v>2.96</v>
       </c>
       <c r="I12" t="n">
-        <v>2.84</v>
+        <v>3.75</v>
       </c>
       <c r="J12" t="n">
         <v>3.5</v>
       </c>
       <c r="K12" t="n">
-        <v>3.55</v>
+        <v>4.2</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.91</v>
+        <v>1.72</v>
       </c>
       <c r="R12" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2071,64 +2071,64 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AH12" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AI12" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM12" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AN12" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,66 +2138,66 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Aguilas Doradas</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Envigado</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.74</v>
+        <v>2.72</v>
       </c>
       <c r="G13" t="n">
-        <v>1.97</v>
+        <v>2.76</v>
       </c>
       <c r="H13" t="n">
-        <v>3.45</v>
+        <v>2.82</v>
       </c>
       <c r="I13" t="n">
-        <v>7.4</v>
+        <v>2.84</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="K13" t="n">
-        <v>4.4</v>
+        <v>3.55</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P13" t="n">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.02</v>
+        <v>1.91</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2206,64 +2206,64 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>US MLS</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,36 +2273,36 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Charlotte FC</t>
+          <t>Aguilas Doradas</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>New York City</t>
+          <t>Envigado</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.56</v>
+        <v>1.74</v>
       </c>
       <c r="G14" t="n">
-        <v>2.74</v>
+        <v>1.92</v>
       </c>
       <c r="H14" t="n">
-        <v>2.72</v>
+        <v>3.95</v>
       </c>
       <c r="I14" t="n">
-        <v>2.92</v>
+        <v>7.4</v>
       </c>
       <c r="J14" t="n">
-        <v>3.6</v>
+        <v>3.05</v>
       </c>
       <c r="K14" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>2.16</v>
+        <v>1.53</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.62</v>
+        <v>1.02</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2398,135 +2398,270 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>US MLS</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-10-28</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>19:45:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Charlotte FC</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>Colombian Primera A</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>2025-10-28</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>20:10:00</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Deportivo Cali</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>Alianza FC Valledupar</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="F16" t="n">
         <v>1.91</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G16" t="n">
         <v>2.14</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H16" t="n">
         <v>3.45</v>
       </c>
-      <c r="I15" t="n">
-        <v>6</v>
-      </c>
-      <c r="J15" t="n">
+      <c r="I16" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J16" t="n">
         <v>2.9</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K16" t="n">
         <v>4.1</v>
       </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
         <v>1.5</v>
       </c>
-      <c r="Q15" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO15" t="n">
+      <c r="Q16" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO16"/>
+  <dimension ref="A1:AO27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,13 +691,13 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="O2" t="n">
         <v>1.16</v>
       </c>
       <c r="P2" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="Q2" t="n">
         <v>1.16</v>
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="G3" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="H3" t="n">
-        <v>8.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="I3" t="n">
         <v>14</v>
@@ -817,7 +817,7 @@
         <v>5.4</v>
       </c>
       <c r="K3" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -955,91 +955,91 @@
         <v>4.4</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
         <v>3.6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="P4" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="Q4" t="n">
         <v>2.12</v>
       </c>
       <c r="R4" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S4" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T4" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U4" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="X4" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="Z4" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="AA4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AB4" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AC4" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AH4" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ4" t="n">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AL4" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="AM4" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN4" t="n">
         <v>240</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>1000</v>
       </c>
       <c r="AO4" t="n">
         <v>10</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1063,127 +1063,127 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Sion</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Calcio Avellino SSD</t>
+          <t>St Gallen</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.9</v>
+        <v>2.28</v>
       </c>
       <c r="G5" t="n">
-        <v>3.2</v>
+        <v>2.48</v>
       </c>
       <c r="H5" t="n">
-        <v>2.62</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>2.86</v>
+        <v>3.35</v>
       </c>
       <c r="J5" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="K5" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>1.69</v>
+        <v>2.14</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.2</v>
+        <v>1.73</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1198,121 +1198,121 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Thun</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="F6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="W6" t="n">
         <v>2.58</v>
       </c>
-      <c r="G6" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
@@ -1333,19 +1333,19 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>AC Monza</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="G7" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="H7" t="n">
         <v>3.55</v>
@@ -1357,97 +1357,97 @@
         <v>3.2</v>
       </c>
       <c r="K7" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="P7" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
@@ -1468,121 +1468,121 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Reggiana</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Modena</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4.2</v>
+        <v>2.06</v>
       </c>
       <c r="G8" t="n">
-        <v>5.1</v>
+        <v>2.2</v>
       </c>
       <c r="H8" t="n">
-        <v>1.96</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>2.42</v>
+        <v>4.5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.88</v>
+        <v>3.35</v>
       </c>
       <c r="K8" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="P8" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
@@ -1603,121 +1603,121 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="G9" t="n">
-        <v>2.2</v>
+        <v>2.42</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="I9" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="J9" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K9" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="P9" t="n">
-        <v>1.74</v>
+        <v>1.63</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Reggiana</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>AC Monza</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.08</v>
+        <v>4.2</v>
       </c>
       <c r="G10" t="n">
-        <v>2.52</v>
+        <v>5.1</v>
       </c>
       <c r="H10" t="n">
-        <v>1.09</v>
+        <v>1.98</v>
       </c>
       <c r="I10" t="n">
-        <v>4.8</v>
+        <v>2.14</v>
       </c>
       <c r="J10" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="K10" t="n">
-        <v>980</v>
+        <v>3.65</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="P10" t="n">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Thun</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="F11" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="P11" t="n">
         <v>1.56</v>
       </c>
-      <c r="G11" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="H11" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="I11" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="K11" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.68</v>
-      </c>
       <c r="Q11" t="n">
-        <v>1.49</v>
+        <v>2.28</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,127 +2008,127 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Sion</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>St Gallen</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.24</v>
+        <v>2.54</v>
       </c>
       <c r="G12" t="n">
-        <v>2.66</v>
+        <v>3.05</v>
       </c>
       <c r="H12" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J12" t="n">
         <v>2.96</v>
       </c>
-      <c r="I12" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.5</v>
-      </c>
       <c r="K12" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="P12" t="n">
-        <v>2.12</v>
+        <v>1.7</v>
       </c>
       <c r="Q12" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="n">
         <v>1.72</v>
       </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Calcio Avellino SSD</t>
         </is>
       </c>
       <c r="F13" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N13" t="n">
         <v>2.72</v>
       </c>
-      <c r="G13" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N13" t="n">
-        <v>4.2</v>
-      </c>
       <c r="O13" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="P13" t="n">
-        <v>2</v>
+        <v>1.69</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="R13" t="n">
-        <v>1.39</v>
+        <v>1.26</v>
       </c>
       <c r="S13" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="T13" t="n">
         <v>1.72</v>
       </c>
       <c r="U13" t="n">
-        <v>2.28</v>
+        <v>1.81</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="X13" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AA13" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AB13" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC13" t="n">
         <v>7.6</v>
       </c>
       <c r="AD13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG13" t="n">
         <v>13.5</v>
       </c>
-      <c r="AE13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>13</v>
-      </c>
       <c r="AH13" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AI13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN13" t="n">
         <v>48</v>
       </c>
-      <c r="AJ13" t="n">
-        <v>48</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>32</v>
-      </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,17 +2273,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Aguilas Doradas</t>
+          <t>St Etienne</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Envigado</t>
+          <t>Pau</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -2293,112 +2293,112 @@
         <v>1.92</v>
       </c>
       <c r="H14" t="n">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="I14" t="n">
-        <v>7.4</v>
+        <v>5.9</v>
       </c>
       <c r="J14" t="n">
-        <v>3.05</v>
+        <v>3.6</v>
       </c>
       <c r="K14" t="n">
-        <v>4.4</v>
+        <v>5.5</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="P14" t="n">
-        <v>1.53</v>
+        <v>2.44</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.02</v>
+        <v>1.5</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>US MLS</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,260 +2408,1745 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Charlotte FC</t>
+          <t>ESTAC Troyes</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>New York City</t>
+          <t>Amiens</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.54</v>
+        <v>1.47</v>
       </c>
       <c r="G15" t="n">
-        <v>2.72</v>
+        <v>1.57</v>
       </c>
       <c r="H15" t="n">
-        <v>2.74</v>
+        <v>6.6</v>
       </c>
       <c r="I15" t="n">
-        <v>2.94</v>
+        <v>8.6</v>
       </c>
       <c r="J15" t="n">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="K15" t="n">
-        <v>3.8</v>
+        <v>5.3</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P15" t="n">
-        <v>2.16</v>
+        <v>2.02</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.62</v>
+        <v>1.81</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>French Ligue 2</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-10-28</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Rodez</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Annecy</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K16" t="n">
+        <v>4</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X16" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>French Ligue 2</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-10-28</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Nancy</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Bastia</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="X17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>French Ligue 2</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-10-28</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Grenoble</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Guingamp</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="G18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X18" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>French Ligue 2</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-10-28</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Boulogne</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G19" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X19" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>French Ligue 2</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-10-28</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Dunkerque</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Red Star</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="K20" t="n">
+        <v>4</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X20" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>French Ligue 2</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-10-28</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X21" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>60</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Irish Division 1</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-10-28</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Cobh Ramblers</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Treaty United</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Irish Division 1</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-10-28</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Bray Wanderers</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>UCD</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K23" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Italian Serie A</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-10-28</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N24" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X24" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
           <t>Colombian Primera A</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>2025-10-28</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Aguilas Doradas</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Envigado</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H25" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I25" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>US MLS</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-10-28</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>19:45:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Charlotte FC</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-10-28</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
         <is>
           <t>20:10:00</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>Deportivo Cali</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>Alianza FC Valledupar</t>
         </is>
       </c>
-      <c r="F16" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="G16" t="n">
+      <c r="F27" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H27" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I27" t="n">
+        <v>6</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K27" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="Q27" t="n">
         <v>2.14</v>
       </c>
-      <c r="H16" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I16" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="K16" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO16" t="n">
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-28.xlsx
@@ -805,10 +805,10 @@
         <v>1.33</v>
       </c>
       <c r="G3" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="H3" t="n">
-        <v>9.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I3" t="n">
         <v>14</v>
@@ -817,7 +817,7 @@
         <v>5.4</v>
       </c>
       <c r="K3" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="I4" t="n">
         <v>1.56</v>
@@ -970,7 +970,7 @@
         <v>1.86</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R4" t="n">
         <v>1.32</v>
@@ -982,7 +982,7 @@
         <v>2.22</v>
       </c>
       <c r="U4" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="V4" t="n">
         <v>2.8</v>
@@ -1087,7 +1087,7 @@
         <v>3.6</v>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1102,16 +1102,16 @@
         <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="R5" t="n">
         <v>1.43</v>
       </c>
       <c r="S5" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="T5" t="n">
         <v>1.53</v>
@@ -1153,7 +1153,7 @@
         <v>21</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH5" t="n">
         <v>19.5</v>
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="G6" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="H6" t="n">
         <v>5.5</v>
@@ -1222,7 +1222,7 @@
         <v>4.6</v>
       </c>
       <c r="K6" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1231,7 +1231,7 @@
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>2.68</v>
+        <v>1.1</v>
       </c>
       <c r="O6" t="n">
         <v>1.15</v>
@@ -1240,13 +1240,13 @@
         <v>2.68</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="R6" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S6" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="T6" t="n">
         <v>1.52</v>
@@ -1258,10 +1258,10 @@
         <v>1.19</v>
       </c>
       <c r="W6" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Y6" t="n">
         <v>40</v>
@@ -1288,7 +1288,7 @@
         <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH6" t="n">
         <v>25</v>
@@ -1306,7 +1306,7 @@
         <v>32</v>
       </c>
       <c r="AM6" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AN6" t="n">
         <v>7.8</v>
@@ -1354,10 +1354,10 @@
         <v>4.2</v>
       </c>
       <c r="J7" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K7" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1492,10 +1492,10 @@
         <v>3.35</v>
       </c>
       <c r="K8" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L8" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
@@ -1519,7 +1519,7 @@
         <v>3.45</v>
       </c>
       <c r="T8" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="U8" t="n">
         <v>1.92</v>
@@ -1582,7 +1582,7 @@
         <v>21</v>
       </c>
       <c r="AO8" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="G9" t="n">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="H9" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="I9" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J9" t="n">
         <v>3.2</v>
       </c>
       <c r="K9" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -1636,19 +1636,19 @@
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>1.63</v>
+        <v>2.26</v>
       </c>
       <c r="O9" t="n">
         <v>1.1</v>
       </c>
       <c r="P9" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q9" t="n">
         <v>2.18</v>
       </c>
       <c r="R9" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="S9" t="n">
         <v>4.1</v>
@@ -1660,10 +1660,10 @@
         <v>1.73</v>
       </c>
       <c r="V9" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W9" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="X9" t="n">
         <v>12</v>
@@ -1702,13 +1702,13 @@
         <v>85</v>
       </c>
       <c r="AJ9" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AK9" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL9" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="G10" t="n">
         <v>5.1</v>
       </c>
       <c r="H10" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="I10" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="J10" t="n">
         <v>3.25</v>
       </c>
       <c r="K10" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1771,10 +1771,10 @@
         <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>2.56</v>
+        <v>2.72</v>
       </c>
       <c r="O10" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P10" t="n">
         <v>1.7</v>
@@ -1783,22 +1783,22 @@
         <v>2.04</v>
       </c>
       <c r="R10" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="S10" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="T10" t="n">
-        <v>1.8</v>
+        <v>1.94</v>
       </c>
       <c r="U10" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="V10" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="W10" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="X10" t="n">
         <v>980</v>
@@ -1807,7 +1807,7 @@
         <v>8</v>
       </c>
       <c r="Z10" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AA10" t="n">
         <v>980</v>
@@ -1885,7 +1885,7 @@
         <v>2.6</v>
       </c>
       <c r="G11" t="n">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="H11" t="n">
         <v>3.05</v>
@@ -1897,7 +1897,7 @@
         <v>3</v>
       </c>
       <c r="K11" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -1927,13 +1927,13 @@
         <v>2.02</v>
       </c>
       <c r="U11" t="n">
-        <v>1.68</v>
+        <v>1.81</v>
       </c>
       <c r="V11" t="n">
         <v>1.42</v>
       </c>
       <c r="W11" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="X11" t="n">
         <v>9.199999999999999</v>
@@ -1942,10 +1942,10 @@
         <v>9.6</v>
       </c>
       <c r="Z11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA11" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AB11" t="n">
         <v>8.4</v>
@@ -1954,7 +1954,7 @@
         <v>7.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE11" t="n">
         <v>980</v>
@@ -1972,10 +1972,10 @@
         <v>75</v>
       </c>
       <c r="AJ11" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AK11" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AL11" t="n">
         <v>75</v>
@@ -1987,7 +1987,7 @@
         <v>55</v>
       </c>
       <c r="AO11" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
@@ -2026,7 +2026,7 @@
         <v>2.94</v>
       </c>
       <c r="I12" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="J12" t="n">
         <v>2.96</v>
@@ -2056,16 +2056,16 @@
         <v>1.26</v>
       </c>
       <c r="S12" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="T12" t="n">
         <v>1.72</v>
       </c>
       <c r="U12" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="V12" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="W12" t="n">
         <v>1.51</v>
@@ -2080,7 +2080,7 @@
         <v>25</v>
       </c>
       <c r="AA12" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AB12" t="n">
         <v>11.5</v>
@@ -2104,7 +2104,7 @@
         <v>980</v>
       </c>
       <c r="AI12" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ12" t="n">
         <v>980</v>
@@ -2113,7 +2113,7 @@
         <v>980</v>
       </c>
       <c r="AL12" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM12" t="n">
         <v>150</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="G13" t="n">
         <v>3.2</v>
@@ -2161,13 +2161,13 @@
         <v>2.62</v>
       </c>
       <c r="I13" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="J13" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="K13" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
@@ -2191,16 +2191,16 @@
         <v>1.26</v>
       </c>
       <c r="S13" t="n">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="T13" t="n">
-        <v>1.72</v>
+        <v>1.86</v>
       </c>
       <c r="U13" t="n">
-        <v>1.81</v>
+        <v>1.96</v>
       </c>
       <c r="V13" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="W13" t="n">
         <v>1.46</v>
@@ -2236,7 +2236,7 @@
         <v>13.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AI13" t="n">
         <v>60</v>
@@ -2254,7 +2254,7 @@
         <v>150</v>
       </c>
       <c r="AN13" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AO13" t="n">
         <v>42</v>
@@ -2290,19 +2290,19 @@
         <v>1.74</v>
       </c>
       <c r="G14" t="n">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="H14" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I14" t="n">
-        <v>5.9</v>
+        <v>5.2</v>
       </c>
       <c r="J14" t="n">
         <v>3.6</v>
       </c>
       <c r="K14" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -2311,10 +2311,10 @@
         <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>2.44</v>
+        <v>5.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P14" t="n">
         <v>2.44</v>
@@ -2323,73 +2323,73 @@
         <v>1.5</v>
       </c>
       <c r="R14" t="n">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="S14" t="n">
         <v>2.22</v>
       </c>
       <c r="T14" t="n">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="U14" t="n">
-        <v>1.96</v>
+        <v>2.34</v>
       </c>
       <c r="V14" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W14" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="X14" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL14" t="n">
         <v>34</v>
       </c>
-      <c r="Y14" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>38</v>
-      </c>
       <c r="AM14" t="n">
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2422,10 +2422,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="G15" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H15" t="n">
         <v>6.6</v>
@@ -2434,10 +2434,10 @@
         <v>8.6</v>
       </c>
       <c r="J15" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="K15" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
@@ -2446,34 +2446,34 @@
         <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P15" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="R15" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S15" t="n">
         <v>2.78</v>
       </c>
       <c r="T15" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="U15" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="V15" t="n">
         <v>1.13</v>
       </c>
       <c r="W15" t="n">
-        <v>2.76</v>
+        <v>2.88</v>
       </c>
       <c r="X15" t="n">
         <v>980</v>
@@ -2488,7 +2488,7 @@
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>9.800000000000001</v>
+        <v>980</v>
       </c>
       <c r="AC15" t="n">
         <v>980</v>
@@ -2500,10 +2500,10 @@
         <v>150</v>
       </c>
       <c r="AF15" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AG15" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AH15" t="n">
         <v>980</v>
@@ -2527,7 +2527,7 @@
         <v>980</v>
       </c>
       <c r="AO15" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16">
@@ -2560,19 +2560,19 @@
         <v>2.2</v>
       </c>
       <c r="G16" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="H16" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I16" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="J16" t="n">
         <v>3.25</v>
       </c>
       <c r="K16" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
@@ -2716,7 +2716,7 @@
         <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>1.62</v>
+        <v>2.18</v>
       </c>
       <c r="O17" t="n">
         <v>1.02</v>
@@ -2749,10 +2749,10 @@
         <v>14.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AA17" t="n">
         <v>85</v>
@@ -2794,7 +2794,7 @@
         <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AO17" t="n">
         <v>1000</v>
@@ -2851,7 +2851,7 @@
         <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>1.92</v>
+        <v>2.96</v>
       </c>
       <c r="O18" t="n">
         <v>1.32</v>
@@ -2866,7 +2866,7 @@
         <v>1.29</v>
       </c>
       <c r="S18" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="T18" t="n">
         <v>1.51</v>
@@ -2875,10 +2875,10 @@
         <v>1.81</v>
       </c>
       <c r="V18" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="W18" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X18" t="n">
         <v>21</v>
@@ -2929,10 +2929,10 @@
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
@@ -2971,7 +2971,7 @@
         <v>1.93</v>
       </c>
       <c r="I19" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="J19" t="n">
         <v>3.5</v>
@@ -2986,7 +2986,7 @@
         <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="O19" t="n">
         <v>1.37</v>
@@ -2995,7 +2995,7 @@
         <v>1.74</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R19" t="n">
         <v>1.23</v>
@@ -3010,7 +3010,7 @@
         <v>1.64</v>
       </c>
       <c r="V19" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="W19" t="n">
         <v>1.28</v>
@@ -3247,7 +3247,7 @@
         <v>3.25</v>
       </c>
       <c r="K21" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
@@ -3262,13 +3262,13 @@
         <v>1.37</v>
       </c>
       <c r="P21" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.93</v>
+        <v>2.06</v>
       </c>
       <c r="R21" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S21" t="n">
         <v>3.35</v>
@@ -3379,7 +3379,7 @@
         <v>1000</v>
       </c>
       <c r="J22" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="K22" t="n">
         <v>1000</v>
@@ -3391,7 +3391,7 @@
         <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="O22" t="n">
         <v>1.01</v>
@@ -3406,13 +3406,13 @@
         <v>1.2</v>
       </c>
       <c r="S22" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="T22" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U22" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V22" t="n">
         <v>1.01</v>
@@ -3526,16 +3526,16 @@
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>1.91</v>
+        <v>1.1</v>
       </c>
       <c r="O23" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P23" t="n">
-        <v>1.91</v>
+        <v>1.99</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="R23" t="n">
         <v>1.36</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="G24" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="H24" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="I24" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="J24" t="n">
         <v>3.5</v>
@@ -3655,10 +3655,10 @@
         <v>3.55</v>
       </c>
       <c r="L24" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="M24" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
         <v>4.2</v>
@@ -3670,34 +3670,34 @@
         <v>2.02</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="R24" t="n">
         <v>1.41</v>
       </c>
       <c r="S24" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T24" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U24" t="n">
         <v>2.3</v>
       </c>
       <c r="V24" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W24" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="X24" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y24" t="n">
         <v>12.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AA24" t="n">
         <v>44</v>
@@ -3730,16 +3730,16 @@
         <v>42</v>
       </c>
       <c r="AK24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL24" t="n">
         <v>40</v>
       </c>
       <c r="AM24" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO24" t="n">
         <v>24</v>
@@ -3772,10 +3772,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="G25" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="H25" t="n">
         <v>5.4</v>
@@ -3787,19 +3787,19 @@
         <v>3.35</v>
       </c>
       <c r="K25" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="P25" t="n">
         <v>1.64</v>
@@ -3808,76 +3808,76 @@
         <v>2.24</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Z25" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AK25" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AL25" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AO25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
@@ -3907,112 +3907,112 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.56</v>
+        <v>2.64</v>
       </c>
       <c r="G26" t="n">
-        <v>2.72</v>
+        <v>2.86</v>
       </c>
       <c r="H26" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="I26" t="n">
-        <v>2.94</v>
+        <v>2.84</v>
       </c>
       <c r="J26" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K26" t="n">
         <v>3.75</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P26" t="n">
         <v>2.16</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.62</v>
+        <v>1.78</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA26" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AB26" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD26" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AE26" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AI26" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AK26" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AL26" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM26" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AN26" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AO26" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27">
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="G27" t="n">
         <v>2.12</v>
@@ -4051,103 +4051,103 @@
         <v>4.4</v>
       </c>
       <c r="I27" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J27" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K27" t="n">
+        <v>4</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S27" t="n">
         <v>4.1</v>
       </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Z27" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AA27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AG27" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AI27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AK27" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AL27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AO27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-28.xlsx
@@ -805,7 +805,7 @@
         <v>1.33</v>
       </c>
       <c r="G3" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="H3" t="n">
         <v>8.199999999999999</v>
@@ -814,7 +814,7 @@
         <v>14</v>
       </c>
       <c r="J3" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="K3" t="n">
         <v>7.2</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q3" t="n">
         <v>1.52</v>
@@ -946,13 +946,13 @@
         <v>1.54</v>
       </c>
       <c r="I4" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="J4" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K4" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L4" t="n">
         <v>1.43</v>
@@ -979,22 +979,22 @@
         <v>3.9</v>
       </c>
       <c r="T4" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="U4" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="V4" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="W4" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="X4" t="n">
         <v>13.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="Z4" t="n">
         <v>7.8</v>
@@ -1042,7 +1042,7 @@
         <v>240</v>
       </c>
       <c r="AO4" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -1096,7 +1096,7 @@
         <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="O5" t="n">
         <v>1.25</v>
@@ -1105,13 +1105,13 @@
         <v>2.12</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="R5" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="S5" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="T5" t="n">
         <v>1.53</v>
@@ -1120,7 +1120,7 @@
         <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="W5" t="n">
         <v>1.68</v>
@@ -1147,7 +1147,7 @@
         <v>17</v>
       </c>
       <c r="AE5" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AF5" t="n">
         <v>21</v>
@@ -1159,16 +1159,16 @@
         <v>19.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AJ5" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AK5" t="n">
         <v>29</v>
       </c>
       <c r="AL5" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AM5" t="n">
         <v>90</v>
@@ -1177,7 +1177,7 @@
         <v>19.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="G6" t="n">
         <v>1.64</v>
@@ -1222,7 +1222,7 @@
         <v>4.6</v>
       </c>
       <c r="K6" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1231,10 +1231,10 @@
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>1.1</v>
+        <v>6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P6" t="n">
         <v>2.68</v>
@@ -1243,16 +1243,16 @@
         <v>1.5</v>
       </c>
       <c r="R6" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="S6" t="n">
-        <v>2.08</v>
+        <v>2.24</v>
       </c>
       <c r="T6" t="n">
-        <v>1.52</v>
+        <v>1.63</v>
       </c>
       <c r="U6" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="V6" t="n">
         <v>1.19</v>
@@ -1261,58 +1261,58 @@
         <v>2.56</v>
       </c>
       <c r="X6" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Y6" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="Z6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM6" t="n">
         <v>75</v>
       </c>
-      <c r="AA6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>32</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>85</v>
-      </c>
       <c r="AN6" t="n">
-        <v>7.8</v>
+        <v>6.2</v>
       </c>
       <c r="AO6" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -1357,7 +1357,7 @@
         <v>3.3</v>
       </c>
       <c r="K7" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1366,7 +1366,7 @@
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="O7" t="n">
         <v>1.39</v>
@@ -1378,16 +1378,16 @@
         <v>2.16</v>
       </c>
       <c r="R7" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="S7" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="T7" t="n">
-        <v>1.76</v>
+        <v>1.89</v>
       </c>
       <c r="U7" t="n">
-        <v>1.81</v>
+        <v>1.95</v>
       </c>
       <c r="V7" t="n">
         <v>1.33</v>
@@ -1402,7 +1402,7 @@
         <v>13</v>
       </c>
       <c r="Z7" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AA7" t="n">
         <v>100</v>
@@ -1414,37 +1414,37 @@
         <v>7.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AE7" t="n">
         <v>55</v>
       </c>
       <c r="AF7" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AG7" t="n">
         <v>11.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="AI7" t="n">
         <v>70</v>
       </c>
       <c r="AJ7" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AK7" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AL7" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AM7" t="n">
         <v>160</v>
       </c>
       <c r="AN7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO7" t="n">
         <v>70</v>
@@ -1495,7 +1495,7 @@
         <v>3.55</v>
       </c>
       <c r="L8" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
@@ -1537,7 +1537,7 @@
         <v>14</v>
       </c>
       <c r="Z8" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AA8" t="n">
         <v>120</v>
@@ -1573,7 +1573,7 @@
         <v>26</v>
       </c>
       <c r="AL8" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AM8" t="n">
         <v>160</v>
@@ -1621,10 +1621,10 @@
         <v>3.8</v>
       </c>
       <c r="I9" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J9" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K9" t="n">
         <v>3.4</v>
@@ -1633,31 +1633,31 @@
         <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>2.26</v>
+        <v>2.6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.1</v>
+        <v>1.43</v>
       </c>
       <c r="P9" t="n">
         <v>1.64</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R9" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="S9" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="T9" t="n">
-        <v>1.83</v>
+        <v>1.96</v>
       </c>
       <c r="U9" t="n">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="V9" t="n">
         <v>1.3</v>
@@ -1666,10 +1666,10 @@
         <v>1.78</v>
       </c>
       <c r="X9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y9" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="Z9" t="n">
         <v>30</v>
@@ -1678,40 +1678,40 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="AE9" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AF9" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AG9" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AH9" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AI9" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AJ9" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AK9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL9" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN9" t="n">
         <v>1000</v>
@@ -1786,10 +1786,10 @@
         <v>1.26</v>
       </c>
       <c r="S10" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="T10" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="U10" t="n">
         <v>1.9</v>
@@ -1801,16 +1801,16 @@
         <v>1.24</v>
       </c>
       <c r="X10" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="Y10" t="n">
         <v>8</v>
       </c>
       <c r="Z10" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AA10" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AB10" t="n">
         <v>14</v>
@@ -1819,22 +1819,22 @@
         <v>8</v>
       </c>
       <c r="AD10" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AE10" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AF10" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AG10" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AH10" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AJ10" t="n">
         <v>130</v>
@@ -1852,7 +1852,7 @@
         <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
@@ -1885,7 +1885,7 @@
         <v>2.6</v>
       </c>
       <c r="G11" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="H11" t="n">
         <v>3.05</v>
@@ -1897,7 +1897,7 @@
         <v>3</v>
       </c>
       <c r="K11" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -1933,7 +1933,7 @@
         <v>1.42</v>
       </c>
       <c r="W11" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="X11" t="n">
         <v>9.199999999999999</v>
@@ -1957,10 +1957,10 @@
         <v>17.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AF11" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AG11" t="n">
         <v>13.5</v>
@@ -1972,10 +1972,10 @@
         <v>75</v>
       </c>
       <c r="AJ11" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AK11" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AL11" t="n">
         <v>75</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="G12" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="I12" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="J12" t="n">
-        <v>2.96</v>
+        <v>2.78</v>
       </c>
       <c r="K12" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="L12" t="n">
         <v>1.01</v>
@@ -2047,31 +2047,31 @@
         <v>1.39</v>
       </c>
       <c r="P12" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R12" t="n">
         <v>1.26</v>
       </c>
       <c r="S12" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="T12" t="n">
         <v>1.72</v>
       </c>
       <c r="U12" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="V12" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="W12" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="X12" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="Y12" t="n">
         <v>13</v>
@@ -2080,7 +2080,7 @@
         <v>25</v>
       </c>
       <c r="AA12" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AB12" t="n">
         <v>11.5</v>
@@ -2092,7 +2092,7 @@
         <v>16.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AF12" t="n">
         <v>21</v>
@@ -2101,25 +2101,25 @@
         <v>15</v>
       </c>
       <c r="AH12" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="AI12" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AJ12" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AK12" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AL12" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM12" t="n">
         <v>150</v>
       </c>
       <c r="AN12" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AO12" t="n">
         <v>55</v>
@@ -2170,7 +2170,7 @@
         <v>3.35</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M13" t="n">
         <v>1.08</v>
@@ -2191,10 +2191,10 @@
         <v>1.26</v>
       </c>
       <c r="S13" t="n">
-        <v>3.25</v>
+        <v>3.95</v>
       </c>
       <c r="T13" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U13" t="n">
         <v>1.96</v>
@@ -2215,7 +2215,7 @@
         <v>18</v>
       </c>
       <c r="AA13" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AB13" t="n">
         <v>10.5</v>
@@ -2227,7 +2227,7 @@
         <v>13</v>
       </c>
       <c r="AE13" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AF13" t="n">
         <v>20</v>
@@ -2239,13 +2239,13 @@
         <v>970</v>
       </c>
       <c r="AI13" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ13" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK13" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AL13" t="n">
         <v>55</v>
@@ -2254,7 +2254,7 @@
         <v>150</v>
       </c>
       <c r="AN13" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AO13" t="n">
         <v>42</v>
@@ -2287,19 +2287,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="G14" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="H14" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I14" t="n">
         <v>5.2</v>
       </c>
       <c r="J14" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
         <v>5.2</v>
@@ -2329,7 +2329,7 @@
         <v>2.22</v>
       </c>
       <c r="T14" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="U14" t="n">
         <v>2.34</v>
@@ -2338,19 +2338,19 @@
         <v>1.24</v>
       </c>
       <c r="W14" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="X14" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="Y14" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="Z14" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AA14" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB14" t="n">
         <v>15</v>
@@ -2371,16 +2371,16 @@
         <v>13</v>
       </c>
       <c r="AH14" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AI14" t="n">
         <v>60</v>
       </c>
       <c r="AJ14" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AK14" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AL14" t="n">
         <v>34</v>
@@ -2425,7 +2425,7 @@
         <v>1.45</v>
       </c>
       <c r="G15" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="H15" t="n">
         <v>6.6</v>
@@ -2467,7 +2467,7 @@
         <v>2.04</v>
       </c>
       <c r="U15" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="V15" t="n">
         <v>1.13</v>
@@ -2476,10 +2476,10 @@
         <v>2.88</v>
       </c>
       <c r="X15" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="Y15" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="Z15" t="n">
         <v>70</v>
@@ -2488,43 +2488,43 @@
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AC15" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AD15" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AE15" t="n">
         <v>150</v>
       </c>
       <c r="AF15" t="n">
-        <v>980</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG15" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AH15" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AI15" t="n">
         <v>130</v>
       </c>
       <c r="AJ15" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AK15" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AL15" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AM15" t="n">
         <v>190</v>
       </c>
       <c r="AN15" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AO15" t="n">
         <v>180</v>
@@ -2566,43 +2566,43 @@
         <v>3.35</v>
       </c>
       <c r="I16" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="J16" t="n">
         <v>3.25</v>
       </c>
       <c r="K16" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>2.5</v>
+        <v>2.92</v>
       </c>
       <c r="O16" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P16" t="n">
         <v>1.79</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="R16" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="S16" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="T16" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="U16" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V16" t="n">
         <v>1.37</v>
@@ -2611,52 +2611,52 @@
         <v>1.73</v>
       </c>
       <c r="X16" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF16" t="n">
         <v>17.5</v>
       </c>
-      <c r="Y16" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>100</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE16" t="n">
+      <c r="AG16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI16" t="n">
         <v>70</v>
       </c>
-      <c r="AF16" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>80</v>
-      </c>
       <c r="AJ16" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AK16" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AL16" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN16" t="n">
         <v>1000</v>
@@ -2707,7 +2707,7 @@
         <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
@@ -2716,7 +2716,7 @@
         <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>2.18</v>
+        <v>2.42</v>
       </c>
       <c r="O17" t="n">
         <v>1.02</v>
@@ -2725,7 +2725,7 @@
         <v>1.52</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.14</v>
+        <v>2.3</v>
       </c>
       <c r="R17" t="n">
         <v>1.19</v>
@@ -2782,7 +2782,7 @@
         <v>85</v>
       </c>
       <c r="AJ17" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AK17" t="n">
         <v>48</v>
@@ -2827,13 +2827,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="G18" t="n">
         <v>3.25</v>
       </c>
       <c r="H18" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="I18" t="n">
         <v>2.72</v>
@@ -2842,97 +2842,97 @@
         <v>3.35</v>
       </c>
       <c r="K18" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>2.96</v>
+        <v>3.7</v>
       </c>
       <c r="O18" t="n">
         <v>1.32</v>
       </c>
       <c r="P18" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="Q18" t="n">
         <v>1.91</v>
       </c>
       <c r="R18" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="S18" t="n">
-        <v>2.98</v>
+        <v>3.3</v>
       </c>
       <c r="T18" t="n">
-        <v>1.51</v>
+        <v>1.71</v>
       </c>
       <c r="U18" t="n">
-        <v>1.81</v>
+        <v>2.16</v>
       </c>
       <c r="V18" t="n">
         <v>1.58</v>
       </c>
       <c r="W18" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X18" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="Y18" t="n">
-        <v>16</v>
+        <v>11.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AA18" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AB18" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AC18" t="n">
-        <v>11</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH18" t="n">
         <v>17.5</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AI18" t="n">
         <v>40</v>
       </c>
-      <c r="AF18" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>55</v>
-      </c>
       <c r="AJ18" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AK18" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="AL18" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN18" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
@@ -2962,19 +2962,19 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="G19" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="H19" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="I19" t="n">
         <v>2.06</v>
       </c>
       <c r="J19" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K19" t="n">
         <v>3.85</v>
@@ -2983,85 +2983,85 @@
         <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>2.5</v>
+        <v>2.84</v>
       </c>
       <c r="O19" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="P19" t="n">
         <v>1.74</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="R19" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="S19" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="T19" t="n">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="U19" t="n">
-        <v>1.64</v>
+        <v>1.9</v>
       </c>
       <c r="V19" t="n">
         <v>1.94</v>
       </c>
       <c r="W19" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="X19" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="Z19" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AA19" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AB19" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AC19" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AD19" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AE19" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AF19" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AG19" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AH19" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AI19" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="AJ19" t="n">
         <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AL19" t="n">
         <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN19" t="n">
         <v>1000</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="G20" t="n">
-        <v>2.8</v>
+        <v>2.58</v>
       </c>
       <c r="H20" t="n">
         <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="J20" t="n">
-        <v>2.84</v>
+        <v>3.2</v>
       </c>
       <c r="K20" t="n">
-        <v>4</v>
+        <v>3.45</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
@@ -3127,10 +3127,10 @@
         <v>1.37</v>
       </c>
       <c r="P20" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R20" t="n">
         <v>1.24</v>
@@ -3142,16 +3142,16 @@
         <v>1.03</v>
       </c>
       <c r="U20" t="n">
-        <v>1.03</v>
+        <v>2.1</v>
       </c>
       <c r="V20" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="W20" t="n">
-        <v>1.55</v>
+        <v>1.66</v>
       </c>
       <c r="X20" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y20" t="n">
         <v>1000</v>
@@ -3274,7 +3274,7 @@
         <v>3.35</v>
       </c>
       <c r="T21" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="U21" t="n">
         <v>1.98</v>
@@ -3307,7 +3307,7 @@
         <v>12</v>
       </c>
       <c r="AE21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF21" t="n">
         <v>26</v>
@@ -3334,10 +3334,10 @@
         <v>140</v>
       </c>
       <c r="AN21" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AO21" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
@@ -3505,13 +3505,13 @@
         <v>2.18</v>
       </c>
       <c r="G23" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="H23" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="I23" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="J23" t="n">
         <v>3.05</v>
@@ -3526,7 +3526,7 @@
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>1.1</v>
+        <v>2.66</v>
       </c>
       <c r="O23" t="n">
         <v>1.22</v>
@@ -3535,7 +3535,7 @@
         <v>1.99</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="R23" t="n">
         <v>1.36</v>
@@ -3553,7 +3553,7 @@
         <v>1.4</v>
       </c>
       <c r="W23" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="X23" t="n">
         <v>1000</v>
@@ -3640,7 +3640,7 @@
         <v>2.76</v>
       </c>
       <c r="G24" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="H24" t="n">
         <v>2.8</v>
@@ -3673,7 +3673,7 @@
         <v>1.94</v>
       </c>
       <c r="R24" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S24" t="n">
         <v>3.35</v>
@@ -3688,7 +3688,7 @@
         <v>1.54</v>
       </c>
       <c r="W24" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="X24" t="n">
         <v>15</v>
@@ -3772,109 +3772,109 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="G25" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="H25" t="n">
         <v>5.4</v>
       </c>
       <c r="I25" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="J25" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K25" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="L25" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="M25" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>2.24</v>
+        <v>2.94</v>
       </c>
       <c r="O25" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P25" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="Q25" t="n">
         <v>2.24</v>
       </c>
       <c r="R25" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="S25" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="T25" t="n">
-        <v>1.78</v>
+        <v>2.1</v>
       </c>
       <c r="U25" t="n">
-        <v>1.54</v>
+        <v>1.75</v>
       </c>
       <c r="V25" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W25" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="X25" t="n">
-        <v>15.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>23</v>
+        <v>16.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AA25" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AB25" t="n">
-        <v>9.4</v>
+        <v>7.2</v>
       </c>
       <c r="AC25" t="n">
-        <v>11.5</v>
+        <v>8.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AE25" t="n">
         <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AH25" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AI25" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK25" t="n">
         <v>24</v>
       </c>
-      <c r="AK25" t="n">
-        <v>32</v>
-      </c>
       <c r="AL25" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM25" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AN25" t="n">
-        <v>24</v>
+        <v>17.5</v>
       </c>
       <c r="AO25" t="n">
         <v>1000</v>
@@ -3907,19 +3907,19 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="G26" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="H26" t="n">
         <v>2.66</v>
       </c>
       <c r="I26" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="J26" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K26" t="n">
         <v>3.75</v>
@@ -3928,58 +3928,58 @@
         <v>1.33</v>
       </c>
       <c r="M26" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>1.1</v>
+        <v>4.4</v>
       </c>
       <c r="O26" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P26" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q26" t="n">
         <v>1.78</v>
       </c>
       <c r="R26" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="S26" t="n">
-        <v>2.68</v>
+        <v>2.94</v>
       </c>
       <c r="T26" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="U26" t="n">
-        <v>2.26</v>
+        <v>2.38</v>
       </c>
       <c r="V26" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="W26" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="X26" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y26" t="n">
         <v>13.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AB26" t="n">
         <v>13.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE26" t="n">
         <v>28</v>
@@ -3994,16 +3994,16 @@
         <v>16</v>
       </c>
       <c r="AI26" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AJ26" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AK26" t="n">
         <v>28</v>
       </c>
       <c r="AL26" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AM26" t="n">
         <v>70</v>
@@ -4012,7 +4012,7 @@
         <v>20</v>
       </c>
       <c r="AO26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
@@ -4042,16 +4042,16 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="G27" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="H27" t="n">
         <v>4.4</v>
       </c>
       <c r="I27" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="J27" t="n">
         <v>3.2</v>
@@ -4066,85 +4066,85 @@
         <v>1.09</v>
       </c>
       <c r="N27" t="n">
-        <v>2</v>
+        <v>2.82</v>
       </c>
       <c r="O27" t="n">
-        <v>1.1</v>
+        <v>1.46</v>
       </c>
       <c r="P27" t="n">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.16</v>
+        <v>2.32</v>
       </c>
       <c r="R27" t="n">
         <v>1.22</v>
       </c>
       <c r="S27" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="T27" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U27" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="V27" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W27" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="X27" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF27" t="n">
         <v>12</v>
       </c>
-      <c r="Y27" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>50</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>16</v>
-      </c>
       <c r="AG27" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI27" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ27" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AK27" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL27" t="n">
         <v>1000</v>
       </c>
       <c r="AM27" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN27" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AO27" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-28.xlsx
@@ -694,19 +694,19 @@
         <v>1.36</v>
       </c>
       <c r="O2" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P2" t="n">
         <v>1.36</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="R2" t="n">
         <v>1.27</v>
       </c>
       <c r="S2" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="T2" t="n">
         <v>1.03</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="G3" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="H3" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="I3" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K3" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>2.38</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -937,43 +937,43 @@
         </is>
       </c>
       <c r="F4" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="G4" t="n">
         <v>8</v>
       </c>
-      <c r="G4" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="H4" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="I4" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="J4" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="K4" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="L4" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O4" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P4" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="Q4" t="n">
         <v>2.1</v>
       </c>
       <c r="R4" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S4" t="n">
         <v>3.9</v>
@@ -982,31 +982,31 @@
         <v>2.26</v>
       </c>
       <c r="U4" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="V4" t="n">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="W4" t="n">
         <v>1.14</v>
       </c>
       <c r="X4" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y4" t="n">
         <v>7</v>
       </c>
       <c r="Z4" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AA4" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AB4" t="n">
         <v>22</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD4" t="n">
         <v>10</v>
@@ -1027,22 +1027,22 @@
         <v>46</v>
       </c>
       <c r="AJ4" t="n">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="AK4" t="n">
         <v>160</v>
       </c>
       <c r="AL4" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AM4" t="n">
         <v>200</v>
       </c>
       <c r="AN4" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AO4" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G5" t="n">
         <v>2.48</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I5" t="n">
         <v>3.35</v>
@@ -1087,7 +1087,7 @@
         <v>3.6</v>
       </c>
       <c r="K5" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1102,16 +1102,16 @@
         <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="R5" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="S5" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="T5" t="n">
         <v>1.53</v>
@@ -1123,7 +1123,7 @@
         <v>1.42</v>
       </c>
       <c r="W5" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="X5" t="n">
         <v>22</v>
@@ -1147,13 +1147,13 @@
         <v>17</v>
       </c>
       <c r="AE5" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AF5" t="n">
         <v>21</v>
       </c>
       <c r="AG5" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH5" t="n">
         <v>19.5</v>
@@ -1168,7 +1168,7 @@
         <v>29</v>
       </c>
       <c r="AL5" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AM5" t="n">
         <v>90</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="G6" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="H6" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="I6" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J6" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K6" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1252,19 +1252,19 @@
         <v>1.63</v>
       </c>
       <c r="U6" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="V6" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W6" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="X6" t="n">
         <v>32</v>
       </c>
       <c r="Y6" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="Z6" t="n">
         <v>55</v>
@@ -1273,40 +1273,40 @@
         <v>160</v>
       </c>
       <c r="AB6" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AE6" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AF6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG6" t="n">
         <v>13</v>
       </c>
-      <c r="AG6" t="n">
-        <v>11</v>
-      </c>
       <c r="AH6" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI6" t="n">
         <v>60</v>
       </c>
       <c r="AJ6" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AL6" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AM6" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AN6" t="n">
         <v>6.2</v>
@@ -1342,13 +1342,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G7" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H7" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="I7" t="n">
         <v>4.2</v>
@@ -1363,16 +1363,16 @@
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P7" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="Q7" t="n">
         <v>2.16</v>
@@ -1384,25 +1384,25 @@
         <v>4</v>
       </c>
       <c r="T7" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U7" t="n">
         <v>1.95</v>
       </c>
       <c r="V7" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W7" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="X7" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Y7" t="n">
         <v>13</v>
       </c>
       <c r="Z7" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AA7" t="n">
         <v>100</v>
@@ -1414,40 +1414,40 @@
         <v>7.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AF7" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="AG7" t="n">
         <v>11.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>960</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
         <v>70</v>
       </c>
       <c r="AJ7" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AK7" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AL7" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AM7" t="n">
         <v>160</v>
       </c>
       <c r="AN7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO7" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="G8" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J8" t="n">
         <v>3.35</v>
@@ -1501,43 +1501,43 @@
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>2.8</v>
+        <v>3.15</v>
       </c>
       <c r="O8" t="n">
         <v>1.38</v>
       </c>
       <c r="P8" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.95</v>
+        <v>2.14</v>
       </c>
       <c r="R8" t="n">
         <v>1.27</v>
       </c>
       <c r="S8" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T8" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="U8" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V8" t="n">
         <v>1.29</v>
       </c>
       <c r="W8" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="X8" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y8" t="n">
         <v>14</v>
       </c>
       <c r="Z8" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AA8" t="n">
         <v>120</v>
@@ -1573,7 +1573,7 @@
         <v>26</v>
       </c>
       <c r="AL8" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AM8" t="n">
         <v>160</v>
@@ -1582,7 +1582,7 @@
         <v>21</v>
       </c>
       <c r="AO8" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
@@ -1612,19 +1612,19 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="G9" t="n">
         <v>2.3</v>
       </c>
       <c r="H9" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I9" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="J9" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K9" t="n">
         <v>3.4</v>
@@ -1636,85 +1636,85 @@
         <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>2.6</v>
+        <v>2.92</v>
       </c>
       <c r="O9" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="P9" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R9" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S9" t="n">
-        <v>3.5</v>
+        <v>3.95</v>
       </c>
       <c r="T9" t="n">
         <v>1.96</v>
       </c>
       <c r="U9" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="V9" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="W9" t="n">
         <v>1.78</v>
       </c>
       <c r="X9" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="Z9" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC9" t="n">
         <v>7.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AE9" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL9" t="n">
         <v>60</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>50</v>
       </c>
       <c r="AM9" t="n">
         <v>180</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1750,16 +1750,16 @@
         <v>4.3</v>
       </c>
       <c r="G10" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="H10" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="I10" t="n">
         <v>2.08</v>
       </c>
       <c r="J10" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K10" t="n">
         <v>3.6</v>
@@ -1771,25 +1771,25 @@
         <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>2.72</v>
+        <v>3.05</v>
       </c>
       <c r="O10" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P10" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="R10" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S10" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="T10" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="U10" t="n">
         <v>1.9</v>
@@ -1798,16 +1798,16 @@
         <v>1.92</v>
       </c>
       <c r="W10" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="X10" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="Y10" t="n">
         <v>8</v>
       </c>
       <c r="Z10" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AA10" t="n">
         <v>25</v>
@@ -1819,7 +1819,7 @@
         <v>8</v>
       </c>
       <c r="AD10" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AE10" t="n">
         <v>25</v>
@@ -1837,7 +1837,7 @@
         <v>46</v>
       </c>
       <c r="AJ10" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AK10" t="n">
         <v>70</v>
@@ -1852,7 +1852,7 @@
         <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1882,112 +1882,112 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="G11" t="n">
-        <v>2.82</v>
+        <v>2.68</v>
       </c>
       <c r="H11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J11" t="n">
         <v>3.05</v>
       </c>
-      <c r="I11" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3</v>
-      </c>
       <c r="K11" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>2.64</v>
+        <v>2.76</v>
       </c>
       <c r="O11" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="P11" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.28</v>
+        <v>2.44</v>
       </c>
       <c r="R11" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="S11" t="n">
-        <v>3.45</v>
+        <v>4.5</v>
       </c>
       <c r="T11" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U11" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="V11" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="W11" t="n">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="X11" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AA11" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AB11" t="n">
-        <v>8.4</v>
+        <v>10</v>
       </c>
       <c r="AC11" t="n">
         <v>7.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE11" t="n">
         <v>60</v>
       </c>
       <c r="AF11" t="n">
-        <v>19.5</v>
+        <v>16</v>
       </c>
       <c r="AG11" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AI11" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ11" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AK11" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AL11" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AM11" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN11" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AO11" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
@@ -2017,19 +2017,19 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>2.86</v>
       </c>
       <c r="H12" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="I12" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J12" t="n">
-        <v>2.78</v>
+        <v>3.1</v>
       </c>
       <c r="K12" t="n">
         <v>3.4</v>
@@ -2041,7 +2041,7 @@
         <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>2.76</v>
+        <v>2.86</v>
       </c>
       <c r="O12" t="n">
         <v>1.39</v>
@@ -2050,7 +2050,7 @@
         <v>1.71</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="R12" t="n">
         <v>1.26</v>
@@ -2062,28 +2062,28 @@
         <v>1.72</v>
       </c>
       <c r="U12" t="n">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="V12" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="W12" t="n">
         <v>1.54</v>
       </c>
       <c r="X12" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="Y12" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z12" t="n">
         <v>25</v>
       </c>
       <c r="AA12" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB12" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC12" t="n">
         <v>9</v>
@@ -2104,25 +2104,25 @@
         <v>960</v>
       </c>
       <c r="AI12" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ12" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AK12" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AL12" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM12" t="n">
         <v>150</v>
       </c>
       <c r="AN12" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AO12" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
@@ -2152,19 +2152,19 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.88</v>
+        <v>2.76</v>
       </c>
       <c r="G13" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J13" t="n">
         <v>3.2</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.15</v>
       </c>
       <c r="K13" t="n">
         <v>3.35</v>
@@ -2176,67 +2176,67 @@
         <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>2.72</v>
+        <v>3.05</v>
       </c>
       <c r="O13" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="P13" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R13" t="n">
         <v>1.26</v>
       </c>
       <c r="S13" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="T13" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U13" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V13" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W13" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="X13" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y13" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB13" t="n">
         <v>10</v>
       </c>
-      <c r="Z13" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>46</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AC13" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD13" t="n">
         <v>13</v>
       </c>
       <c r="AE13" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AF13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG13" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH13" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="AI13" t="n">
         <v>55</v>
@@ -2245,7 +2245,7 @@
         <v>55</v>
       </c>
       <c r="AK13" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AL13" t="n">
         <v>55</v>
@@ -2254,7 +2254,7 @@
         <v>150</v>
       </c>
       <c r="AN13" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AO13" t="n">
         <v>42</v>
@@ -2299,10 +2299,10 @@
         <v>5.2</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K14" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -2311,7 +2311,7 @@
         <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O14" t="n">
         <v>1.19</v>
@@ -2320,22 +2320,22 @@
         <v>2.44</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="R14" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S14" t="n">
-        <v>2.22</v>
+        <v>2.38</v>
       </c>
       <c r="T14" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="U14" t="n">
         <v>2.34</v>
       </c>
       <c r="V14" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W14" t="n">
         <v>2.24</v>
@@ -2344,19 +2344,19 @@
         <v>26</v>
       </c>
       <c r="Y14" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Z14" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AA14" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AB14" t="n">
         <v>15</v>
       </c>
       <c r="AC14" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD14" t="n">
         <v>23</v>
@@ -2374,22 +2374,22 @@
         <v>21</v>
       </c>
       <c r="AI14" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AJ14" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AK14" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AL14" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM14" t="n">
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="G15" t="n">
         <v>1.52</v>
@@ -2431,16 +2431,16 @@
         <v>6.6</v>
       </c>
       <c r="I15" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="J15" t="n">
         <v>4.9</v>
       </c>
       <c r="K15" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="L15" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
@@ -2452,10 +2452,10 @@
         <v>1.27</v>
       </c>
       <c r="P15" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.78</v>
+        <v>1.71</v>
       </c>
       <c r="R15" t="n">
         <v>1.4</v>
@@ -2467,16 +2467,16 @@
         <v>2.04</v>
       </c>
       <c r="U15" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="V15" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W15" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="X15" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y15" t="n">
         <v>25</v>
@@ -2488,10 +2488,10 @@
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>970</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="AD15" t="n">
         <v>30</v>
@@ -2500,34 +2500,34 @@
         <v>150</v>
       </c>
       <c r="AF15" t="n">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG15" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AH15" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AI15" t="n">
         <v>130</v>
       </c>
       <c r="AJ15" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AK15" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="AL15" t="n">
         <v>42</v>
       </c>
       <c r="AM15" t="n">
+        <v>210</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AO15" t="n">
         <v>190</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>970</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>180</v>
       </c>
     </row>
     <row r="16">
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G16" t="n">
         <v>2.36</v>
       </c>
       <c r="H16" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I16" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="J16" t="n">
         <v>3.25</v>
@@ -2590,22 +2590,22 @@
         <v>1.79</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="R16" t="n">
         <v>1.3</v>
       </c>
       <c r="S16" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="T16" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="U16" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="V16" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W16" t="n">
         <v>1.73</v>
@@ -2626,7 +2626,7 @@
         <v>11.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="AD16" t="n">
         <v>18.5</v>
@@ -2659,7 +2659,7 @@
         <v>130</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
@@ -2716,7 +2716,7 @@
         <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>2.42</v>
+        <v>2.08</v>
       </c>
       <c r="O17" t="n">
         <v>1.02</v>
@@ -2725,19 +2725,19 @@
         <v>1.52</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="R17" t="n">
         <v>1.19</v>
       </c>
       <c r="S17" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="T17" t="n">
         <v>1.66</v>
       </c>
       <c r="U17" t="n">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="V17" t="n">
         <v>1.41</v>
@@ -2758,7 +2758,7 @@
         <v>85</v>
       </c>
       <c r="AB17" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC17" t="n">
         <v>9.800000000000001</v>
@@ -2767,10 +2767,10 @@
         <v>20</v>
       </c>
       <c r="AE17" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG17" t="n">
         <v>18</v>
@@ -2779,7 +2779,7 @@
         <v>29</v>
       </c>
       <c r="AI17" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AJ17" t="n">
         <v>60</v>
@@ -2827,19 +2827,19 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="G18" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H18" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="I18" t="n">
         <v>2.72</v>
       </c>
       <c r="J18" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="K18" t="n">
         <v>3.55</v>
@@ -2848,31 +2848,31 @@
         <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P18" t="n">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="R18" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="S18" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="T18" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="U18" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="V18" t="n">
         <v>1.58</v>
@@ -2884,55 +2884,55 @@
         <v>15</v>
       </c>
       <c r="Y18" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AA18" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AB18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD18" t="n">
         <v>12.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG18" t="n">
         <v>14</v>
       </c>
       <c r="AH18" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI18" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ18" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AK18" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AL18" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM18" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN18" t="n">
         <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="G19" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H19" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="I19" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="J19" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="K19" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L19" t="n">
         <v>1.01</v>
@@ -2995,7 +2995,7 @@
         <v>1.74</v>
       </c>
       <c r="Q19" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="R19" t="n">
         <v>1.28</v>
@@ -3007,55 +3007,55 @@
         <v>1.91</v>
       </c>
       <c r="U19" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V19" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="W19" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="X19" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="Y19" t="n">
-        <v>970</v>
+        <v>9.4</v>
       </c>
       <c r="Z19" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AB19" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AC19" t="n">
-        <v>970</v>
+        <v>9.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AE19" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AF19" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AG19" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AH19" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AI19" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AJ19" t="n">
         <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AL19" t="n">
         <v>1000</v>
@@ -3067,7 +3067,7 @@
         <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20">
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="G20" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="H20" t="n">
         <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="J20" t="n">
         <v>3.2</v>
       </c>
       <c r="K20" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
@@ -3121,22 +3121,22 @@
         <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="O20" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P20" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="R20" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="S20" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T20" t="n">
         <v>1.03</v>
@@ -3145,10 +3145,10 @@
         <v>2.1</v>
       </c>
       <c r="V20" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W20" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="J21" t="n">
         <v>3.4</v>
       </c>
-      <c r="G21" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3.25</v>
-      </c>
       <c r="K21" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
@@ -3256,13 +3256,13 @@
         <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>2.98</v>
+        <v>3.25</v>
       </c>
       <c r="O21" t="n">
         <v>1.37</v>
       </c>
       <c r="P21" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="Q21" t="n">
         <v>2.06</v>
@@ -3271,22 +3271,22 @@
         <v>1.29</v>
       </c>
       <c r="S21" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="T21" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U21" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V21" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="W21" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="X21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y21" t="n">
         <v>9.6</v>
@@ -3301,7 +3301,7 @@
         <v>13</v>
       </c>
       <c r="AC21" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD21" t="n">
         <v>12</v>
@@ -3310,7 +3310,7 @@
         <v>28</v>
       </c>
       <c r="AF21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG21" t="n">
         <v>16</v>
@@ -3319,22 +3319,22 @@
         <v>19.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
         <v>75</v>
       </c>
       <c r="AK21" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AM21" t="n">
         <v>140</v>
       </c>
       <c r="AN21" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AO21" t="n">
         <v>23</v>
@@ -3367,64 +3367,64 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.04</v>
+        <v>1.8</v>
       </c>
       <c r="G22" t="n">
-        <v>1000</v>
+        <v>1.96</v>
       </c>
       <c r="H22" t="n">
-        <v>1.04</v>
+        <v>3.6</v>
       </c>
       <c r="I22" t="n">
-        <v>1000</v>
+        <v>4.8</v>
       </c>
       <c r="J22" t="n">
-        <v>1.09</v>
+        <v>3.85</v>
       </c>
       <c r="K22" t="n">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>1.25</v>
+        <v>4.3</v>
       </c>
       <c r="O22" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="P22" t="n">
-        <v>1.24</v>
+        <v>2.38</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.01</v>
+        <v>1.57</v>
       </c>
       <c r="R22" t="n">
-        <v>1.2</v>
+        <v>1.55</v>
       </c>
       <c r="S22" t="n">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
       <c r="T22" t="n">
-        <v>1.03</v>
+        <v>1.59</v>
       </c>
       <c r="U22" t="n">
-        <v>1.03</v>
+        <v>2.16</v>
       </c>
       <c r="V22" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="W22" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="X22" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y22" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Z22" t="n">
         <v>1000</v>
@@ -3433,25 +3433,25 @@
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD22" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AE22" t="n">
         <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AG22" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH22" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI22" t="n">
         <v>1000</v>
@@ -3460,16 +3460,16 @@
         <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM22" t="n">
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="G23" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="H23" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="I23" t="n">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="J23" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="K23" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L23" t="n">
         <v>1.01</v>
@@ -3526,16 +3526,16 @@
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>2.66</v>
+        <v>1.98</v>
       </c>
       <c r="O23" t="n">
         <v>1.22</v>
       </c>
       <c r="P23" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="R23" t="n">
         <v>1.36</v>
@@ -3550,10 +3550,10 @@
         <v>1.03</v>
       </c>
       <c r="V23" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W23" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X23" t="n">
         <v>1000</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="G24" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="H24" t="n">
         <v>2.78</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>2.8</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2.82</v>
       </c>
       <c r="J24" t="n">
         <v>3.5</v>
@@ -3658,13 +3658,13 @@
         <v>1.41</v>
       </c>
       <c r="M24" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O24" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P24" t="n">
         <v>2.02</v>
@@ -3673,7 +3673,7 @@
         <v>1.94</v>
       </c>
       <c r="R24" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="S24" t="n">
         <v>3.35</v>
@@ -3682,34 +3682,34 @@
         <v>1.73</v>
       </c>
       <c r="U24" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="V24" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="W24" t="n">
         <v>1.54</v>
       </c>
-      <c r="W24" t="n">
-        <v>1.56</v>
-      </c>
       <c r="X24" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z24" t="n">
         <v>18.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AB24" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC24" t="n">
         <v>7.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE24" t="n">
         <v>30</v>
@@ -3724,7 +3724,7 @@
         <v>16.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ24" t="n">
         <v>42</v>
@@ -3772,109 +3772,109 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="G25" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="H25" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="I25" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="J25" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K25" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="L25" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N25" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="O25" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="P25" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="R25" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S25" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="T25" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="U25" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="V25" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W25" t="n">
-        <v>2.14</v>
+        <v>2.32</v>
       </c>
       <c r="X25" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AA25" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AB25" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AC25" t="n">
         <v>8.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE25" t="n">
         <v>1000</v>
       </c>
       <c r="AF25" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG25" t="n">
         <v>10.5</v>
       </c>
-      <c r="AG25" t="n">
-        <v>11</v>
-      </c>
       <c r="AH25" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI25" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AJ25" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AK25" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AL25" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM25" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AN25" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AO25" t="n">
         <v>1000</v>
@@ -3910,10 +3910,10 @@
         <v>2.66</v>
       </c>
       <c r="G26" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="H26" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="I26" t="n">
         <v>2.8</v>
@@ -3925,7 +3925,7 @@
         <v>3.75</v>
       </c>
       <c r="L26" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M26" t="n">
         <v>1.05</v>
@@ -3940,13 +3940,13 @@
         <v>2.18</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="R26" t="n">
         <v>1.47</v>
       </c>
       <c r="S26" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="T26" t="n">
         <v>1.65</v>
@@ -3961,7 +3961,7 @@
         <v>1.55</v>
       </c>
       <c r="X26" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="Y26" t="n">
         <v>13.5</v>
@@ -3970,7 +3970,7 @@
         <v>19.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AB26" t="n">
         <v>13.5</v>
@@ -3985,31 +3985,31 @@
         <v>28</v>
       </c>
       <c r="AF26" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AG26" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH26" t="n">
         <v>16</v>
       </c>
       <c r="AI26" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AJ26" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AK26" t="n">
         <v>28</v>
       </c>
       <c r="AL26" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AM26" t="n">
         <v>70</v>
       </c>
       <c r="AN26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO26" t="n">
         <v>20</v>
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="G27" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="H27" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="I27" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="J27" t="n">
         <v>3.2</v>
       </c>
       <c r="K27" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L27" t="n">
         <v>1.01</v>
@@ -4066,13 +4066,13 @@
         <v>1.09</v>
       </c>
       <c r="N27" t="n">
-        <v>2.82</v>
+        <v>2.76</v>
       </c>
       <c r="O27" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="P27" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="Q27" t="n">
         <v>2.32</v>
@@ -4084,37 +4084,37 @@
         <v>4.5</v>
       </c>
       <c r="T27" t="n">
-        <v>2.04</v>
+        <v>1.88</v>
       </c>
       <c r="U27" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="V27" t="n">
         <v>1.2</v>
       </c>
       <c r="W27" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="X27" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Z27" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA27" t="n">
         <v>160</v>
       </c>
       <c r="AB27" t="n">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="AC27" t="n">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD27" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AE27" t="n">
         <v>1000</v>
@@ -4123,28 +4123,28 @@
         <v>12</v>
       </c>
       <c r="AG27" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AH27" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI27" t="n">
         <v>120</v>
       </c>
       <c r="AJ27" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AK27" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL27" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM27" t="n">
         <v>210</v>
       </c>
       <c r="AN27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO27" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-28.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.04</v>
+        <v>1.98</v>
       </c>
       <c r="G2" t="n">
-        <v>1000</v>
+        <v>2.84</v>
       </c>
       <c r="H2" t="n">
-        <v>1.04</v>
+        <v>2.88</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>4.1</v>
       </c>
       <c r="J2" t="n">
-        <v>1.02</v>
+        <v>3.3</v>
       </c>
       <c r="K2" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -691,22 +691,22 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.36</v>
+        <v>2.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="P2" t="n">
-        <v>1.36</v>
+        <v>2.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.17</v>
+        <v>1.52</v>
       </c>
       <c r="R2" t="n">
-        <v>1.27</v>
+        <v>1.44</v>
       </c>
       <c r="S2" t="n">
-        <v>1.17</v>
+        <v>2.26</v>
       </c>
       <c r="T2" t="n">
         <v>1.03</v>
@@ -715,10 +715,10 @@
         <v>1.03</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -805,16 +805,16 @@
         <v>1.32</v>
       </c>
       <c r="G3" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I3" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="J3" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="K3" t="n">
         <v>6.4</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.51</v>
+        <v>1.6</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -937,55 +937,55 @@
         </is>
       </c>
       <c r="F4" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="G4" t="n">
         <v>7.8</v>
       </c>
-      <c r="G4" t="n">
-        <v>8</v>
-      </c>
       <c r="H4" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="I4" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="J4" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K4" t="n">
         <v>4.2</v>
       </c>
-      <c r="K4" t="n">
-        <v>4.3</v>
-      </c>
       <c r="L4" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P4" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="R4" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S4" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="T4" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="U4" t="n">
         <v>1.76</v>
       </c>
       <c r="V4" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="W4" t="n">
         <v>1.14</v>
@@ -1000,37 +1000,37 @@
         <v>8</v>
       </c>
       <c r="AA4" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AB4" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD4" t="n">
         <v>10</v>
       </c>
       <c r="AE4" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AG4" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AH4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI4" t="n">
         <v>46</v>
       </c>
       <c r="AJ4" t="n">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="AK4" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="AL4" t="n">
         <v>140</v>
@@ -1039,10 +1039,10 @@
         <v>200</v>
       </c>
       <c r="AN4" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="AO4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -1087,7 +1087,7 @@
         <v>3.6</v>
       </c>
       <c r="K5" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1105,19 +1105,19 @@
         <v>2.14</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R5" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="S5" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="T5" t="n">
         <v>1.53</v>
       </c>
       <c r="U5" t="n">
-        <v>2.1</v>
+        <v>2.28</v>
       </c>
       <c r="V5" t="n">
         <v>1.42</v>
@@ -1144,10 +1144,10 @@
         <v>10.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AF5" t="n">
         <v>21</v>
@@ -1168,7 +1168,7 @@
         <v>29</v>
       </c>
       <c r="AL5" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AM5" t="n">
         <v>90</v>
@@ -1207,25 +1207,25 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="G6" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="H6" t="n">
         <v>5.8</v>
       </c>
       <c r="I6" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J6" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K6" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
@@ -1237,28 +1237,28 @@
         <v>1.16</v>
       </c>
       <c r="P6" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="R6" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="S6" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="T6" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="U6" t="n">
-        <v>2.34</v>
+        <v>2.1</v>
       </c>
       <c r="V6" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W6" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="X6" t="n">
         <v>32</v>
@@ -1267,19 +1267,19 @@
         <v>36</v>
       </c>
       <c r="Z6" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA6" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AB6" t="n">
         <v>15.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AD6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE6" t="n">
         <v>70</v>
@@ -1291,13 +1291,13 @@
         <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AI6" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AJ6" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AK6" t="n">
         <v>18</v>
@@ -1306,13 +1306,13 @@
         <v>32</v>
       </c>
       <c r="AM6" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AN6" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="AO6" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
@@ -1342,85 +1342,85 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="G7" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H7" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="I7" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="J7" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K7" t="n">
         <v>3.45</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M7" t="n">
         <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O7" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="P7" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="R7" t="n">
         <v>1.27</v>
       </c>
       <c r="S7" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="T7" t="n">
         <v>1.9</v>
       </c>
       <c r="U7" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="V7" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="W7" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="X7" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AA7" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AB7" t="n">
         <v>8.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AE7" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AF7" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="AG7" t="n">
         <v>11.5</v>
@@ -1432,22 +1432,22 @@
         <v>70</v>
       </c>
       <c r="AJ7" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK7" t="n">
         <v>34</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>32</v>
       </c>
       <c r="AL7" t="n">
         <v>55</v>
       </c>
       <c r="AM7" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO7" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="G8" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I8" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J8" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K8" t="n">
         <v>3.55</v>
@@ -1498,22 +1498,22 @@
         <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N8" t="n">
         <v>3.15</v>
       </c>
       <c r="O8" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="P8" t="n">
         <v>1.74</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R8" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S8" t="n">
         <v>3.5</v>
@@ -1522,25 +1522,25 @@
         <v>1.9</v>
       </c>
       <c r="U8" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V8" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="W8" t="n">
         <v>1.84</v>
       </c>
       <c r="X8" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="Y8" t="n">
         <v>14</v>
       </c>
       <c r="Z8" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AA8" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB8" t="n">
         <v>8.6</v>
@@ -1552,10 +1552,10 @@
         <v>18</v>
       </c>
       <c r="AE8" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AF8" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AG8" t="n">
         <v>11.5</v>
@@ -1564,13 +1564,13 @@
         <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ8" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL8" t="n">
         <v>50</v>
@@ -1579,10 +1579,10 @@
         <v>160</v>
       </c>
       <c r="AN8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO8" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G9" t="n">
         <v>2.3</v>
@@ -1630,7 +1630,7 @@
         <v>3.4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M9" t="n">
         <v>1.1</v>
@@ -1642,28 +1642,28 @@
         <v>1.45</v>
       </c>
       <c r="P9" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R9" t="n">
         <v>1.25</v>
       </c>
       <c r="S9" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="T9" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="U9" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V9" t="n">
         <v>1.32</v>
       </c>
       <c r="W9" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="X9" t="n">
         <v>12.5</v>
@@ -1678,7 +1678,7 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC9" t="n">
         <v>7.6</v>
@@ -1705,16 +1705,16 @@
         <v>38</v>
       </c>
       <c r="AK9" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AL9" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM9" t="n">
         <v>180</v>
       </c>
       <c r="AN9" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="G10" t="n">
         <v>4.9</v>
@@ -1756,7 +1756,7 @@
         <v>1.97</v>
       </c>
       <c r="I10" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="J10" t="n">
         <v>3.3</v>
@@ -1768,7 +1768,7 @@
         <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N10" t="n">
         <v>3.05</v>
@@ -1777,7 +1777,7 @@
         <v>1.41</v>
       </c>
       <c r="P10" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q10" t="n">
         <v>2.2</v>
@@ -1786,22 +1786,22 @@
         <v>1.27</v>
       </c>
       <c r="S10" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="T10" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="U10" t="n">
         <v>1.9</v>
       </c>
       <c r="V10" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="W10" t="n">
         <v>1.26</v>
       </c>
       <c r="X10" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="Y10" t="n">
         <v>8</v>
@@ -1810,7 +1810,7 @@
         <v>12</v>
       </c>
       <c r="AA10" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AB10" t="n">
         <v>14</v>
@@ -1822,28 +1822,28 @@
         <v>11</v>
       </c>
       <c r="AE10" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AF10" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AG10" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AH10" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AI10" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AJ10" t="n">
         <v>140</v>
       </c>
       <c r="AK10" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AL10" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AM10" t="n">
         <v>170</v>
@@ -1852,7 +1852,7 @@
         <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
@@ -1882,19 +1882,19 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="G11" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="H11" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I11" t="n">
         <v>3.6</v>
       </c>
       <c r="J11" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K11" t="n">
         <v>3.15</v>
@@ -1903,7 +1903,7 @@
         <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="N11" t="n">
         <v>2.76</v>
@@ -1915,25 +1915,25 @@
         <v>1.59</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="R11" t="n">
         <v>1.22</v>
       </c>
       <c r="S11" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
       </c>
       <c r="U11" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="V11" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="W11" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="X11" t="n">
         <v>9.6</v>
@@ -1942,13 +1942,13 @@
         <v>10.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA11" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AB11" t="n">
-        <v>10</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC11" t="n">
         <v>7.2</v>
@@ -1957,37 +1957,37 @@
         <v>15.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF11" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AG11" t="n">
         <v>12.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AI11" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL11" t="n">
         <v>70</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>42</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>60</v>
       </c>
       <c r="AM11" t="n">
         <v>190</v>
       </c>
       <c r="AN11" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AO11" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="G12" t="n">
-        <v>2.86</v>
+        <v>2.94</v>
       </c>
       <c r="H12" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I12" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="J12" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K12" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L12" t="n">
         <v>1.01</v>
@@ -2041,55 +2041,55 @@
         <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>2.86</v>
+        <v>3.05</v>
       </c>
       <c r="O12" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="P12" t="n">
         <v>1.71</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="R12" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S12" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T12" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U12" t="n">
-        <v>1.98</v>
+        <v>1.81</v>
       </c>
       <c r="V12" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W12" t="n">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="X12" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y12" t="n">
         <v>12.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA12" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AB12" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD12" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE12" t="n">
         <v>48</v>
@@ -2101,10 +2101,10 @@
         <v>15</v>
       </c>
       <c r="AH12" t="n">
-        <v>960</v>
+        <v>23</v>
       </c>
       <c r="AI12" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ12" t="n">
         <v>55</v>
@@ -2113,7 +2113,7 @@
         <v>42</v>
       </c>
       <c r="AL12" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM12" t="n">
         <v>150</v>
@@ -2152,112 +2152,112 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.76</v>
+        <v>2.88</v>
       </c>
       <c r="G13" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="H13" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="I13" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="J13" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K13" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L13" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M13" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N13" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="O13" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P13" t="n">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="R13" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="S13" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="T13" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="U13" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="V13" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="W13" t="n">
         <v>1.5</v>
       </c>
       <c r="X13" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="Z13" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AA13" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB13" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AC13" t="n">
         <v>7.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE13" t="n">
         <v>42</v>
       </c>
       <c r="AF13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="AI13" t="n">
         <v>55</v>
       </c>
       <c r="AJ13" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK13" t="n">
         <v>44</v>
       </c>
       <c r="AL13" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AM13" t="n">
         <v>150</v>
       </c>
       <c r="AN13" t="n">
+        <v>46</v>
+      </c>
+      <c r="AO13" t="n">
         <v>48</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>42</v>
       </c>
     </row>
     <row r="14">
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="G14" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="H14" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="I14" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="J14" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="K14" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -2311,76 +2311,76 @@
         <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P14" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="R14" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="T14" t="n">
         <v>1.59</v>
       </c>
-      <c r="S14" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.51</v>
-      </c>
       <c r="U14" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V14" t="n">
         <v>1.25</v>
       </c>
       <c r="W14" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="X14" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y14" t="n">
         <v>26</v>
       </c>
-      <c r="Y14" t="n">
-        <v>28</v>
-      </c>
       <c r="Z14" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AA14" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AB14" t="n">
         <v>15</v>
       </c>
       <c r="AC14" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AD14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE14" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AF14" t="n">
         <v>16</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AI14" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK14" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AL14" t="n">
         <v>32</v>
@@ -2389,7 +2389,7 @@
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="G15" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="H15" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I15" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="J15" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="K15" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="L15" t="n">
         <v>1.3</v>
@@ -2449,10 +2449,10 @@
         <v>4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P15" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q15" t="n">
         <v>1.71</v>
@@ -2461,22 +2461,22 @@
         <v>1.4</v>
       </c>
       <c r="S15" t="n">
-        <v>2.78</v>
+        <v>3.1</v>
       </c>
       <c r="T15" t="n">
         <v>2.04</v>
       </c>
       <c r="U15" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="V15" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W15" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="X15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y15" t="n">
         <v>25</v>
@@ -2485,13 +2485,13 @@
         <v>70</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>320</v>
       </c>
       <c r="AB15" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC15" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD15" t="n">
         <v>30</v>
@@ -2500,34 +2500,34 @@
         <v>150</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH15" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AI15" t="n">
         <v>130</v>
       </c>
       <c r="AJ15" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AL15" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AM15" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AN15" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO15" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16">
@@ -2557,19 +2557,19 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G16" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="H16" t="n">
         <v>3.4</v>
       </c>
       <c r="I16" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="J16" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K16" t="n">
         <v>3.6</v>
@@ -2581,7 +2581,7 @@
         <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="O16" t="n">
         <v>1.36</v>
@@ -2590,46 +2590,46 @@
         <v>1.79</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="R16" t="n">
         <v>1.3</v>
       </c>
       <c r="S16" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="T16" t="n">
-        <v>1.68</v>
+        <v>1.82</v>
       </c>
       <c r="U16" t="n">
-        <v>1.86</v>
+        <v>2.02</v>
       </c>
       <c r="V16" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="W16" t="n">
         <v>1.73</v>
       </c>
       <c r="X16" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="Y16" t="n">
         <v>15.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA16" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AB16" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AC16" t="n">
         <v>8</v>
       </c>
       <c r="AD16" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AE16" t="n">
         <v>60</v>
@@ -2641,10 +2641,10 @@
         <v>13.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AI16" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ16" t="n">
         <v>38</v>
@@ -2653,13 +2653,13 @@
         <v>32</v>
       </c>
       <c r="AL16" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AM16" t="n">
         <v>130</v>
       </c>
       <c r="AN16" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="G17" t="n">
         <v>2.72</v>
@@ -2701,7 +2701,7 @@
         <v>3.05</v>
       </c>
       <c r="I17" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J17" t="n">
         <v>3</v>
@@ -2716,28 +2716,28 @@
         <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>2.08</v>
+        <v>2.68</v>
       </c>
       <c r="O17" t="n">
         <v>1.02</v>
       </c>
       <c r="P17" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="R17" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S17" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="T17" t="n">
-        <v>1.66</v>
+        <v>1.03</v>
       </c>
       <c r="U17" t="n">
-        <v>1.71</v>
+        <v>1.03</v>
       </c>
       <c r="V17" t="n">
         <v>1.41</v>
@@ -2746,55 +2746,55 @@
         <v>1.61</v>
       </c>
       <c r="X17" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD17" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
         <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
         <v>1000</v>
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="G18" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H18" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="I18" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="J18" t="n">
         <v>3.25</v>
       </c>
       <c r="K18" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
@@ -2851,22 +2851,22 @@
         <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O18" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P18" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="Q18" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R18" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="S18" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T18" t="n">
         <v>1.76</v>
@@ -2881,22 +2881,22 @@
         <v>1.45</v>
       </c>
       <c r="X18" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Z18" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AA18" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AB18" t="n">
         <v>12</v>
       </c>
       <c r="AC18" t="n">
-        <v>8</v>
+        <v>9.4</v>
       </c>
       <c r="AD18" t="n">
         <v>12.5</v>
@@ -2905,7 +2905,7 @@
         <v>30</v>
       </c>
       <c r="AF18" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AG18" t="n">
         <v>14</v>
@@ -2920,7 +2920,7 @@
         <v>55</v>
       </c>
       <c r="AK18" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AL18" t="n">
         <v>48</v>
@@ -2932,7 +2932,7 @@
         <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -2962,31 +2962,31 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="G19" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="H19" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="J19" t="n">
         <v>3.35</v>
       </c>
       <c r="K19" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L19" t="n">
         <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="O19" t="n">
         <v>1.39</v>
@@ -2995,16 +2995,16 @@
         <v>1.74</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.93</v>
+        <v>2.12</v>
       </c>
       <c r="R19" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S19" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T19" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="U19" t="n">
         <v>1.92</v>
@@ -3013,25 +3013,25 @@
         <v>1.92</v>
       </c>
       <c r="W19" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="X19" t="n">
         <v>15</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z19" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA19" t="n">
         <v>29</v>
       </c>
       <c r="AB19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD19" t="n">
         <v>13</v>
@@ -3040,10 +3040,10 @@
         <v>29</v>
       </c>
       <c r="AF19" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AG19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH19" t="n">
         <v>25</v>
@@ -3055,7 +3055,7 @@
         <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AL19" t="n">
         <v>1000</v>
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="G20" t="n">
         <v>2.56</v>
       </c>
       <c r="H20" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I20" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="J20" t="n">
         <v>3.2</v>
@@ -3118,10 +3118,10 @@
         <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>2.4</v>
+        <v>2.86</v>
       </c>
       <c r="O20" t="n">
         <v>1.36</v>
@@ -3136,16 +3136,16 @@
         <v>1.27</v>
       </c>
       <c r="S20" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="T20" t="n">
-        <v>1.03</v>
+        <v>1.59</v>
       </c>
       <c r="U20" t="n">
         <v>2.1</v>
       </c>
       <c r="V20" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W20" t="n">
         <v>1.64</v>
@@ -3154,7 +3154,7 @@
         <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Z20" t="n">
         <v>1000</v>
@@ -3163,25 +3163,25 @@
         <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE20" t="n">
         <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG20" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AH20" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI20" t="n">
         <v>1000</v>
@@ -3232,112 +3232,112 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G21" t="n">
         <v>3.8</v>
       </c>
       <c r="H21" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="I21" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="J21" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K21" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M21" t="n">
         <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>3.25</v>
+        <v>2.92</v>
       </c>
       <c r="O21" t="n">
         <v>1.37</v>
       </c>
       <c r="P21" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="R21" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S21" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="T21" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U21" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="V21" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="W21" t="n">
         <v>1.36</v>
       </c>
       <c r="X21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Z21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA21" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AB21" t="n">
         <v>13</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD21" t="n">
         <v>12</v>
       </c>
       <c r="AE21" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AF21" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AG21" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AH21" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ21" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AK21" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL21" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM21" t="n">
         <v>140</v>
       </c>
       <c r="AN21" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AO21" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
@@ -3367,52 +3367,52 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="G22" t="n">
         <v>1.96</v>
       </c>
       <c r="H22" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="J22" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K22" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="O22" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="P22" t="n">
-        <v>2.38</v>
+        <v>2.28</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="R22" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="S22" t="n">
-        <v>2.4</v>
+        <v>2.58</v>
       </c>
       <c r="T22" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="U22" t="n">
-        <v>2.16</v>
+        <v>2.32</v>
       </c>
       <c r="V22" t="n">
         <v>1.26</v>
@@ -3421,49 +3421,49 @@
         <v>2.04</v>
       </c>
       <c r="X22" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ22" t="n">
         <v>25</v>
       </c>
-      <c r="Y22" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>1000</v>
-      </c>
       <c r="AK22" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AL22" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM22" t="n">
         <v>1000</v>
@@ -3472,7 +3472,7 @@
         <v>10.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="G23" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H23" t="n">
-        <v>2.76</v>
+        <v>2.66</v>
       </c>
       <c r="I23" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J23" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K23" t="n">
-        <v>4.3</v>
+        <v>500</v>
       </c>
       <c r="L23" t="n">
         <v>1.01</v>
@@ -3526,22 +3526,22 @@
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="O23" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P23" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
       <c r="R23" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="S23" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="T23" t="n">
         <v>1.03</v>
@@ -3550,7 +3550,7 @@
         <v>1.03</v>
       </c>
       <c r="V23" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W23" t="n">
         <v>1.53</v>
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="G24" t="n">
-        <v>2.82</v>
+        <v>2.74</v>
       </c>
       <c r="H24" t="n">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="I24" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J24" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K24" t="n">
         <v>3.5</v>
-      </c>
-      <c r="K24" t="n">
-        <v>3.55</v>
       </c>
       <c r="L24" t="n">
         <v>1.41</v>
@@ -3673,34 +3673,34 @@
         <v>1.94</v>
       </c>
       <c r="R24" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S24" t="n">
         <v>3.35</v>
       </c>
       <c r="T24" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U24" t="n">
         <v>2.28</v>
       </c>
       <c r="V24" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="W24" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="X24" t="n">
         <v>15.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z24" t="n">
         <v>18.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AB24" t="n">
         <v>12</v>
@@ -3709,7 +3709,7 @@
         <v>7.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE24" t="n">
         <v>30</v>
@@ -3727,7 +3727,7 @@
         <v>40</v>
       </c>
       <c r="AJ24" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AK24" t="n">
         <v>29</v>
@@ -3742,7 +3742,7 @@
         <v>24</v>
       </c>
       <c r="AO24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
@@ -3772,46 +3772,46 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="G25" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="H25" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="I25" t="n">
         <v>6.8</v>
       </c>
       <c r="J25" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K25" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L25" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="M25" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N25" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="O25" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="P25" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="Q25" t="n">
         <v>2.34</v>
       </c>
       <c r="R25" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S25" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T25" t="n">
         <v>2.2</v>
@@ -3823,7 +3823,7 @@
         <v>1.18</v>
       </c>
       <c r="W25" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="X25" t="n">
         <v>10.5</v>
@@ -3832,7 +3832,7 @@
         <v>17.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AA25" t="n">
         <v>210</v>
@@ -3844,10 +3844,10 @@
         <v>8.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE25" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AF25" t="n">
         <v>9.199999999999999</v>
@@ -3856,22 +3856,22 @@
         <v>10.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI25" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AJ25" t="n">
         <v>18</v>
       </c>
       <c r="AK25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL25" t="n">
         <v>55</v>
       </c>
       <c r="AM25" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="AN25" t="n">
         <v>16</v>
@@ -3907,76 +3907,76 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.66</v>
+        <v>2.82</v>
       </c>
       <c r="G26" t="n">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="H26" t="n">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="I26" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="J26" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K26" t="n">
         <v>3.75</v>
       </c>
       <c r="L26" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M26" t="n">
         <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="O26" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="P26" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.77</v>
+        <v>1.84</v>
       </c>
       <c r="R26" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="S26" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="T26" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U26" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="V26" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="W26" t="n">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="X26" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y26" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AA26" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AB26" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC26" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD26" t="n">
         <v>12.5</v>
@@ -3985,34 +3985,34 @@
         <v>28</v>
       </c>
       <c r="AF26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG26" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH26" t="n">
         <v>16</v>
       </c>
       <c r="AI26" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AJ26" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AK26" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN26" t="n">
         <v>28</v>
       </c>
-      <c r="AL26" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>21</v>
-      </c>
       <c r="AO26" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="27">
@@ -4045,28 +4045,28 @@
         <v>1.91</v>
       </c>
       <c r="G27" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H27" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="I27" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J27" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K27" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="L27" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M27" t="n">
         <v>1.09</v>
       </c>
       <c r="N27" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="O27" t="n">
         <v>1.45</v>
@@ -4075,7 +4075,7 @@
         <v>1.6</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="R27" t="n">
         <v>1.22</v>
@@ -4084,25 +4084,25 @@
         <v>4.5</v>
       </c>
       <c r="T27" t="n">
-        <v>1.88</v>
+        <v>2.04</v>
       </c>
       <c r="U27" t="n">
-        <v>1.66</v>
+        <v>1.78</v>
       </c>
       <c r="V27" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W27" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="X27" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y27" t="n">
         <v>16</v>
       </c>
       <c r="Z27" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AA27" t="n">
         <v>160</v>
@@ -4114,7 +4114,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE27" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-28.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="G2" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="H2" t="n">
-        <v>2.88</v>
+        <v>2.58</v>
       </c>
       <c r="I2" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="J2" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="K2" t="n">
-        <v>6.8</v>
+        <v>4.6</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -691,34 +691,34 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="O2" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="P2" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="R2" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="S2" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="T2" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="U2" t="n">
         <v>1.03</v>
       </c>
       <c r="V2" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="W2" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="G3" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I3" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J3" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="K3" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.36</v>
+        <v>2.52</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="F4" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="G4" t="n">
         <v>7.6</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7.8</v>
       </c>
       <c r="H4" t="n">
         <v>1.59</v>
@@ -955,34 +955,34 @@
         <v>4.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O4" t="n">
         <v>1.39</v>
       </c>
       <c r="P4" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R4" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S4" t="n">
         <v>4.1</v>
       </c>
       <c r="T4" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="U4" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="V4" t="n">
         <v>2.66</v>
@@ -991,10 +991,10 @@
         <v>1.14</v>
       </c>
       <c r="X4" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y4" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="Z4" t="n">
         <v>8</v>
@@ -1003,13 +1003,13 @@
         <v>14</v>
       </c>
       <c r="AB4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC4" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD4" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE4" t="n">
         <v>18.5</v>
@@ -1024,13 +1024,13 @@
         <v>28</v>
       </c>
       <c r="AI4" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AJ4" t="n">
         <v>260</v>
       </c>
       <c r="AK4" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AL4" t="n">
         <v>140</v>
@@ -1039,7 +1039,7 @@
         <v>200</v>
       </c>
       <c r="AN4" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="AO4" t="n">
         <v>11</v>
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="G5" t="n">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="H5" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I5" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="J5" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K5" t="n">
         <v>3.7</v>
@@ -1096,85 +1096,85 @@
         <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O5" t="n">
         <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="R5" t="n">
         <v>1.45</v>
       </c>
       <c r="S5" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="T5" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="U5" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V5" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="W5" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="X5" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="Y5" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA5" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD5" t="n">
         <v>15</v>
       </c>
-      <c r="AC5" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AE5" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AF5" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AH5" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI5" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AJ5" t="n">
         <v>38</v>
       </c>
       <c r="AK5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL5" t="n">
         <v>36</v>
       </c>
       <c r="AM5" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AN5" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AO5" t="n">
         <v>32</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="G6" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="H6" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5</v>
+      </c>
+      <c r="K6" t="n">
         <v>5.8</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="K6" t="n">
-        <v>5.3</v>
       </c>
       <c r="L6" t="n">
         <v>1.23</v>
@@ -1237,82 +1237,82 @@
         <v>1.16</v>
       </c>
       <c r="P6" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="R6" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="S6" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="T6" t="n">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="U6" t="n">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="V6" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W6" t="n">
-        <v>2.72</v>
+        <v>2.84</v>
       </c>
       <c r="X6" t="n">
         <v>32</v>
       </c>
       <c r="Y6" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Z6" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AA6" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="AB6" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AC6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>15</v>
       </c>
-      <c r="AD6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF6" t="n">
+      <c r="AK6" t="n">
         <v>15</v>
       </c>
-      <c r="AG6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>18</v>
-      </c>
       <c r="AL6" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AM6" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AN6" t="n">
-        <v>6.8</v>
+        <v>5.6</v>
       </c>
       <c r="AO6" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
@@ -1351,7 +1351,7 @@
         <v>3.55</v>
       </c>
       <c r="I7" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="J7" t="n">
         <v>3.25</v>
@@ -1360,46 +1360,46 @@
         <v>3.45</v>
       </c>
       <c r="L7" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="M7" t="n">
         <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O7" t="n">
         <v>1.42</v>
       </c>
       <c r="P7" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="Q7" t="n">
         <v>2.22</v>
       </c>
       <c r="R7" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S7" t="n">
         <v>3.7</v>
       </c>
       <c r="T7" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U7" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="V7" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="W7" t="n">
         <v>1.71</v>
       </c>
       <c r="X7" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z7" t="n">
         <v>30</v>
@@ -1414,37 +1414,37 @@
         <v>7.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AE7" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG7" t="n">
         <v>11.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI7" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ7" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AK7" t="n">
         <v>34</v>
       </c>
       <c r="AL7" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM7" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO7" t="n">
         <v>65</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="G8" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="H8" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I8" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="J8" t="n">
         <v>3.45</v>
@@ -1501,46 +1501,46 @@
         <v>1.09</v>
       </c>
       <c r="N8" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O8" t="n">
         <v>1.4</v>
       </c>
       <c r="P8" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R8" t="n">
         <v>1.28</v>
       </c>
       <c r="S8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T8" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U8" t="n">
-        <v>1.96</v>
+        <v>2.06</v>
       </c>
       <c r="V8" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="W8" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="X8" t="n">
         <v>14.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AA8" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AB8" t="n">
         <v>8.6</v>
@@ -1549,13 +1549,13 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD8" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AE8" t="n">
         <v>70</v>
       </c>
       <c r="AF8" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG8" t="n">
         <v>11.5</v>
@@ -1564,25 +1564,25 @@
         <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ8" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AK8" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AL8" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AM8" t="n">
         <v>160</v>
       </c>
       <c r="AN8" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO8" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
@@ -1612,13 +1612,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G9" t="n">
         <v>2.3</v>
       </c>
       <c r="H9" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="I9" t="n">
         <v>4.1</v>
@@ -1630,19 +1630,19 @@
         <v>3.4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="O9" t="n">
         <v>1.45</v>
       </c>
       <c r="P9" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q9" t="n">
         <v>2.32</v>
@@ -1654,7 +1654,7 @@
         <v>3.9</v>
       </c>
       <c r="T9" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="U9" t="n">
         <v>1.89</v>
@@ -1663,16 +1663,16 @@
         <v>1.32</v>
       </c>
       <c r="W9" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="X9" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y9" t="n">
         <v>12</v>
       </c>
       <c r="Z9" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
@@ -1687,7 +1687,7 @@
         <v>17</v>
       </c>
       <c r="AE9" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AF9" t="n">
         <v>13.5</v>
@@ -1696,16 +1696,16 @@
         <v>11.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AI9" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AJ9" t="n">
         <v>38</v>
       </c>
       <c r="AK9" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AL9" t="n">
         <v>55</v>
@@ -1714,7 +1714,7 @@
         <v>180</v>
       </c>
       <c r="AN9" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="G10" t="n">
         <v>4.9</v>
@@ -1762,7 +1762,7 @@
         <v>3.3</v>
       </c>
       <c r="K10" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1771,13 +1771,13 @@
         <v>1.09</v>
       </c>
       <c r="N10" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O10" t="n">
         <v>1.41</v>
       </c>
       <c r="P10" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q10" t="n">
         <v>2.2</v>
@@ -1786,31 +1786,31 @@
         <v>1.27</v>
       </c>
       <c r="S10" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="T10" t="n">
         <v>1.95</v>
       </c>
       <c r="U10" t="n">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="V10" t="n">
         <v>1.94</v>
       </c>
       <c r="W10" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="X10" t="n">
         <v>14</v>
       </c>
       <c r="Y10" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="Z10" t="n">
         <v>12</v>
       </c>
       <c r="AA10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB10" t="n">
         <v>14</v>
@@ -1822,25 +1822,25 @@
         <v>11</v>
       </c>
       <c r="AE10" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF10" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH10" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI10" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AJ10" t="n">
         <v>140</v>
       </c>
       <c r="AK10" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AL10" t="n">
         <v>95</v>
@@ -1852,7 +1852,7 @@
         <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
@@ -1885,7 +1885,7 @@
         <v>2.5</v>
       </c>
       <c r="G11" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="H11" t="n">
         <v>3.3</v>
@@ -1894,7 +1894,7 @@
         <v>3.6</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K11" t="n">
         <v>3.15</v>
@@ -1906,19 +1906,19 @@
         <v>1.12</v>
       </c>
       <c r="N11" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="O11" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="P11" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q11" t="n">
         <v>2.48</v>
       </c>
       <c r="R11" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S11" t="n">
         <v>4.3</v>
@@ -1936,16 +1936,16 @@
         <v>1.6</v>
       </c>
       <c r="X11" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Y11" t="n">
         <v>10.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA11" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AB11" t="n">
         <v>8.199999999999999</v>
@@ -1960,34 +1960,34 @@
         <v>55</v>
       </c>
       <c r="AF11" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="AG11" t="n">
         <v>12.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AI11" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AJ11" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AK11" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AL11" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM11" t="n">
         <v>190</v>
       </c>
       <c r="AN11" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AO11" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.68</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94</v>
+        <v>3.2</v>
       </c>
       <c r="H12" t="n">
-        <v>2.8</v>
+        <v>2.58</v>
       </c>
       <c r="I12" t="n">
-        <v>3.15</v>
+        <v>2.62</v>
       </c>
       <c r="J12" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="K12" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L12" t="n">
         <v>1.01</v>
@@ -2047,82 +2047,82 @@
         <v>1.41</v>
       </c>
       <c r="P12" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="R12" t="n">
         <v>1.27</v>
       </c>
       <c r="S12" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="T12" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U12" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="V12" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="W12" t="n">
         <v>1.46</v>
       </c>
-      <c r="W12" t="n">
-        <v>1.51</v>
-      </c>
       <c r="X12" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y12" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD12" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z12" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>16</v>
-      </c>
       <c r="AE12" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="AF12" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI12" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AJ12" t="n">
         <v>55</v>
       </c>
       <c r="AK12" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL12" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM12" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AN12" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AO12" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
@@ -2152,34 +2152,34 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="G13" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="H13" t="n">
-        <v>2.74</v>
+        <v>2.6</v>
       </c>
       <c r="I13" t="n">
-        <v>2.96</v>
+        <v>2.78</v>
       </c>
       <c r="J13" t="n">
         <v>3.1</v>
       </c>
       <c r="K13" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L13" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="M13" t="n">
         <v>1.1</v>
       </c>
       <c r="N13" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="O13" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P13" t="n">
         <v>1.65</v>
@@ -2188,7 +2188,7 @@
         <v>2.32</v>
       </c>
       <c r="R13" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S13" t="n">
         <v>4.4</v>
@@ -2197,43 +2197,43 @@
         <v>1.93</v>
       </c>
       <c r="U13" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="V13" t="n">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="W13" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X13" t="n">
         <v>10.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z13" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AA13" t="n">
         <v>60</v>
       </c>
       <c r="AB13" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AC13" t="n">
         <v>7.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE13" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG13" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH13" t="n">
         <v>970</v>
@@ -2251,13 +2251,13 @@
         <v>65</v>
       </c>
       <c r="AM13" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AN13" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AO13" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="G14" t="n">
         <v>1.78</v>
@@ -2296,7 +2296,7 @@
         <v>4.8</v>
       </c>
       <c r="I14" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J14" t="n">
         <v>4.3</v>
@@ -2317,22 +2317,22 @@
         <v>1.18</v>
       </c>
       <c r="P14" t="n">
-        <v>2.48</v>
+        <v>2.66</v>
       </c>
       <c r="Q14" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="T14" t="n">
         <v>1.54</v>
       </c>
-      <c r="R14" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.59</v>
-      </c>
       <c r="U14" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="V14" t="n">
         <v>1.25</v>
@@ -2368,7 +2368,7 @@
         <v>16</v>
       </c>
       <c r="AG14" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AH14" t="n">
         <v>970</v>
@@ -2377,19 +2377,19 @@
         <v>55</v>
       </c>
       <c r="AJ14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK14" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="AL14" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AM14" t="n">
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2422,25 +2422,25 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="G15" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="H15" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I15" t="n">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="J15" t="n">
         <v>4.6</v>
       </c>
       <c r="K15" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="L15" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
@@ -2452,82 +2452,82 @@
         <v>1.28</v>
       </c>
       <c r="P15" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.71</v>
+        <v>1.81</v>
       </c>
       <c r="R15" t="n">
         <v>1.4</v>
       </c>
       <c r="S15" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T15" t="n">
-        <v>2.04</v>
+        <v>1.86</v>
       </c>
       <c r="U15" t="n">
-        <v>1.68</v>
+        <v>1.89</v>
       </c>
       <c r="V15" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="W15" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="X15" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="Y15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z15" t="n">
         <v>70</v>
       </c>
       <c r="AA15" t="n">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="AB15" t="n">
-        <v>9.6</v>
+        <v>970</v>
       </c>
       <c r="AC15" t="n">
         <v>13.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE15" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AF15" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="AG15" t="n">
         <v>11</v>
       </c>
       <c r="AH15" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AI15" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ15" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AK15" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="AL15" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AM15" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN15" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AO15" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16">
@@ -2557,109 +2557,109 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="G16" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="H16" t="n">
         <v>3.4</v>
       </c>
       <c r="I16" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="J16" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K16" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N16" t="n">
-        <v>3.05</v>
+        <v>2.86</v>
       </c>
       <c r="O16" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P16" t="n">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.94</v>
+        <v>1.99</v>
       </c>
       <c r="R16" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="S16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T16" t="n">
-        <v>1.82</v>
+        <v>2.04</v>
       </c>
       <c r="U16" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="V16" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="W16" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="X16" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="Y16" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AA16" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AB16" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="AE16" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AF16" t="n">
         <v>17.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH16" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AI16" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ16" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AK16" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AL16" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AM16" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
@@ -2692,37 +2692,37 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="G17" t="n">
-        <v>2.72</v>
+        <v>2.84</v>
       </c>
       <c r="H17" t="n">
         <v>3.05</v>
       </c>
       <c r="I17" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="K17" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L17" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="M17" t="n">
         <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>2.68</v>
+        <v>2.04</v>
       </c>
       <c r="O17" t="n">
         <v>1.02</v>
       </c>
       <c r="P17" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="Q17" t="n">
         <v>2.28</v>
@@ -2731,7 +2731,7 @@
         <v>1.18</v>
       </c>
       <c r="S17" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="T17" t="n">
         <v>1.03</v>
@@ -2743,7 +2743,7 @@
         <v>1.41</v>
       </c>
       <c r="W17" t="n">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2827,16 +2827,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="G18" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H18" t="n">
         <v>2.5</v>
       </c>
       <c r="I18" t="n">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="J18" t="n">
         <v>3.25</v>
@@ -2845,7 +2845,7 @@
         <v>3.45</v>
       </c>
       <c r="L18" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M18" t="n">
         <v>1.07</v>
@@ -2857,7 +2857,7 @@
         <v>1.34</v>
       </c>
       <c r="P18" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="Q18" t="n">
         <v>2.02</v>
@@ -2866,16 +2866,16 @@
         <v>1.32</v>
       </c>
       <c r="S18" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T18" t="n">
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="U18" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="V18" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="W18" t="n">
         <v>1.45</v>
@@ -2884,28 +2884,28 @@
         <v>16.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="Z18" t="n">
         <v>970</v>
       </c>
       <c r="AA18" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB18" t="n">
         <v>12</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF18" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AG18" t="n">
         <v>14</v>
@@ -2914,10 +2914,10 @@
         <v>18</v>
       </c>
       <c r="AI18" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ18" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AK18" t="n">
         <v>38</v>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="G19" t="n">
         <v>4.5</v>
@@ -2971,19 +2971,19 @@
         <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="J19" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K19" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L19" t="n">
         <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N19" t="n">
         <v>2.8</v>
@@ -2992,10 +2992,10 @@
         <v>1.39</v>
       </c>
       <c r="P19" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.12</v>
+        <v>1.95</v>
       </c>
       <c r="R19" t="n">
         <v>1.27</v>
@@ -3004,52 +3004,52 @@
         <v>3.15</v>
       </c>
       <c r="T19" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="U19" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="V19" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="W19" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="X19" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="Z19" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AA19" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB19" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AC19" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD19" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AE19" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AF19" t="n">
         <v>32</v>
       </c>
       <c r="AG19" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH19" t="n">
         <v>21</v>
       </c>
-      <c r="AH19" t="n">
-        <v>25</v>
-      </c>
       <c r="AI19" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AJ19" t="n">
         <v>1000</v>
@@ -3067,7 +3067,7 @@
         <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
@@ -3097,64 +3097,64 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.34</v>
+        <v>2.54</v>
       </c>
       <c r="G20" t="n">
-        <v>2.56</v>
+        <v>2.74</v>
       </c>
       <c r="H20" t="n">
-        <v>3.25</v>
+        <v>2.98</v>
       </c>
       <c r="I20" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="J20" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K20" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>2.86</v>
+        <v>2.4</v>
       </c>
       <c r="O20" t="n">
         <v>1.36</v>
       </c>
       <c r="P20" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="R20" t="n">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="S20" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="T20" t="n">
-        <v>1.59</v>
+        <v>1.03</v>
       </c>
       <c r="U20" t="n">
         <v>2.1</v>
       </c>
       <c r="V20" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="W20" t="n">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Z20" t="n">
         <v>1000</v>
@@ -3163,25 +3163,25 @@
         <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AC20" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD20" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE20" t="n">
         <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AG20" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AH20" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AI20" t="n">
         <v>1000</v>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="G21" t="n">
         <v>3.8</v>
@@ -3241,13 +3241,13 @@
         <v>2.22</v>
       </c>
       <c r="I21" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="J21" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K21" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L21" t="n">
         <v>1.45</v>
@@ -3256,16 +3256,16 @@
         <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="O21" t="n">
         <v>1.37</v>
       </c>
       <c r="P21" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.1</v>
+        <v>1.92</v>
       </c>
       <c r="R21" t="n">
         <v>1.28</v>
@@ -3274,16 +3274,16 @@
         <v>3.4</v>
       </c>
       <c r="T21" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="U21" t="n">
-        <v>1.97</v>
+        <v>1.83</v>
       </c>
       <c r="V21" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="W21" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X21" t="n">
         <v>13</v>
@@ -3292,16 +3292,16 @@
         <v>9.4</v>
       </c>
       <c r="Z21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA21" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AB21" t="n">
         <v>13</v>
       </c>
       <c r="AC21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD21" t="n">
         <v>12</v>
@@ -3310,34 +3310,34 @@
         <v>34</v>
       </c>
       <c r="AF21" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AG21" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AH21" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AK21" t="n">
         <v>60</v>
       </c>
       <c r="AL21" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM21" t="n">
         <v>140</v>
       </c>
       <c r="AN21" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AO21" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22">
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="G22" t="n">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="H22" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I22" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="J22" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K22" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
@@ -3397,82 +3397,82 @@
         <v>1.21</v>
       </c>
       <c r="P22" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R22" t="n">
         <v>1.51</v>
       </c>
       <c r="S22" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="T22" t="n">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="U22" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="V22" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W22" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="X22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y22" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Z22" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AA22" t="n">
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF22" t="n">
         <v>14</v>
       </c>
-      <c r="AC22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD22" t="n">
+      <c r="AG22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ22" t="n">
         <v>22</v>
       </c>
-      <c r="AE22" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>25</v>
-      </c>
       <c r="AK22" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AL22" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM22" t="n">
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO22" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.28</v>
+        <v>2.12</v>
       </c>
       <c r="G23" t="n">
         <v>2.9</v>
       </c>
       <c r="H23" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="I23" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K23" t="n">
         <v>500</v>
@@ -3526,22 +3526,22 @@
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>1.99</v>
+        <v>1.1</v>
       </c>
       <c r="O23" t="n">
         <v>1.24</v>
       </c>
       <c r="P23" t="n">
-        <v>1.99</v>
+        <v>1.25</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="R23" t="n">
-        <v>1.39</v>
+        <v>1.21</v>
       </c>
       <c r="S23" t="n">
-        <v>2.52</v>
+        <v>1.05</v>
       </c>
       <c r="T23" t="n">
         <v>1.03</v>
@@ -3550,7 +3550,7 @@
         <v>1.03</v>
       </c>
       <c r="V23" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="W23" t="n">
         <v>1.53</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="G24" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="H24" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="I24" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="J24" t="n">
         <v>3.45</v>
@@ -3655,40 +3655,40 @@
         <v>3.5</v>
       </c>
       <c r="L24" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M24" t="n">
         <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O24" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="P24" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="R24" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="S24" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="T24" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U24" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="V24" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W24" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="X24" t="n">
         <v>15.5</v>
@@ -3700,7 +3700,7 @@
         <v>18.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AB24" t="n">
         <v>12</v>
@@ -3721,7 +3721,7 @@
         <v>12</v>
       </c>
       <c r="AH24" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI24" t="n">
         <v>40</v>
@@ -3730,19 +3730,19 @@
         <v>40</v>
       </c>
       <c r="AK24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL24" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM24" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO24" t="n">
         <v>24</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>25</v>
       </c>
     </row>
     <row r="25">
@@ -3772,19 +3772,19 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="G25" t="n">
         <v>1.74</v>
       </c>
       <c r="H25" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I25" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J25" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K25" t="n">
         <v>4</v>
@@ -3799,16 +3799,16 @@
         <v>2.94</v>
       </c>
       <c r="O25" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P25" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q25" t="n">
         <v>2.34</v>
       </c>
       <c r="R25" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S25" t="n">
         <v>4.6</v>
@@ -3820,7 +3820,7 @@
         <v>1.72</v>
       </c>
       <c r="V25" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W25" t="n">
         <v>2.34</v>
@@ -3835,7 +3835,7 @@
         <v>50</v>
       </c>
       <c r="AA25" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AB25" t="n">
         <v>6.8</v>
@@ -3847,7 +3847,7 @@
         <v>27</v>
       </c>
       <c r="AE25" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AF25" t="n">
         <v>9.199999999999999</v>
@@ -3856,7 +3856,7 @@
         <v>10.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AI25" t="n">
         <v>160</v>
@@ -3871,13 +3871,13 @@
         <v>55</v>
       </c>
       <c r="AM25" t="n">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="AN25" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26">
@@ -3907,19 +3907,19 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="G26" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H26" t="n">
         <v>2.5</v>
       </c>
       <c r="I26" t="n">
-        <v>2.76</v>
+        <v>2.64</v>
       </c>
       <c r="J26" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K26" t="n">
         <v>3.75</v>
@@ -3928,7 +3928,7 @@
         <v>1.37</v>
       </c>
       <c r="M26" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N26" t="n">
         <v>4.1</v>
@@ -3937,31 +3937,31 @@
         <v>1.29</v>
       </c>
       <c r="P26" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R26" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S26" t="n">
-        <v>2.94</v>
+        <v>3.1</v>
       </c>
       <c r="T26" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="U26" t="n">
         <v>2.3</v>
       </c>
       <c r="V26" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="W26" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="X26" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Y26" t="n">
         <v>12.5</v>
@@ -3973,7 +3973,7 @@
         <v>38</v>
       </c>
       <c r="AB26" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC26" t="n">
         <v>8.199999999999999</v>
@@ -3982,7 +3982,7 @@
         <v>12.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF26" t="n">
         <v>21</v>
@@ -3991,28 +3991,28 @@
         <v>13.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AJ26" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AK26" t="n">
         <v>32</v>
       </c>
       <c r="AL26" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AM26" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN26" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AO26" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="G27" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="H27" t="n">
         <v>4.4</v>
       </c>
       <c r="I27" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="J27" t="n">
         <v>3.15</v>
       </c>
       <c r="K27" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L27" t="n">
         <v>1.5</v>
@@ -4081,28 +4081,28 @@
         <v>1.22</v>
       </c>
       <c r="S27" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="T27" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U27" t="n">
         <v>1.78</v>
       </c>
       <c r="V27" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W27" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="X27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y27" t="n">
         <v>16</v>
       </c>
       <c r="Z27" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AA27" t="n">
         <v>160</v>
@@ -4111,10 +4111,10 @@
         <v>8.4</v>
       </c>
       <c r="AC27" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE27" t="n">
         <v>1000</v>
@@ -4126,7 +4126,7 @@
         <v>13</v>
       </c>
       <c r="AH27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI27" t="n">
         <v>120</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO27"/>
+  <dimension ref="A1:AO28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Czech 2 Liga</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>09:35:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Slavia Praha B</t>
+          <t>Abha</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Usti Nad Labem</t>
+          <t>Al-Arabi Al-Saudi</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.06</v>
+        <v>1.84</v>
       </c>
       <c r="G2" t="n">
-        <v>2.88</v>
+        <v>2.16</v>
       </c>
       <c r="H2" t="n">
-        <v>2.58</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>3.75</v>
+        <v>110</v>
       </c>
       <c r="J2" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="K2" t="n">
-        <v>4.6</v>
+        <v>5.9</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -691,34 +691,34 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>2.06</v>
+        <v>3.2</v>
       </c>
       <c r="O2" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="R2" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="S2" t="n">
-        <v>2.28</v>
+        <v>2.42</v>
       </c>
       <c r="T2" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="U2" t="n">
         <v>1.03</v>
       </c>
       <c r="V2" t="n">
-        <v>1.37</v>
+        <v>1.22</v>
       </c>
       <c r="W2" t="n">
-        <v>1.55</v>
+        <v>1.86</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -748,7 +748,7 @@
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AH2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Czech 1 Liga</t>
+          <t>Czech 2 Liga</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sparta Prague</t>
+          <t>Slavia Praha B</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Bohemians 1905</t>
+          <t>Usti Nad Labem</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.36</v>
+        <v>2.22</v>
       </c>
       <c r="G3" t="n">
-        <v>1.38</v>
+        <v>2.5</v>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>2.88</v>
       </c>
       <c r="I3" t="n">
-        <v>12</v>
+        <v>3.3</v>
       </c>
       <c r="J3" t="n">
-        <v>5.6</v>
+        <v>3.7</v>
       </c>
       <c r="K3" t="n">
-        <v>6.2</v>
+        <v>4.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P3" t="n">
-        <v>2.52</v>
+        <v>2.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Czech 1 Liga</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Sparta Prague</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Bohemians 1905</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>7.4</v>
+        <v>1.36</v>
       </c>
       <c r="G4" t="n">
-        <v>7.6</v>
+        <v>1.39</v>
       </c>
       <c r="H4" t="n">
-        <v>1.59</v>
+        <v>8.4</v>
       </c>
       <c r="I4" t="n">
-        <v>1.6</v>
+        <v>12</v>
       </c>
       <c r="J4" t="n">
-        <v>4.1</v>
+        <v>5.4</v>
       </c>
       <c r="K4" t="n">
-        <v>4.2</v>
+        <v>6.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.8</v>
+        <v>2.68</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.18</v>
+        <v>1.49</v>
       </c>
       <c r="R4" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>2.24</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>2.66</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AM4" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,126 +1058,126 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Sion</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>St Gallen</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="F5" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T5" t="n">
         <v>2.24</v>
       </c>
-      <c r="G5" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.54</v>
-      </c>
       <c r="U5" t="n">
-        <v>2.3</v>
+        <v>1.76</v>
       </c>
       <c r="V5" t="n">
-        <v>1.4</v>
+        <v>2.66</v>
       </c>
       <c r="W5" t="n">
-        <v>1.71</v>
+        <v>1.14</v>
       </c>
       <c r="X5" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>15.5</v>
+        <v>6.8</v>
       </c>
       <c r="Z5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH5" t="n">
         <v>28</v>
       </c>
-      <c r="AA5" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>19</v>
-      </c>
       <c r="AI5" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AJ5" t="n">
-        <v>38</v>
+        <v>260</v>
       </c>
       <c r="AK5" t="n">
-        <v>28</v>
+        <v>140</v>
       </c>
       <c r="AL5" t="n">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="AM5" t="n">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="AN5" t="n">
-        <v>19</v>
+        <v>220</v>
       </c>
       <c r="AO5" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -1198,127 +1198,127 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Thun</t>
+          <t>Sion</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>St Gallen</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.48</v>
+        <v>2.26</v>
       </c>
       <c r="G6" t="n">
-        <v>1.54</v>
+        <v>2.38</v>
       </c>
       <c r="H6" t="n">
-        <v>6.4</v>
+        <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>7.4</v>
+        <v>3.45</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>3.55</v>
       </c>
       <c r="K6" t="n">
-        <v>5.8</v>
+        <v>3.7</v>
       </c>
       <c r="L6" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="O6" t="n">
-        <v>1.16</v>
+        <v>1.26</v>
       </c>
       <c r="P6" t="n">
-        <v>2.74</v>
+        <v>2.04</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="R6" t="n">
-        <v>1.69</v>
+        <v>1.43</v>
       </c>
       <c r="S6" t="n">
-        <v>2.2</v>
+        <v>2.96</v>
       </c>
       <c r="T6" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U6" t="n">
-        <v>2.26</v>
+        <v>2.42</v>
       </c>
       <c r="V6" t="n">
-        <v>1.16</v>
+        <v>1.4</v>
       </c>
       <c r="W6" t="n">
-        <v>2.84</v>
+        <v>1.72</v>
       </c>
       <c r="X6" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AO6" t="n">
         <v>32</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>65</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>190</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>65</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,121 +1333,121 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Thun</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>AC Monza</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.24</v>
+        <v>1.47</v>
       </c>
       <c r="G7" t="n">
-        <v>2.4</v>
+        <v>1.52</v>
       </c>
       <c r="H7" t="n">
-        <v>3.55</v>
+        <v>6.6</v>
       </c>
       <c r="I7" t="n">
-        <v>3.95</v>
+        <v>7.4</v>
       </c>
       <c r="J7" t="n">
-        <v>3.25</v>
+        <v>5.1</v>
       </c>
       <c r="K7" t="n">
-        <v>3.45</v>
+        <v>5.7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.47</v>
+        <v>1.25</v>
       </c>
       <c r="M7" t="n">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>3.05</v>
+        <v>6.2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.42</v>
+        <v>1.16</v>
       </c>
       <c r="P7" t="n">
-        <v>1.7</v>
+        <v>2.76</v>
       </c>
       <c r="Q7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="S7" t="n">
         <v>2.22</v>
       </c>
-      <c r="R7" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3.7</v>
-      </c>
       <c r="T7" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="U7" t="n">
-        <v>1.95</v>
+        <v>2.28</v>
       </c>
       <c r="V7" t="n">
-        <v>1.33</v>
+        <v>1.16</v>
       </c>
       <c r="W7" t="n">
-        <v>1.71</v>
+        <v>2.92</v>
       </c>
       <c r="X7" t="n">
-        <v>11.5</v>
+        <v>32</v>
       </c>
       <c r="Y7" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>190</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF7" t="n">
         <v>12</v>
       </c>
-      <c r="Z7" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>16</v>
-      </c>
       <c r="AG7" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI7" t="n">
         <v>65</v>
       </c>
       <c r="AJ7" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="AK7" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AL7" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="AM7" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="AN7" t="n">
-        <v>26</v>
+        <v>5.6</v>
       </c>
       <c r="AO7" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
@@ -1468,121 +1468,121 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>AC Monza</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="G8" t="n">
-        <v>2.12</v>
+        <v>2.34</v>
       </c>
       <c r="H8" t="n">
-        <v>4.1</v>
+        <v>3.65</v>
       </c>
       <c r="I8" t="n">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="J8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K8" t="n">
         <v>3.45</v>
       </c>
-      <c r="K8" t="n">
-        <v>3.55</v>
-      </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="M8" t="n">
         <v>1.09</v>
       </c>
       <c r="N8" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O8" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="P8" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="R8" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="S8" t="n">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="T8" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="U8" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="V8" t="n">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="W8" t="n">
-        <v>1.89</v>
+        <v>1.74</v>
       </c>
       <c r="X8" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="Y8" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="Z8" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AA8" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AB8" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="AE8" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AF8" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AG8" t="n">
         <v>11.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI8" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AJ8" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AK8" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AL8" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AM8" t="n">
         <v>160</v>
       </c>
       <c r="AN8" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AO8" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9">
@@ -1603,94 +1603,94 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="G9" t="n">
-        <v>2.3</v>
+        <v>2.12</v>
       </c>
       <c r="H9" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="I9" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="J9" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="L9" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
         <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>2.94</v>
+        <v>3.2</v>
       </c>
       <c r="O9" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="P9" t="n">
-        <v>1.66</v>
+        <v>1.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.32</v>
+        <v>2.18</v>
       </c>
       <c r="R9" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="S9" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="T9" t="n">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="U9" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="W9" t="n">
         <v>1.89</v>
       </c>
-      <c r="V9" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.76</v>
-      </c>
       <c r="X9" t="n">
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Z9" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB9" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC9" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="AC9" t="n">
-        <v>7.6</v>
-      </c>
       <c r="AD9" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF9" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG9" t="n">
         <v>11.5</v>
@@ -1702,22 +1702,22 @@
         <v>75</v>
       </c>
       <c r="AJ9" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AK9" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AL9" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AM9" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
@@ -1738,121 +1738,121 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Reggiana</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Modena</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4.3</v>
+        <v>2.24</v>
       </c>
       <c r="G10" t="n">
-        <v>4.9</v>
+        <v>2.34</v>
       </c>
       <c r="H10" t="n">
-        <v>1.97</v>
+        <v>3.7</v>
       </c>
       <c r="I10" t="n">
-        <v>2.06</v>
+        <v>3.95</v>
       </c>
       <c r="J10" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K10" t="n">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N10" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O10" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P10" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="R10" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S10" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="T10" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U10" t="n">
         <v>1.95</v>
       </c>
-      <c r="U10" t="n">
-        <v>2.04</v>
-      </c>
       <c r="V10" t="n">
-        <v>1.94</v>
+        <v>1.33</v>
       </c>
       <c r="W10" t="n">
-        <v>1.25</v>
+        <v>1.74</v>
       </c>
       <c r="X10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.8</v>
+        <v>12</v>
       </c>
       <c r="Z10" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AA10" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AC10" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AE10" t="n">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="AF10" t="n">
-        <v>34</v>
+        <v>13.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>11.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AI10" t="n">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="AJ10" t="n">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="AK10" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AL10" t="n">
-        <v>95</v>
+        <v>980</v>
       </c>
       <c r="AM10" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN10" t="n">
         <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Reggiana</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.5</v>
+        <v>4.6</v>
       </c>
       <c r="G11" t="n">
-        <v>2.64</v>
+        <v>5.1</v>
       </c>
       <c r="H11" t="n">
-        <v>3.3</v>
+        <v>1.93</v>
       </c>
       <c r="I11" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K11" t="n">
         <v>3.6</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.15</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>2.78</v>
+        <v>3.15</v>
       </c>
       <c r="O11" t="n">
-        <v>1.51</v>
+        <v>1.41</v>
       </c>
       <c r="P11" t="n">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.48</v>
+        <v>2.18</v>
       </c>
       <c r="R11" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="S11" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="T11" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="U11" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V11" t="n">
-        <v>1.38</v>
+        <v>1.98</v>
       </c>
       <c r="W11" t="n">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="X11" t="n">
-        <v>9.4</v>
+        <v>14</v>
       </c>
       <c r="Y11" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD11" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA11" t="n">
+      <c r="AE11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>140</v>
+      </c>
+      <c r="AK11" t="n">
         <v>70</v>
       </c>
-      <c r="AB11" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>36</v>
-      </c>
       <c r="AL11" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="AM11" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AN11" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,127 +2008,127 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Laval</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>2.46</v>
       </c>
       <c r="G12" t="n">
-        <v>3.2</v>
+        <v>2.54</v>
       </c>
       <c r="H12" t="n">
-        <v>2.58</v>
+        <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>2.62</v>
+        <v>3.7</v>
       </c>
       <c r="J12" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="K12" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="L12" t="n">
         <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="N12" t="n">
-        <v>3.05</v>
+        <v>2.78</v>
       </c>
       <c r="O12" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="P12" t="n">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.16</v>
+        <v>2.48</v>
       </c>
       <c r="R12" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="S12" t="n">
         <v>4.3</v>
       </c>
       <c r="T12" t="n">
-        <v>1.72</v>
+        <v>2.02</v>
       </c>
       <c r="U12" t="n">
         <v>1.86</v>
       </c>
       <c r="V12" t="n">
-        <v>1.61</v>
+        <v>1.37</v>
       </c>
       <c r="W12" t="n">
-        <v>1.46</v>
+        <v>1.64</v>
       </c>
       <c r="X12" t="n">
-        <v>11.5</v>
+        <v>9.4</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AA12" t="n">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AB12" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="AE12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK12" t="n">
         <v>34</v>
       </c>
-      <c r="AF12" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>40</v>
-      </c>
       <c r="AL12" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM12" t="n">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="AN12" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AO12" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,118 +2143,118 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Calcio Avellino SSD</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G13" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H13" t="n">
         <v>2.6</v>
       </c>
       <c r="I13" t="n">
-        <v>2.78</v>
+        <v>2.66</v>
       </c>
       <c r="J13" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N13" t="n">
         <v>3.1</v>
       </c>
-      <c r="K13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N13" t="n">
-        <v>2.94</v>
-      </c>
       <c r="O13" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="P13" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.32</v>
+        <v>1.98</v>
       </c>
       <c r="R13" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="S13" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T13" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="U13" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="V13" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="W13" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="X13" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="Z13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AA13" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AB13" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AC13" t="n">
         <v>7.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AF13" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AG13" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH13" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="AI13" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AJ13" t="n">
         <v>60</v>
       </c>
       <c r="AK13" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AL13" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM13" t="n">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="AN13" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AO13" t="n">
         <v>36</v>
@@ -2263,7 +2263,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>St Etienne</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Pau</t>
+          <t>Calcio Avellino SSD</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.7</v>
+        <v>3.05</v>
       </c>
       <c r="G14" t="n">
-        <v>1.78</v>
+        <v>3.25</v>
       </c>
       <c r="H14" t="n">
-        <v>4.8</v>
+        <v>2.62</v>
       </c>
       <c r="I14" t="n">
-        <v>5.4</v>
+        <v>2.76</v>
       </c>
       <c r="J14" t="n">
-        <v>4.3</v>
+        <v>3.15</v>
       </c>
       <c r="K14" t="n">
-        <v>4.9</v>
+        <v>3.25</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="M14" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="N14" t="n">
-        <v>5.4</v>
+        <v>2.92</v>
       </c>
       <c r="O14" t="n">
-        <v>1.18</v>
+        <v>1.45</v>
       </c>
       <c r="P14" t="n">
-        <v>2.66</v>
+        <v>1.66</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.53</v>
+        <v>2.34</v>
       </c>
       <c r="R14" t="n">
-        <v>1.6</v>
+        <v>1.24</v>
       </c>
       <c r="S14" t="n">
-        <v>2.36</v>
+        <v>4.7</v>
       </c>
       <c r="T14" t="n">
-        <v>1.54</v>
+        <v>1.96</v>
       </c>
       <c r="U14" t="n">
-        <v>2.42</v>
+        <v>1.92</v>
       </c>
       <c r="V14" t="n">
-        <v>1.25</v>
+        <v>1.56</v>
       </c>
       <c r="W14" t="n">
-        <v>2.28</v>
+        <v>1.44</v>
       </c>
       <c r="X14" t="n">
-        <v>32</v>
+        <v>10.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="Z14" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AA14" t="n">
-        <v>130</v>
+        <v>980</v>
       </c>
       <c r="AB14" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>970</v>
+        <v>7.4</v>
       </c>
       <c r="AD14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF14" t="n">
         <v>21</v>
       </c>
-      <c r="AE14" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>16</v>
-      </c>
       <c r="AG14" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AI14" t="n">
         <v>55</v>
       </c>
       <c r="AJ14" t="n">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="AK14" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AL14" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN14" t="n">
-        <v>7.6</v>
+        <v>980</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="15">
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ESTAC Troyes</t>
+          <t>St Etienne</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Amiens</t>
+          <t>Pau</t>
         </is>
       </c>
       <c r="F15" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N15" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="Q15" t="n">
         <v>1.53</v>
       </c>
-      <c r="G15" t="n">
+      <c r="R15" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="T15" t="n">
         <v>1.54</v>
       </c>
-      <c r="H15" t="n">
-        <v>7</v>
-      </c>
-      <c r="I15" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="J15" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K15" t="n">
-        <v>5</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N15" t="n">
-        <v>4</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S15" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.86</v>
-      </c>
       <c r="U15" t="n">
-        <v>1.89</v>
+        <v>2.42</v>
       </c>
       <c r="V15" t="n">
-        <v>1.15</v>
+        <v>1.23</v>
       </c>
       <c r="W15" t="n">
-        <v>2.84</v>
+        <v>2.28</v>
       </c>
       <c r="X15" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="Y15" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="Z15" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AA15" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="AB15" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AC15" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AE15" t="n">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="AF15" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AG15" t="n">
         <v>11</v>
       </c>
       <c r="AH15" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AI15" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="AJ15" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AK15" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AL15" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AM15" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>8.6</v>
+        <v>26</v>
       </c>
       <c r="AO15" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Rodez</t>
+          <t>ESTAC Troyes</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Annecy</t>
+          <t>Amiens</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.28</v>
+        <v>1.5</v>
       </c>
       <c r="G16" t="n">
-        <v>2.42</v>
+        <v>1.53</v>
       </c>
       <c r="H16" t="n">
-        <v>3.4</v>
+        <v>6.8</v>
       </c>
       <c r="I16" t="n">
-        <v>3.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J16" t="n">
-        <v>3.3</v>
+        <v>4.7</v>
       </c>
       <c r="K16" t="n">
-        <v>3.55</v>
+        <v>5.2</v>
       </c>
       <c r="L16" t="n">
-        <v>1.39</v>
+        <v>1.3</v>
       </c>
       <c r="M16" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>2.86</v>
+        <v>4.1</v>
       </c>
       <c r="O16" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="P16" t="n">
-        <v>1.7</v>
+        <v>2.06</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.99</v>
+        <v>1.8</v>
       </c>
       <c r="R16" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="S16" t="n">
-        <v>4</v>
+        <v>3.05</v>
       </c>
       <c r="T16" t="n">
-        <v>2.04</v>
+        <v>1.89</v>
       </c>
       <c r="U16" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="V16" t="n">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="W16" t="n">
-        <v>1.7</v>
+        <v>2.84</v>
       </c>
       <c r="X16" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>250</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH16" t="n">
         <v>26</v>
       </c>
-      <c r="AA16" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>24</v>
-      </c>
       <c r="AI16" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="AJ16" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AK16" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="AL16" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AM16" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN16" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17">
@@ -2683,118 +2683,118 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Rodez</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>Annecy</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.56</v>
+        <v>2.22</v>
       </c>
       <c r="G17" t="n">
-        <v>2.84</v>
+        <v>2.36</v>
       </c>
       <c r="H17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N17" t="n">
         <v>3.05</v>
       </c>
-      <c r="I17" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N17" t="n">
-        <v>2.04</v>
-      </c>
       <c r="O17" t="n">
-        <v>1.02</v>
+        <v>1.41</v>
       </c>
       <c r="P17" t="n">
-        <v>1.52</v>
+        <v>1.71</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.28</v>
+        <v>2.08</v>
       </c>
       <c r="R17" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="S17" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="T17" t="n">
-        <v>1.03</v>
+        <v>1.9</v>
       </c>
       <c r="U17" t="n">
-        <v>1.03</v>
+        <v>1.92</v>
       </c>
       <c r="V17" t="n">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="W17" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB17" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO17" t="n">
         <v>1000</v>
@@ -2818,115 +2818,115 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Grenoble</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Guingamp</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.98</v>
+        <v>2.42</v>
       </c>
       <c r="G18" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H18" t="n">
         <v>3.3</v>
       </c>
-      <c r="H18" t="n">
-        <v>2.5</v>
-      </c>
       <c r="I18" t="n">
-        <v>2.68</v>
+        <v>3.65</v>
       </c>
       <c r="J18" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K18" t="n">
         <v>3.25</v>
       </c>
-      <c r="K18" t="n">
-        <v>3.45</v>
-      </c>
       <c r="L18" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="M18" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>3.45</v>
+        <v>2.04</v>
       </c>
       <c r="O18" t="n">
-        <v>1.34</v>
+        <v>1.02</v>
       </c>
       <c r="P18" t="n">
-        <v>1.9</v>
+        <v>1.52</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.02</v>
+        <v>2.28</v>
       </c>
       <c r="R18" t="n">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="S18" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="T18" t="n">
-        <v>1.65</v>
+        <v>1.03</v>
       </c>
       <c r="U18" t="n">
-        <v>2.16</v>
+        <v>1.03</v>
       </c>
       <c r="V18" t="n">
-        <v>1.6</v>
+        <v>1.38</v>
       </c>
       <c r="W18" t="n">
-        <v>1.45</v>
+        <v>1.64</v>
       </c>
       <c r="X18" t="n">
-        <v>16.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD18" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH18" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
         <v>1000</v>
@@ -2953,115 +2953,115 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Boulogne</t>
+          <t>Grenoble</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Guingamp</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>2.48</v>
       </c>
       <c r="I19" t="n">
-        <v>2.16</v>
+        <v>2.68</v>
       </c>
       <c r="J19" t="n">
         <v>3.4</v>
       </c>
       <c r="K19" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="L19" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M19" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="P19" t="n">
-        <v>1.73</v>
+        <v>1.9</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="R19" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="S19" t="n">
-        <v>3.15</v>
+        <v>3.6</v>
       </c>
       <c r="T19" t="n">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="U19" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="V19" t="n">
-        <v>1.87</v>
+        <v>1.6</v>
       </c>
       <c r="W19" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="X19" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="Z19" t="n">
         <v>970</v>
       </c>
       <c r="AA19" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="AB19" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD19" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AF19" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AG19" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="AH19" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AI19" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK19" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM19" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="AN19" t="n">
         <v>1000</v>
@@ -3088,115 +3088,115 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Dunkerque</t>
+          <t>Boulogne</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.54</v>
+        <v>3.95</v>
       </c>
       <c r="G20" t="n">
-        <v>2.74</v>
+        <v>4.4</v>
       </c>
       <c r="H20" t="n">
-        <v>2.98</v>
+        <v>2.02</v>
       </c>
       <c r="I20" t="n">
-        <v>3.3</v>
+        <v>2.18</v>
       </c>
       <c r="J20" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="K20" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>2.4</v>
+        <v>2.96</v>
       </c>
       <c r="O20" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="P20" t="n">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="R20" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="S20" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="T20" t="n">
-        <v>1.03</v>
+        <v>1.92</v>
       </c>
       <c r="U20" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V20" t="n">
-        <v>1.45</v>
+        <v>1.86</v>
       </c>
       <c r="W20" t="n">
-        <v>1.57</v>
+        <v>1.29</v>
       </c>
       <c r="X20" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y20" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB20" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC20" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD20" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE20" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF20" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG20" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH20" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI20" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ20" t="n">
         <v>1000</v>
       </c>
       <c r="AK20" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL20" t="n">
         <v>1000</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN20" t="n">
         <v>1000</v>
@@ -3223,127 +3223,127 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Dunkerque</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.35</v>
+        <v>2.44</v>
       </c>
       <c r="G21" t="n">
-        <v>3.8</v>
+        <v>2.66</v>
       </c>
       <c r="H21" t="n">
-        <v>2.22</v>
+        <v>3.1</v>
       </c>
       <c r="I21" t="n">
-        <v>2.4</v>
+        <v>3.45</v>
       </c>
       <c r="J21" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K21" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="L21" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>3</v>
+        <v>2.64</v>
       </c>
       <c r="O21" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P21" t="n">
-        <v>1.74</v>
+        <v>1.84</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="R21" t="n">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="S21" t="n">
-        <v>3.4</v>
+        <v>3.85</v>
       </c>
       <c r="T21" t="n">
-        <v>1.84</v>
+        <v>1.03</v>
       </c>
       <c r="U21" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="V21" t="n">
-        <v>1.72</v>
+        <v>1.4</v>
       </c>
       <c r="W21" t="n">
-        <v>1.37</v>
+        <v>1.6</v>
       </c>
       <c r="X21" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="Z21" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AA21" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC21" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AD21" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE21" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH21" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AI21" t="n">
         <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Irish Division 1</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,126 +3353,126 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Cobh Ramblers</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Treaty United</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="G22" t="n">
-        <v>1.91</v>
+        <v>3.7</v>
       </c>
       <c r="H22" t="n">
-        <v>4.2</v>
+        <v>2.28</v>
       </c>
       <c r="I22" t="n">
-        <v>4.9</v>
+        <v>2.48</v>
       </c>
       <c r="J22" t="n">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="K22" t="n">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
       <c r="L22" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M22" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>4.6</v>
+        <v>3.2</v>
       </c>
       <c r="O22" t="n">
-        <v>1.21</v>
+        <v>1.39</v>
       </c>
       <c r="P22" t="n">
-        <v>2.26</v>
+        <v>1.73</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.64</v>
+        <v>1.94</v>
       </c>
       <c r="R22" t="n">
-        <v>1.51</v>
+        <v>1.28</v>
       </c>
       <c r="S22" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="T22" t="n">
-        <v>1.55</v>
+        <v>1.71</v>
       </c>
       <c r="U22" t="n">
-        <v>2.26</v>
+        <v>1.96</v>
       </c>
       <c r="V22" t="n">
-        <v>1.25</v>
+        <v>1.69</v>
       </c>
       <c r="W22" t="n">
-        <v>2.08</v>
+        <v>1.37</v>
       </c>
       <c r="X22" t="n">
-        <v>23</v>
+        <v>12.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>21</v>
+        <v>9.4</v>
       </c>
       <c r="Z22" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AB22" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD22" t="n">
         <v>12</v>
       </c>
-      <c r="AC22" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>19</v>
-      </c>
       <c r="AE22" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF22" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AG22" t="n">
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AI22" t="n">
         <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="AK22" t="n">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM22" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN22" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23">
@@ -3493,73 +3493,73 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Bray Wanderers</t>
+          <t>Cobh Ramblers</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>UCD</t>
+          <t>Treaty United</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.12</v>
+        <v>1.76</v>
       </c>
       <c r="G23" t="n">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="H23" t="n">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J23" t="n">
-        <v>3.2</v>
+        <v>3.95</v>
       </c>
       <c r="K23" t="n">
-        <v>500</v>
+        <v>4.6</v>
       </c>
       <c r="L23" t="n">
         <v>1.01</v>
       </c>
       <c r="M23" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>1.1</v>
+        <v>4.7</v>
       </c>
       <c r="O23" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="P23" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="V23" t="n">
         <v>1.25</v>
       </c>
-      <c r="Q23" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.33</v>
-      </c>
       <c r="W23" t="n">
-        <v>1.53</v>
+        <v>2.1</v>
       </c>
       <c r="X23" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Y23" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z23" t="n">
         <v>1000</v>
@@ -3568,34 +3568,34 @@
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC23" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AE23" t="n">
         <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AG23" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH23" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI23" t="n">
         <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AK23" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AL23" t="n">
         <v>1000</v>
@@ -3604,7 +3604,7 @@
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3613,7 +3613,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Irish Division 1</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3628,127 +3628,127 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Bray Wanderers</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>UCD</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.74</v>
+        <v>2.22</v>
       </c>
       <c r="G24" t="n">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="H24" t="n">
-        <v>2.84</v>
+        <v>2.68</v>
       </c>
       <c r="I24" t="n">
-        <v>2.86</v>
+        <v>3.9</v>
       </c>
       <c r="J24" t="n">
         <v>3.45</v>
       </c>
       <c r="K24" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="L24" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N24" t="n">
         <v>4.1</v>
       </c>
       <c r="O24" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P24" t="n">
-        <v>2.06</v>
+        <v>1.57</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.93</v>
+        <v>1.72</v>
       </c>
       <c r="R24" t="n">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="S24" t="n">
-        <v>3.25</v>
+        <v>2.12</v>
       </c>
       <c r="T24" t="n">
-        <v>1.71</v>
+        <v>1.03</v>
       </c>
       <c r="U24" t="n">
-        <v>2.34</v>
+        <v>1.03</v>
       </c>
       <c r="V24" t="n">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="W24" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="X24" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z24" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AA24" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC24" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AD24" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AE24" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AG24" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH24" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AI24" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AK24" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AL24" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Aguilas Doradas</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Envigado</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.69</v>
+        <v>2.76</v>
       </c>
       <c r="G25" t="n">
-        <v>1.74</v>
+        <v>2.78</v>
       </c>
       <c r="H25" t="n">
-        <v>6</v>
+        <v>2.84</v>
       </c>
       <c r="I25" t="n">
-        <v>6.6</v>
+        <v>2.86</v>
       </c>
       <c r="J25" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="K25" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L25" t="n">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
       <c r="M25" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>2.94</v>
+        <v>4.1</v>
       </c>
       <c r="O25" t="n">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="P25" t="n">
-        <v>1.67</v>
+        <v>2.02</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.34</v>
+        <v>1.95</v>
       </c>
       <c r="R25" t="n">
-        <v>1.24</v>
+        <v>1.42</v>
       </c>
       <c r="S25" t="n">
-        <v>4.6</v>
+        <v>3.25</v>
       </c>
       <c r="T25" t="n">
-        <v>2.2</v>
+        <v>1.72</v>
       </c>
       <c r="U25" t="n">
-        <v>1.72</v>
+        <v>2.36</v>
       </c>
       <c r="V25" t="n">
-        <v>1.17</v>
+        <v>1.53</v>
       </c>
       <c r="W25" t="n">
-        <v>2.34</v>
+        <v>1.56</v>
       </c>
       <c r="X25" t="n">
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>17.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>50</v>
+        <v>18.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>220</v>
+        <v>42</v>
       </c>
       <c r="AB25" t="n">
-        <v>6.8</v>
+        <v>12</v>
       </c>
       <c r="AC25" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>27</v>
+        <v>12.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="AF25" t="n">
-        <v>9.199999999999999</v>
+        <v>18</v>
       </c>
       <c r="AG25" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH25" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK25" t="n">
         <v>28</v>
       </c>
-      <c r="AI25" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>18</v>
-      </c>
-      <c r="AK25" t="n">
+      <c r="AL25" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN25" t="n">
         <v>23</v>
       </c>
-      <c r="AL25" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>210</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AO25" t="n">
-        <v>210</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>US MLS</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,132 +3893,132 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Charlotte FC</t>
+          <t>Aguilas Doradas</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>New York City</t>
+          <t>Envigado</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.86</v>
+        <v>1.67</v>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>1.72</v>
       </c>
       <c r="H26" t="n">
-        <v>2.5</v>
+        <v>6.4</v>
       </c>
       <c r="I26" t="n">
-        <v>2.64</v>
+        <v>7</v>
       </c>
       <c r="J26" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K26" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L26" t="n">
-        <v>1.37</v>
+        <v>1.48</v>
       </c>
       <c r="M26" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N26" t="n">
-        <v>4.1</v>
+        <v>2.98</v>
       </c>
       <c r="O26" t="n">
-        <v>1.29</v>
+        <v>1.45</v>
       </c>
       <c r="P26" t="n">
-        <v>2.1</v>
+        <v>1.68</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.85</v>
+        <v>2.34</v>
       </c>
       <c r="R26" t="n">
-        <v>1.43</v>
+        <v>1.24</v>
       </c>
       <c r="S26" t="n">
-        <v>3.1</v>
+        <v>4.6</v>
       </c>
       <c r="T26" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="U26" t="n">
-        <v>2.3</v>
+        <v>1.72</v>
       </c>
       <c r="V26" t="n">
-        <v>1.6</v>
+        <v>1.16</v>
       </c>
       <c r="W26" t="n">
-        <v>1.5</v>
+        <v>2.38</v>
       </c>
       <c r="X26" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>230</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ26" t="n">
         <v>17</v>
       </c>
-      <c r="Y26" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>38</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>980</v>
-      </c>
       <c r="AK26" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AL26" t="n">
         <v>980</v>
       </c>
       <c r="AM26" t="n">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="AN26" t="n">
-        <v>25</v>
+        <v>14.5</v>
       </c>
       <c r="AO26" t="n">
-        <v>20</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>US MLS</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,125 +4028,260 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>20:10:00</t>
+          <t>19:45:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Deportivo Cali</t>
+          <t>Charlotte FC</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Alianza FC Valledupar</t>
+          <t>New York City</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.92</v>
+        <v>2.84</v>
       </c>
       <c r="G27" t="n">
+        <v>3</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N27" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P27" t="n">
         <v>2.08</v>
       </c>
-      <c r="H27" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="I27" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="J27" t="n">
+      <c r="Q27" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S27" t="n">
         <v>3.15</v>
       </c>
-      <c r="K27" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L27" t="n">
+      <c r="T27" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U27" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W27" t="n">
         <v>1.5</v>
       </c>
-      <c r="M27" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N27" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S27" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T27" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="W27" t="n">
-        <v>1.92</v>
-      </c>
       <c r="X27" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y27" t="n">
         <v>12</v>
       </c>
-      <c r="Y27" t="n">
-        <v>16</v>
-      </c>
       <c r="Z27" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="AA27" t="n">
-        <v>160</v>
+        <v>38</v>
       </c>
       <c r="AB27" t="n">
-        <v>8.4</v>
+        <v>13</v>
       </c>
       <c r="AC27" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD27" t="n">
-        <v>24</v>
+        <v>12.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AF27" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AG27" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>27</v>
+        <v>16.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="AJ27" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AK27" t="n">
         <v>32</v>
       </c>
       <c r="AL27" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025-10-28</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>20:10:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Deportivo Cali</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Alianza FC Valledupar</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I28" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="X28" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL28" t="n">
         <v>65</v>
       </c>
-      <c r="AM27" t="n">
+      <c r="AM28" t="n">
         <v>210</v>
       </c>
-      <c r="AN27" t="n">
+      <c r="AN28" t="n">
         <v>26</v>
       </c>
-      <c r="AO27" t="n">
+      <c r="AO28" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-28.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="W2" t="n">
         <v>1.84</v>
       </c>
-      <c r="G2" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="H2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I2" t="n">
-        <v>110</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K2" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.86</v>
-      </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG2" t="n">
         <v>9.4</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.22</v>
+        <v>2.5</v>
       </c>
       <c r="G3" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.5</v>
       </c>
-      <c r="H3" t="n">
-        <v>2.88</v>
-      </c>
       <c r="I3" t="n">
-        <v>3.3</v>
+        <v>2.94</v>
       </c>
       <c r="J3" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="K3" t="n">
+        <v>4</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N3" t="n">
         <v>4.4</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2.1</v>
       </c>
       <c r="O3" t="n">
         <v>1.2</v>
       </c>
       <c r="P3" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="R3" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S3" t="n">
-        <v>2.32</v>
+        <v>2.48</v>
       </c>
       <c r="T3" t="n">
-        <v>1.04</v>
+        <v>1.53</v>
       </c>
       <c r="U3" t="n">
-        <v>1.03</v>
+        <v>2.42</v>
       </c>
       <c r="V3" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="W3" t="n">
-        <v>1.66</v>
+        <v>1.52</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -943,16 +943,16 @@
         <v>1.39</v>
       </c>
       <c r="H4" t="n">
-        <v>8.4</v>
+        <v>9.4</v>
       </c>
       <c r="I4" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="J4" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="K4" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>2.68</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1078,10 +1078,10 @@
         <v>7.8</v>
       </c>
       <c r="H5" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="I5" t="n">
         <v>1.59</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.6</v>
       </c>
       <c r="J5" t="n">
         <v>4.1</v>
@@ -1096,31 +1096,31 @@
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O5" t="n">
         <v>1.39</v>
       </c>
       <c r="P5" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R5" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S5" t="n">
         <v>4.1</v>
       </c>
       <c r="T5" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="U5" t="n">
         <v>1.76</v>
       </c>
       <c r="V5" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="W5" t="n">
         <v>1.14</v>
@@ -1132,13 +1132,13 @@
         <v>6.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AA5" t="n">
         <v>14</v>
       </c>
       <c r="AB5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC5" t="n">
         <v>9.199999999999999</v>
@@ -1147,7 +1147,7 @@
         <v>10</v>
       </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AF5" t="n">
         <v>60</v>
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="G6" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H6" t="n">
         <v>3.2</v>
@@ -1219,16 +1219,16 @@
         <v>3.45</v>
       </c>
       <c r="J6" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K6" t="n">
         <v>3.7</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
         <v>4.2</v>
@@ -1237,19 +1237,19 @@
         <v>1.26</v>
       </c>
       <c r="P6" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="R6" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S6" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="T6" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="U6" t="n">
         <v>2.42</v>
@@ -1258,10 +1258,10 @@
         <v>1.4</v>
       </c>
       <c r="W6" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="X6" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="Y6" t="n">
         <v>15.5</v>
@@ -1270,49 +1270,49 @@
         <v>980</v>
       </c>
       <c r="AA6" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="AB6" t="n">
         <v>12.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AE6" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="AF6" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AI6" t="n">
         <v>980</v>
       </c>
       <c r="AJ6" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AK6" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AL6" t="n">
         <v>980</v>
       </c>
       <c r="AM6" t="n">
-        <v>75</v>
+        <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
     </row>
     <row r="7">
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="G7" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="H7" t="n">
         <v>6.6</v>
@@ -1354,10 +1354,10 @@
         <v>7.4</v>
       </c>
       <c r="J7" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="K7" t="n">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="L7" t="n">
         <v>1.25</v>
@@ -1372,16 +1372,16 @@
         <v>1.16</v>
       </c>
       <c r="P7" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="Q7" t="n">
         <v>1.5</v>
       </c>
       <c r="R7" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="S7" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="T7" t="n">
         <v>1.67</v>
@@ -1393,43 +1393,43 @@
         <v>1.16</v>
       </c>
       <c r="W7" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="X7" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="Y7" t="n">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="Z7" t="n">
-        <v>65</v>
+        <v>220</v>
       </c>
       <c r="AA7" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="AB7" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC7" t="n">
         <v>13</v>
       </c>
       <c r="AD7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE7" t="n">
-        <v>85</v>
+        <v>460</v>
       </c>
       <c r="AF7" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG7" t="n">
         <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI7" t="n">
-        <v>65</v>
+        <v>360</v>
       </c>
       <c r="AJ7" t="n">
         <v>15</v>
@@ -1441,13 +1441,13 @@
         <v>28</v>
       </c>
       <c r="AM7" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="AN7" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="AO7" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8">
@@ -1477,25 +1477,25 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G8" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="H8" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="I8" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J8" t="n">
         <v>3.25</v>
       </c>
       <c r="K8" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="M8" t="n">
         <v>1.09</v>
@@ -1504,13 +1504,13 @@
         <v>3.1</v>
       </c>
       <c r="O8" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P8" t="n">
         <v>1.72</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="R8" t="n">
         <v>1.26</v>
@@ -1522,67 +1522,67 @@
         <v>1.92</v>
       </c>
       <c r="U8" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V8" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="W8" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="X8" t="n">
         <v>12</v>
       </c>
       <c r="Y8" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="AA8" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="AB8" t="n">
         <v>8.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>55</v>
+        <v>240</v>
       </c>
       <c r="AF8" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="AI8" t="n">
-        <v>65</v>
+        <v>350</v>
       </c>
       <c r="AJ8" t="n">
         <v>980</v>
       </c>
       <c r="AK8" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AL8" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AM8" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO8" t="n">
         <v>160</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>980</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>65</v>
       </c>
     </row>
     <row r="9">
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="G9" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="H9" t="n">
         <v>4.1</v>
       </c>
       <c r="I9" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K9" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -1636,25 +1636,25 @@
         <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O9" t="n">
         <v>1.4</v>
       </c>
       <c r="P9" t="n">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R9" t="n">
         <v>1.29</v>
       </c>
       <c r="S9" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T9" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="U9" t="n">
         <v>1.98</v>
@@ -1663,25 +1663,25 @@
         <v>1.29</v>
       </c>
       <c r="W9" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="X9" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y9" t="n">
         <v>14</v>
       </c>
       <c r="Z9" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="AA9" t="n">
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="AB9" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD9" t="n">
         <v>18.5</v>
@@ -1699,25 +1699,25 @@
         <v>21</v>
       </c>
       <c r="AI9" t="n">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="AJ9" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AK9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL9" t="n">
         <v>46</v>
       </c>
       <c r="AM9" t="n">
-        <v>160</v>
+        <v>580</v>
       </c>
       <c r="AN9" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AO9" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10">
@@ -1747,52 +1747,52 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G10" t="n">
         <v>2.34</v>
       </c>
       <c r="H10" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I10" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K10" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L10" t="n">
         <v>1.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>3.05</v>
+        <v>2.86</v>
       </c>
       <c r="O10" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="P10" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.26</v>
+        <v>2.42</v>
       </c>
       <c r="R10" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="S10" t="n">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="T10" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="U10" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="V10" t="n">
         <v>1.33</v>
@@ -1801,28 +1801,28 @@
         <v>1.74</v>
       </c>
       <c r="X10" t="n">
-        <v>13</v>
+        <v>9.6</v>
       </c>
       <c r="Y10" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AE10" t="n">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="AF10" t="n">
         <v>13.5</v>
@@ -1831,22 +1831,22 @@
         <v>11.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AI10" t="n">
-        <v>70</v>
+        <v>350</v>
       </c>
       <c r="AJ10" t="n">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="AK10" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AL10" t="n">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AM10" t="n">
-        <v>160</v>
+        <v>580</v>
       </c>
       <c r="AN10" t="n">
         <v>1000</v>
@@ -1882,19 +1882,19 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="G11" t="n">
         <v>5.1</v>
       </c>
       <c r="H11" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="I11" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="J11" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K11" t="n">
         <v>3.6</v>
@@ -1906,67 +1906,67 @@
         <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="O11" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="P11" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="R11" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S11" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T11" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="U11" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V11" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="W11" t="n">
         <v>1.25</v>
       </c>
       <c r="X11" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="Z11" t="n">
         <v>11.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="AB11" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD11" t="n">
         <v>10.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="AF11" t="n">
         <v>980</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="AH11" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AI11" t="n">
         <v>980</v>
@@ -1975,19 +1975,19 @@
         <v>140</v>
       </c>
       <c r="AK11" t="n">
-        <v>70</v>
+        <v>440</v>
       </c>
       <c r="AL11" t="n">
-        <v>95</v>
+        <v>350</v>
       </c>
       <c r="AM11" t="n">
-        <v>170</v>
+        <v>580</v>
       </c>
       <c r="AN11" t="n">
         <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="12">
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="G12" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="H12" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I12" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J12" t="n">
         <v>3.05</v>
@@ -2035,13 +2035,13 @@
         <v>3.1</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="M12" t="n">
         <v>1.12</v>
       </c>
       <c r="N12" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="O12" t="n">
         <v>1.5</v>
@@ -2050,37 +2050,37 @@
         <v>1.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="R12" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S12" t="n">
-        <v>4.3</v>
+        <v>5.1</v>
       </c>
       <c r="T12" t="n">
         <v>2.02</v>
       </c>
       <c r="U12" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V12" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="W12" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="X12" t="n">
         <v>9.4</v>
       </c>
       <c r="Y12" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z12" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AA12" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AB12" t="n">
         <v>8</v>
@@ -2092,37 +2092,37 @@
         <v>16</v>
       </c>
       <c r="AE12" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AF12" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="AG12" t="n">
         <v>12</v>
       </c>
       <c r="AH12" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AI12" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ12" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AK12" t="n">
         <v>34</v>
       </c>
       <c r="AL12" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM12" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AN12" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AO12" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13">
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="G13" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H13" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="I13" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="J13" t="n">
         <v>3.3</v>
       </c>
       <c r="K13" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
@@ -2182,10 +2182,10 @@
         <v>1.41</v>
       </c>
       <c r="P13" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="R13" t="n">
         <v>1.27</v>
@@ -2194,31 +2194,31 @@
         <v>4.3</v>
       </c>
       <c r="T13" t="n">
-        <v>1.88</v>
+        <v>1.74</v>
       </c>
       <c r="U13" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="W13" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="X13" t="n">
         <v>11</v>
       </c>
       <c r="Y13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z13" t="n">
         <v>16</v>
       </c>
       <c r="AA13" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AB13" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AC13" t="n">
         <v>7.4</v>
@@ -2227,37 +2227,37 @@
         <v>12.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AF13" t="n">
         <v>21</v>
       </c>
       <c r="AG13" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH13" t="n">
         <v>20</v>
       </c>
       <c r="AI13" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AJ13" t="n">
-        <v>60</v>
+        <v>340</v>
       </c>
       <c r="AK13" t="n">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="AL13" t="n">
         <v>60</v>
       </c>
       <c r="AM13" t="n">
-        <v>130</v>
+        <v>580</v>
       </c>
       <c r="AN13" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AO13" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
@@ -2293,16 +2293,16 @@
         <v>3.25</v>
       </c>
       <c r="H14" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="I14" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="J14" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K14" t="n">
         <v>3.15</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.25</v>
       </c>
       <c r="L14" t="n">
         <v>1.51</v>
@@ -2314,13 +2314,13 @@
         <v>2.92</v>
       </c>
       <c r="O14" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P14" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="R14" t="n">
         <v>1.24</v>
@@ -2332,7 +2332,7 @@
         <v>1.96</v>
       </c>
       <c r="U14" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="V14" t="n">
         <v>1.56</v>
@@ -2347,13 +2347,13 @@
         <v>9</v>
       </c>
       <c r="Z14" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AA14" t="n">
         <v>980</v>
       </c>
       <c r="AB14" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC14" t="n">
         <v>7.4</v>
@@ -2362,7 +2362,7 @@
         <v>13</v>
       </c>
       <c r="AE14" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AF14" t="n">
         <v>21</v>
@@ -2371,22 +2371,22 @@
         <v>14.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AI14" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="AJ14" t="n">
-        <v>60</v>
+        <v>340</v>
       </c>
       <c r="AK14" t="n">
         <v>980</v>
       </c>
       <c r="AL14" t="n">
-        <v>65</v>
+        <v>370</v>
       </c>
       <c r="AM14" t="n">
-        <v>170</v>
+        <v>580</v>
       </c>
       <c r="AN14" t="n">
         <v>980</v>
@@ -2422,58 +2422,58 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="G15" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="H15" t="n">
         <v>4.8</v>
       </c>
       <c r="I15" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="K15" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N15" t="n">
         <v>4.8</v>
       </c>
-      <c r="L15" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N15" t="n">
-        <v>5.1</v>
-      </c>
       <c r="O15" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P15" t="n">
-        <v>2.66</v>
+        <v>2.26</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.53</v>
+        <v>1.66</v>
       </c>
       <c r="R15" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="T15" t="n">
         <v>1.6</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.54</v>
       </c>
       <c r="U15" t="n">
         <v>2.42</v>
       </c>
       <c r="V15" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W15" t="n">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="X15" t="n">
         <v>980</v>
@@ -2485,31 +2485,31 @@
         <v>980</v>
       </c>
       <c r="AA15" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AB15" t="n">
         <v>980</v>
       </c>
       <c r="AC15" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="AD15" t="n">
         <v>980</v>
       </c>
       <c r="AE15" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AF15" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="AH15" t="n">
         <v>980</v>
       </c>
       <c r="AI15" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AJ15" t="n">
         <v>980</v>
@@ -2524,7 +2524,7 @@
         <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2560,7 +2560,7 @@
         <v>1.5</v>
       </c>
       <c r="G16" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="H16" t="n">
         <v>6.8</v>
@@ -2590,7 +2590,7 @@
         <v>2.06</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R16" t="n">
         <v>1.42</v>
@@ -2599,13 +2599,13 @@
         <v>3.05</v>
       </c>
       <c r="T16" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="U16" t="n">
         <v>1.89</v>
       </c>
       <c r="V16" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W16" t="n">
         <v>2.84</v>
@@ -2614,7 +2614,7 @@
         <v>18</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Z16" t="n">
         <v>65</v>
@@ -2626,7 +2626,7 @@
         <v>8.6</v>
       </c>
       <c r="AC16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD16" t="n">
         <v>29</v>
@@ -2638,7 +2638,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AG16" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH16" t="n">
         <v>26</v>
@@ -2647,7 +2647,7 @@
         <v>110</v>
       </c>
       <c r="AJ16" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AK16" t="n">
         <v>16</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G17" t="n">
         <v>2.36</v>
@@ -2722,64 +2722,64 @@
         <v>1.41</v>
       </c>
       <c r="P17" t="n">
-        <v>1.71</v>
+        <v>1.62</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="R17" t="n">
         <v>1.27</v>
       </c>
       <c r="S17" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T17" t="n">
         <v>1.9</v>
       </c>
       <c r="U17" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V17" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W17" t="n">
         <v>1.73</v>
       </c>
       <c r="X17" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="Y17" t="n">
-        <v>13.5</v>
+        <v>22</v>
       </c>
       <c r="Z17" t="n">
         <v>980</v>
       </c>
       <c r="AA17" t="n">
-        <v>75</v>
+        <v>300</v>
       </c>
       <c r="AB17" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.8</v>
+        <v>12.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE17" t="n">
         <v>980</v>
       </c>
       <c r="AF17" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="AG17" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AH17" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="AI17" t="n">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="AJ17" t="n">
         <v>980</v>
@@ -2791,10 +2791,10 @@
         <v>980</v>
       </c>
       <c r="AM17" t="n">
-        <v>150</v>
+        <v>580</v>
       </c>
       <c r="AN17" t="n">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="AO17" t="n">
         <v>1000</v>
@@ -2827,19 +2827,19 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="G18" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="H18" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I18" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J18" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K18" t="n">
         <v>3.25</v>
@@ -2851,82 +2851,82 @@
         <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>2.04</v>
+        <v>2.68</v>
       </c>
       <c r="O18" t="n">
-        <v>1.02</v>
+        <v>1.47</v>
       </c>
       <c r="P18" t="n">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.28</v>
+        <v>2.46</v>
       </c>
       <c r="R18" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S18" t="n">
-        <v>4.2</v>
+        <v>2.48</v>
       </c>
       <c r="T18" t="n">
-        <v>1.03</v>
+        <v>1.84</v>
       </c>
       <c r="U18" t="n">
-        <v>1.03</v>
+        <v>1.85</v>
       </c>
       <c r="V18" t="n">
         <v>1.38</v>
       </c>
       <c r="W18" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="X18" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>230</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG18" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>1000</v>
-      </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AI18" t="n">
         <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN18" t="n">
         <v>1000</v>
@@ -2965,10 +2965,10 @@
         <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H19" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="I19" t="n">
         <v>2.68</v>
@@ -3001,7 +3001,7 @@
         <v>1.33</v>
       </c>
       <c r="S19" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T19" t="n">
         <v>1.78</v>
@@ -3013,34 +3013,34 @@
         <v>1.6</v>
       </c>
       <c r="W19" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X19" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="Y19" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AA19" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AB19" t="n">
         <v>12</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AF19" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AG19" t="n">
         <v>14</v>
@@ -3049,19 +3049,19 @@
         <v>18</v>
       </c>
       <c r="AI19" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AJ19" t="n">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="AK19" t="n">
         <v>38</v>
       </c>
       <c r="AL19" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AM19" t="n">
-        <v>120</v>
+        <v>580</v>
       </c>
       <c r="AN19" t="n">
         <v>1000</v>
@@ -3100,13 +3100,13 @@
         <v>3.95</v>
       </c>
       <c r="G20" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="H20" t="n">
         <v>2.02</v>
       </c>
       <c r="I20" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="J20" t="n">
         <v>3.4</v>
@@ -3121,7 +3121,7 @@
         <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>2.96</v>
+        <v>2.8</v>
       </c>
       <c r="O20" t="n">
         <v>1.39</v>
@@ -3130,7 +3130,7 @@
         <v>1.74</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="R20" t="n">
         <v>1.27</v>
@@ -3151,10 +3151,10 @@
         <v>1.29</v>
       </c>
       <c r="X20" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="Y20" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="Z20" t="n">
         <v>980</v>
@@ -3163,13 +3163,13 @@
         <v>980</v>
       </c>
       <c r="AB20" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.199999999999999</v>
+        <v>14</v>
       </c>
       <c r="AD20" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AE20" t="n">
         <v>980</v>
@@ -3190,19 +3190,19 @@
         <v>1000</v>
       </c>
       <c r="AK20" t="n">
-        <v>65</v>
+        <v>300</v>
       </c>
       <c r="AL20" t="n">
         <v>1000</v>
       </c>
       <c r="AM20" t="n">
-        <v>160</v>
+        <v>580</v>
       </c>
       <c r="AN20" t="n">
         <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21">
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="G21" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="H21" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I21" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J21" t="n">
         <v>3.2</v>
@@ -3253,58 +3253,58 @@
         <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>2.64</v>
+        <v>2.88</v>
       </c>
       <c r="O21" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P21" t="n">
         <v>1.84</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.1</v>
+        <v>1.92</v>
       </c>
       <c r="R21" t="n">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="S21" t="n">
         <v>3.85</v>
       </c>
       <c r="T21" t="n">
-        <v>1.03</v>
+        <v>1.82</v>
       </c>
       <c r="U21" t="n">
         <v>2.1</v>
       </c>
       <c r="V21" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="W21" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="X21" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y21" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Z21" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AA21" t="n">
         <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AE21" t="n">
         <v>1000</v>
@@ -3313,7 +3313,7 @@
         <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AH21" t="n">
         <v>1000</v>
@@ -3331,7 +3331,7 @@
         <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN21" t="n">
         <v>1000</v>
@@ -3367,16 +3367,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G22" t="n">
         <v>3.7</v>
       </c>
       <c r="H22" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="I22" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="J22" t="n">
         <v>3.25</v>
@@ -3385,37 +3385,37 @@
         <v>3.5</v>
       </c>
       <c r="L22" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M22" t="n">
         <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O22" t="n">
         <v>1.39</v>
       </c>
       <c r="P22" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="R22" t="n">
         <v>1.28</v>
       </c>
       <c r="S22" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T22" t="n">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="U22" t="n">
         <v>1.96</v>
       </c>
       <c r="V22" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="W22" t="n">
         <v>1.37</v>
@@ -3427,10 +3427,10 @@
         <v>9.4</v>
       </c>
       <c r="Z22" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AB22" t="n">
         <v>12.5</v>
@@ -3442,37 +3442,37 @@
         <v>12</v>
       </c>
       <c r="AE22" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AF22" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AG22" t="n">
         <v>15.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AJ22" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AK22" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="AL22" t="n">
-        <v>60</v>
+        <v>340</v>
       </c>
       <c r="AM22" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO22" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="G23" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="H23" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I23" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="J23" t="n">
-        <v>3.95</v>
+        <v>3.55</v>
       </c>
       <c r="K23" t="n">
-        <v>4.6</v>
+        <v>5.5</v>
       </c>
       <c r="L23" t="n">
         <v>1.01</v>
@@ -3526,40 +3526,40 @@
         <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="O23" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V23" t="n">
         <v>1.22</v>
       </c>
-      <c r="P23" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="U23" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.25</v>
-      </c>
       <c r="W23" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="X23" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Y23" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Z23" t="n">
         <v>1000</v>
@@ -3568,34 +3568,34 @@
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>10.5</v>
+        <v>42</v>
       </c>
       <c r="AD23" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AE23" t="n">
         <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AG23" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH23" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI23" t="n">
         <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AK23" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AL23" t="n">
         <v>1000</v>
@@ -3604,7 +3604,7 @@
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>9.800000000000001</v>
+        <v>85</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3637,13 +3637,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="G24" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="H24" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="I24" t="n">
         <v>3.9</v>
@@ -3667,16 +3667,16 @@
         <v>1.25</v>
       </c>
       <c r="P24" t="n">
-        <v>1.57</v>
+        <v>1.25</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.72</v>
+        <v>1.25</v>
       </c>
       <c r="R24" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="S24" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="T24" t="n">
         <v>1.03</v>
@@ -3685,10 +3685,10 @@
         <v>1.03</v>
       </c>
       <c r="V24" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="W24" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="X24" t="n">
         <v>1000</v>
@@ -3706,7 +3706,7 @@
         <v>1000</v>
       </c>
       <c r="AC24" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD24" t="n">
         <v>1000</v>
@@ -3772,16 +3772,16 @@
         </is>
       </c>
       <c r="F25" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="G25" t="n">
         <v>2.76</v>
-      </c>
-      <c r="G25" t="n">
-        <v>2.78</v>
       </c>
       <c r="H25" t="n">
         <v>2.84</v>
       </c>
       <c r="I25" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="J25" t="n">
         <v>3.45</v>
@@ -3802,22 +3802,22 @@
         <v>1.3</v>
       </c>
       <c r="P25" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R25" t="n">
         <v>1.42</v>
       </c>
       <c r="S25" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T25" t="n">
         <v>1.72</v>
       </c>
       <c r="U25" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="V25" t="n">
         <v>1.53</v>
@@ -3826,10 +3826,10 @@
         <v>1.56</v>
       </c>
       <c r="X25" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z25" t="n">
         <v>18.5</v>
@@ -3853,7 +3853,7 @@
         <v>18</v>
       </c>
       <c r="AG25" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH25" t="n">
         <v>15.5</v>
@@ -3868,7 +3868,7 @@
         <v>28</v>
       </c>
       <c r="AL25" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM25" t="n">
         <v>80</v>
@@ -3907,22 +3907,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="G26" t="n">
         <v>1.72</v>
       </c>
       <c r="H26" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="I26" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J26" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K26" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L26" t="n">
         <v>1.48</v>
@@ -3931,16 +3931,16 @@
         <v>1.09</v>
       </c>
       <c r="N26" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="O26" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P26" t="n">
         <v>1.68</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.34</v>
+        <v>2.26</v>
       </c>
       <c r="R26" t="n">
         <v>1.24</v>
@@ -3949,28 +3949,28 @@
         <v>4.6</v>
       </c>
       <c r="T26" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="U26" t="n">
         <v>1.72</v>
       </c>
       <c r="V26" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W26" t="n">
         <v>2.38</v>
       </c>
       <c r="X26" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AA26" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AB26" t="n">
         <v>6.8</v>
@@ -3985,7 +3985,7 @@
         <v>130</v>
       </c>
       <c r="AF26" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG26" t="n">
         <v>10.5</v>
@@ -4000,19 +4000,19 @@
         <v>17</v>
       </c>
       <c r="AK26" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AL26" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AM26" t="n">
-        <v>220</v>
+        <v>580</v>
       </c>
       <c r="AN26" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AO26" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="G27" t="n">
         <v>3</v>
       </c>
       <c r="H27" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="I27" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="J27" t="n">
         <v>3.6</v>
       </c>
       <c r="K27" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L27" t="n">
         <v>1.37</v>
@@ -4066,19 +4066,19 @@
         <v>1.06</v>
       </c>
       <c r="N27" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O27" t="n">
         <v>1.29</v>
       </c>
       <c r="P27" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="R27" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S27" t="n">
         <v>3.15</v>
@@ -4087,10 +4087,10 @@
         <v>1.7</v>
       </c>
       <c r="U27" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V27" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="W27" t="n">
         <v>1.5</v>
@@ -4102,19 +4102,19 @@
         <v>12</v>
       </c>
       <c r="Z27" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB27" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC27" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD27" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE27" t="n">
         <v>27</v>
@@ -4132,19 +4132,19 @@
         <v>38</v>
       </c>
       <c r="AJ27" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AK27" t="n">
         <v>32</v>
       </c>
       <c r="AL27" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AM27" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="AN27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO27" t="n">
         <v>20</v>
@@ -4177,79 +4177,79 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="G28" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="H28" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I28" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="J28" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="K28" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="L28" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M28" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>2.78</v>
+        <v>3.25</v>
       </c>
       <c r="O28" t="n">
-        <v>1.45</v>
+        <v>1.37</v>
       </c>
       <c r="P28" t="n">
-        <v>1.6</v>
+        <v>1.78</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.32</v>
+        <v>2.06</v>
       </c>
       <c r="R28" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="S28" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="T28" t="n">
-        <v>2.04</v>
+        <v>1.87</v>
       </c>
       <c r="U28" t="n">
-        <v>1.79</v>
+        <v>1.94</v>
       </c>
       <c r="V28" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="W28" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="X28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y28" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AA28" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="AB28" t="n">
         <v>8.4</v>
       </c>
       <c r="AC28" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD28" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="AE28" t="n">
         <v>1000</v>
@@ -4258,28 +4258,28 @@
         <v>12</v>
       </c>
       <c r="AG28" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH28" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AI28" t="n">
+        <v>370</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL28" t="n">
         <v>120</v>
       </c>
-      <c r="AJ28" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>65</v>
-      </c>
       <c r="AM28" t="n">
-        <v>210</v>
+        <v>580</v>
       </c>
       <c r="AN28" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AO28" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-28.xlsx
@@ -670,46 +670,46 @@
         <v>1.95</v>
       </c>
       <c r="G2" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="H2" t="n">
-        <v>3.2</v>
+        <v>3.65</v>
       </c>
       <c r="I2" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J2" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="K2" t="n">
         <v>4.3</v>
       </c>
       <c r="L2" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P2" t="n">
         <v>2.16</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="R2" t="n">
         <v>1.46</v>
       </c>
       <c r="S2" t="n">
-        <v>2.48</v>
+        <v>2.74</v>
       </c>
       <c r="T2" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="U2" t="n">
         <v>2.28</v>
@@ -718,52 +718,52 @@
         <v>1.31</v>
       </c>
       <c r="W2" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="X2" t="n">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="Y2" t="n">
         <v>120</v>
       </c>
       <c r="Z2" t="n">
-        <v>980</v>
+        <v>170</v>
       </c>
       <c r="AA2" t="n">
-        <v>85</v>
+        <v>290</v>
       </c>
       <c r="AB2" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AE2" t="n">
         <v>980</v>
       </c>
       <c r="AF2" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AG2" t="n">
         <v>9.4</v>
       </c>
       <c r="AH2" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="AI2" t="n">
         <v>980</v>
       </c>
       <c r="AJ2" t="n">
-        <v>900</v>
+        <v>140</v>
       </c>
       <c r="AK2" t="n">
         <v>980</v>
       </c>
       <c r="AL2" t="n">
-        <v>980</v>
+        <v>200</v>
       </c>
       <c r="AM2" t="n">
         <v>580</v>
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="G3" t="n">
-        <v>2.96</v>
+        <v>2.86</v>
       </c>
       <c r="H3" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="I3" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="J3" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L3" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
         <v>4.4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="P3" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="R3" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.5</v>
       </c>
-      <c r="S3" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="T3" t="n">
+      <c r="W3" t="n">
         <v>1.53</v>
       </c>
-      <c r="U3" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.52</v>
-      </c>
       <c r="X3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y3" t="n">
         <v>16.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA3" t="n">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="AB3" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD3" t="n">
         <v>13.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AF3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH3" t="n">
         <v>16</v>
       </c>
       <c r="AI3" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AJ3" t="n">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="AK3" t="n">
         <v>28</v>
       </c>
       <c r="AL3" t="n">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="AM3" t="n">
-        <v>580</v>
+        <v>200</v>
       </c>
       <c r="AN3" t="n">
         <v>18</v>
       </c>
       <c r="AO3" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="G4" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="H4" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="I4" t="n">
         <v>14.5</v>
       </c>
       <c r="J4" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="K4" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1075,52 +1075,52 @@
         <v>7.6</v>
       </c>
       <c r="G5" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="H5" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="I5" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="J5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" t="n">
         <v>4.1</v>
       </c>
-      <c r="K5" t="n">
-        <v>4.2</v>
-      </c>
       <c r="L5" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N5" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="O5" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="P5" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="R5" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="S5" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="T5" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="U5" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="V5" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="W5" t="n">
         <v>1.14</v>
@@ -1129,16 +1129,16 @@
         <v>12.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="Z5" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AA5" t="n">
         <v>14</v>
       </c>
       <c r="AB5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC5" t="n">
         <v>9.199999999999999</v>
@@ -1147,37 +1147,37 @@
         <v>10</v>
       </c>
       <c r="AE5" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AG5" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AH5" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AI5" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AJ5" t="n">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="AK5" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AL5" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AM5" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="AN5" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="AO5" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="6">
@@ -1207,58 +1207,58 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="G6" t="n">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="J6" t="n">
         <v>3.5</v>
       </c>
       <c r="K6" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L6" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P6" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="R6" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="S6" t="n">
         <v>2.92</v>
       </c>
       <c r="T6" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="U6" t="n">
         <v>2.42</v>
       </c>
       <c r="V6" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="W6" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="X6" t="n">
         <v>34</v>
@@ -1273,25 +1273,25 @@
         <v>300</v>
       </c>
       <c r="AB6" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC6" t="n">
         <v>8.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AE6" t="n">
-        <v>90</v>
+        <v>980</v>
       </c>
       <c r="AF6" t="n">
-        <v>38</v>
+        <v>17.5</v>
       </c>
       <c r="AG6" t="n">
         <v>12.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="AI6" t="n">
         <v>980</v>
@@ -1300,10 +1300,10 @@
         <v>120</v>
       </c>
       <c r="AK6" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AL6" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AM6" t="n">
         <v>580</v>
@@ -1342,109 +1342,109 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="G7" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="H7" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="I7" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="K7" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="O7" t="n">
         <v>1.16</v>
       </c>
       <c r="P7" t="n">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="R7" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="S7" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="T7" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U7" t="n">
         <v>2.28</v>
       </c>
       <c r="V7" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="W7" t="n">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="X7" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>38</v>
+      </c>
+      <c r="Z7" t="n">
         <v>75</v>
       </c>
-      <c r="Y7" t="n">
-        <v>120</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>220</v>
-      </c>
       <c r="AA7" t="n">
-        <v>210</v>
+        <v>980</v>
       </c>
       <c r="AB7" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC7" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD7" t="n">
         <v>28</v>
       </c>
       <c r="AE7" t="n">
-        <v>460</v>
+        <v>90</v>
       </c>
       <c r="AF7" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI7" t="n">
-        <v>360</v>
+        <v>75</v>
       </c>
       <c r="AJ7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK7" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AM7" t="n">
-        <v>300</v>
+        <v>85</v>
       </c>
       <c r="AN7" t="n">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="AO7" t="n">
         <v>200</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="G8" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="H8" t="n">
         <v>3.8</v>
       </c>
       <c r="I8" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="J8" t="n">
         <v>3.25</v>
@@ -1495,22 +1495,22 @@
         <v>3.3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="M8" t="n">
         <v>1.09</v>
       </c>
       <c r="N8" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O8" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P8" t="n">
         <v>1.72</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="R8" t="n">
         <v>1.26</v>
@@ -1525,10 +1525,10 @@
         <v>1.96</v>
       </c>
       <c r="V8" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="W8" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="X8" t="n">
         <v>12</v>
@@ -1546,10 +1546,10 @@
         <v>8.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>16.5</v>
+        <v>30</v>
       </c>
       <c r="AE8" t="n">
         <v>240</v>
@@ -1561,7 +1561,7 @@
         <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="AI8" t="n">
         <v>350</v>
@@ -1573,7 +1573,7 @@
         <v>75</v>
       </c>
       <c r="AL8" t="n">
-        <v>120</v>
+        <v>980</v>
       </c>
       <c r="AM8" t="n">
         <v>580</v>
@@ -1630,34 +1630,34 @@
         <v>3.45</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M9" t="n">
         <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O9" t="n">
         <v>1.4</v>
       </c>
       <c r="P9" t="n">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R9" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S9" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T9" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="U9" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
         <v>1.29</v>
@@ -1666,7 +1666,7 @@
         <v>1.87</v>
       </c>
       <c r="X9" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y9" t="n">
         <v>14</v>
@@ -1678,16 +1678,16 @@
         <v>290</v>
       </c>
       <c r="AB9" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC9" t="n">
         <v>7.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE9" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AF9" t="n">
         <v>13</v>
@@ -1708,7 +1708,7 @@
         <v>26</v>
       </c>
       <c r="AL9" t="n">
-        <v>46</v>
+        <v>200</v>
       </c>
       <c r="AM9" t="n">
         <v>580</v>
@@ -1750,10 +1750,10 @@
         <v>2.26</v>
       </c>
       <c r="G10" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="H10" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
@@ -1765,43 +1765,43 @@
         <v>3.3</v>
       </c>
       <c r="L10" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="M10" t="n">
         <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>2.86</v>
+        <v>2.94</v>
       </c>
       <c r="O10" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="P10" t="n">
         <v>1.63</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="R10" t="n">
         <v>1.23</v>
       </c>
       <c r="S10" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T10" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="U10" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="V10" t="n">
         <v>1.33</v>
       </c>
       <c r="W10" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="X10" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y10" t="n">
         <v>11.5</v>
@@ -1813,10 +1813,10 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD10" t="n">
         <v>30</v>
@@ -1831,13 +1831,13 @@
         <v>11.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="AI10" t="n">
         <v>350</v>
       </c>
       <c r="AJ10" t="n">
-        <v>120</v>
+        <v>980</v>
       </c>
       <c r="AK10" t="n">
         <v>85</v>
@@ -1882,52 +1882,52 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="G11" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="H11" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="I11" t="n">
         <v>1.98</v>
       </c>
       <c r="J11" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="K11" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="M11" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="O11" t="n">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="P11" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.14</v>
+        <v>2.38</v>
       </c>
       <c r="R11" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="S11" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="T11" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="U11" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="V11" t="n">
         <v>2.02</v>
@@ -1936,43 +1936,43 @@
         <v>1.25</v>
       </c>
       <c r="X11" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Y11" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="Z11" t="n">
         <v>11.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AB11" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AC11" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE11" t="n">
         <v>70</v>
       </c>
       <c r="AF11" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AG11" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="AH11" t="n">
         <v>38</v>
       </c>
       <c r="AI11" t="n">
-        <v>980</v>
+        <v>190</v>
       </c>
       <c r="AJ11" t="n">
-        <v>140</v>
+        <v>340</v>
       </c>
       <c r="AK11" t="n">
         <v>440</v>
@@ -1987,7 +1987,7 @@
         <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>16.5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="G12" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="H12" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="J12" t="n">
         <v>3.05</v>
@@ -2041,7 +2041,7 @@
         <v>1.12</v>
       </c>
       <c r="N12" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="O12" t="n">
         <v>1.5</v>
@@ -2050,13 +2050,13 @@
         <v>1.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="R12" t="n">
         <v>1.22</v>
       </c>
       <c r="S12" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="T12" t="n">
         <v>2.02</v>
@@ -2065,34 +2065,34 @@
         <v>1.87</v>
       </c>
       <c r="V12" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="W12" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="X12" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y12" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AA12" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AB12" t="n">
         <v>8</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD12" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="AF12" t="n">
         <v>14</v>
@@ -2101,13 +2101,13 @@
         <v>12</v>
       </c>
       <c r="AH12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI12" t="n">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="AJ12" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AK12" t="n">
         <v>34</v>
@@ -2119,10 +2119,10 @@
         <v>180</v>
       </c>
       <c r="AN12" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AO12" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="G13" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H13" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="I13" t="n">
-        <v>2.74</v>
+        <v>2.62</v>
       </c>
       <c r="J13" t="n">
         <v>3.3</v>
@@ -2170,55 +2170,55 @@
         <v>3.45</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="M13" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N13" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="P13" t="n">
-        <v>1.73</v>
+        <v>1.66</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.99</v>
+        <v>2.38</v>
       </c>
       <c r="R13" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="S13" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="T13" t="n">
-        <v>1.74</v>
+        <v>1.93</v>
       </c>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>1.81</v>
       </c>
       <c r="V13" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="W13" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="X13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z13" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AB13" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AC13" t="n">
         <v>7.4</v>
@@ -2227,37 +2227,37 @@
         <v>12.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AF13" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH13" t="n">
         <v>21</v>
       </c>
-      <c r="AG13" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>20</v>
-      </c>
       <c r="AI13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>55</v>
       </c>
-      <c r="AJ13" t="n">
-        <v>340</v>
-      </c>
       <c r="AK13" t="n">
-        <v>110</v>
+        <v>980</v>
       </c>
       <c r="AL13" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM13" t="n">
-        <v>580</v>
+        <v>140</v>
       </c>
       <c r="AN13" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AO13" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
@@ -2290,37 +2290,37 @@
         <v>3.05</v>
       </c>
       <c r="G14" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H14" t="n">
         <v>2.66</v>
       </c>
       <c r="I14" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="J14" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K14" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="L14" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="M14" t="n">
         <v>1.1</v>
       </c>
       <c r="N14" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="O14" t="n">
         <v>1.46</v>
       </c>
       <c r="P14" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="R14" t="n">
         <v>1.24</v>
@@ -2329,70 +2329,70 @@
         <v>4.7</v>
       </c>
       <c r="T14" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="U14" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="V14" t="n">
         <v>1.56</v>
       </c>
       <c r="W14" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X14" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y14" t="n">
         <v>9</v>
       </c>
       <c r="Z14" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA14" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AB14" t="n">
         <v>10</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD14" t="n">
         <v>13</v>
       </c>
       <c r="AE14" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AF14" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH14" t="n">
         <v>21</v>
       </c>
-      <c r="AG14" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH14" t="n">
+      <c r="AI14" t="n">
         <v>60</v>
       </c>
-      <c r="AI14" t="n">
-        <v>200</v>
-      </c>
       <c r="AJ14" t="n">
-        <v>340</v>
+        <v>55</v>
       </c>
       <c r="AK14" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AL14" t="n">
-        <v>370</v>
+        <v>65</v>
       </c>
       <c r="AM14" t="n">
         <v>580</v>
       </c>
       <c r="AN14" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AO14" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
@@ -2422,13 +2422,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="G15" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H15" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I15" t="n">
         <v>5.4</v>
@@ -2437,46 +2437,46 @@
         <v>3.8</v>
       </c>
       <c r="K15" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L15" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="O15" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P15" t="n">
-        <v>2.26</v>
+        <v>2.38</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R15" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="S15" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="T15" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="U15" t="n">
         <v>2.42</v>
       </c>
       <c r="V15" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W15" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="X15" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="Y15" t="n">
         <v>980</v>
@@ -2491,7 +2491,7 @@
         <v>980</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.6</v>
+        <v>42</v>
       </c>
       <c r="AD15" t="n">
         <v>980</v>
@@ -2503,10 +2503,10 @@
         <v>980</v>
       </c>
       <c r="AG15" t="n">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AH15" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AI15" t="n">
         <v>130</v>
@@ -2515,7 +2515,7 @@
         <v>980</v>
       </c>
       <c r="AK15" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AL15" t="n">
         <v>980</v>
@@ -2560,46 +2560,46 @@
         <v>1.5</v>
       </c>
       <c r="G16" t="n">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="H16" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="I16" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="J16" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K16" t="n">
         <v>5.2</v>
       </c>
       <c r="L16" t="n">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O16" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P16" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="R16" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S16" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="T16" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="U16" t="n">
         <v>1.89</v>
@@ -2608,22 +2608,22 @@
         <v>1.14</v>
       </c>
       <c r="W16" t="n">
-        <v>2.84</v>
+        <v>2.96</v>
       </c>
       <c r="X16" t="n">
         <v>18</v>
       </c>
       <c r="Y16" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="Z16" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AA16" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="AB16" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC16" t="n">
         <v>11</v>
@@ -2635,7 +2635,7 @@
         <v>120</v>
       </c>
       <c r="AF16" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AG16" t="n">
         <v>9.800000000000001</v>
@@ -2647,10 +2647,10 @@
         <v>110</v>
       </c>
       <c r="AJ16" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AK16" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL16" t="n">
         <v>38</v>
@@ -2659,10 +2659,10 @@
         <v>160</v>
       </c>
       <c r="AN16" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AO16" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17">
@@ -2692,52 +2692,52 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G17" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="H17" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I17" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J17" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K17" t="n">
         <v>3.55</v>
       </c>
       <c r="L17" t="n">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="M17" t="n">
         <v>1.09</v>
       </c>
       <c r="N17" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="O17" t="n">
         <v>1.41</v>
       </c>
       <c r="P17" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.99</v>
+        <v>2.22</v>
       </c>
       <c r="R17" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S17" t="n">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="T17" t="n">
         <v>1.9</v>
       </c>
       <c r="U17" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V17" t="n">
         <v>1.37</v>
@@ -2764,19 +2764,19 @@
         <v>12.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AE17" t="n">
         <v>980</v>
       </c>
       <c r="AF17" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AG17" t="n">
         <v>18</v>
       </c>
       <c r="AH17" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AI17" t="n">
         <v>170</v>
@@ -2827,67 +2827,67 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="G18" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="H18" t="n">
         <v>3.25</v>
       </c>
       <c r="I18" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K18" t="n">
         <v>3.25</v>
       </c>
       <c r="L18" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N18" t="n">
-        <v>2.68</v>
+        <v>2.78</v>
       </c>
       <c r="O18" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="P18" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.46</v>
+        <v>2.58</v>
       </c>
       <c r="R18" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="S18" t="n">
-        <v>2.48</v>
+        <v>5.2</v>
       </c>
       <c r="T18" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U18" t="n">
         <v>1.84</v>
       </c>
-      <c r="U18" t="n">
-        <v>1.85</v>
-      </c>
       <c r="V18" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="W18" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="X18" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y18" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z18" t="n">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="AA18" t="n">
         <v>1000</v>
@@ -2896,16 +2896,16 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>15.5</v>
+        <v>44</v>
       </c>
       <c r="AE18" t="n">
-        <v>230</v>
+        <v>130</v>
       </c>
       <c r="AF18" t="n">
-        <v>15.5</v>
+        <v>46</v>
       </c>
       <c r="AG18" t="n">
         <v>12.5</v>
@@ -2914,10 +2914,10 @@
         <v>65</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AJ18" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="AK18" t="n">
         <v>170</v>
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G19" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H19" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="I19" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="J19" t="n">
         <v>3.4</v>
@@ -2986,7 +2986,7 @@
         <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="O19" t="n">
         <v>1.34</v>
@@ -2995,10 +2995,10 @@
         <v>1.9</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R19" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="S19" t="n">
         <v>3.55</v>
@@ -3013,7 +3013,7 @@
         <v>1.6</v>
       </c>
       <c r="W19" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="X19" t="n">
         <v>14</v>
@@ -3022,7 +3022,7 @@
         <v>10.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="AA19" t="n">
         <v>980</v>
@@ -3046,16 +3046,16 @@
         <v>14</v>
       </c>
       <c r="AH19" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="AI19" t="n">
         <v>980</v>
       </c>
       <c r="AJ19" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="AK19" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AL19" t="n">
         <v>980</v>
@@ -3064,7 +3064,7 @@
         <v>580</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3097,55 +3097,55 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="G20" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H20" t="n">
         <v>2.02</v>
       </c>
       <c r="I20" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="J20" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K20" t="n">
         <v>3.65</v>
       </c>
       <c r="L20" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M20" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N20" t="n">
-        <v>2.8</v>
+        <v>3.35</v>
       </c>
       <c r="O20" t="n">
         <v>1.39</v>
       </c>
       <c r="P20" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="R20" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S20" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="T20" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U20" t="n">
         <v>2</v>
       </c>
       <c r="V20" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="W20" t="n">
         <v>1.29</v>
@@ -3232,31 +3232,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="G21" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="H21" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J21" t="n">
         <v>3.25</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3.2</v>
       </c>
       <c r="K21" t="n">
         <v>3.3</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M21" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N21" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="O21" t="n">
         <v>1.37</v>
@@ -3265,79 +3265,79 @@
         <v>1.84</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.92</v>
+        <v>2.16</v>
       </c>
       <c r="R21" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S21" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T21" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U21" t="n">
         <v>2.1</v>
       </c>
       <c r="V21" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="W21" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="X21" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Y21" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Z21" t="n">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB21" t="n">
-        <v>18.5</v>
+        <v>11</v>
       </c>
       <c r="AC21" t="n">
         <v>7.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="AE21" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF21" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG21" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AH21" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AK21" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL21" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AM21" t="n">
-        <v>580</v>
+        <v>110</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22">
@@ -3367,46 +3367,46 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G22" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H22" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="I22" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="J22" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K22" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L22" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M22" t="n">
         <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="O22" t="n">
         <v>1.39</v>
       </c>
       <c r="P22" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="R22" t="n">
         <v>1.28</v>
       </c>
       <c r="S22" t="n">
-        <v>3.45</v>
+        <v>4</v>
       </c>
       <c r="T22" t="n">
         <v>1.83</v>
@@ -3415,22 +3415,22 @@
         <v>1.96</v>
       </c>
       <c r="V22" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="W22" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X22" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y22" t="n">
         <v>9.4</v>
       </c>
       <c r="Z22" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AA22" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="AB22" t="n">
         <v>12.5</v>
@@ -3442,7 +3442,7 @@
         <v>12</v>
       </c>
       <c r="AE22" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="AF22" t="n">
         <v>26</v>
@@ -3457,7 +3457,7 @@
         <v>48</v>
       </c>
       <c r="AJ22" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="AK22" t="n">
         <v>250</v>
@@ -3472,7 +3472,7 @@
         <v>55</v>
       </c>
       <c r="AO22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
@@ -3502,109 +3502,109 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.71</v>
+        <v>1.81</v>
       </c>
       <c r="G23" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="H23" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I23" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K23" t="n">
         <v>4.3</v>
       </c>
-      <c r="I23" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K23" t="n">
-        <v>5.5</v>
-      </c>
       <c r="L23" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M23" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O23" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="P23" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="R23" t="n">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="S23" t="n">
-        <v>2.78</v>
+        <v>3.1</v>
       </c>
       <c r="T23" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="U23" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="V23" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W23" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="X23" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AA23" t="n">
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>42</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD23" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE23" t="n">
         <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG23" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH23" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI23" t="n">
         <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AK23" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL23" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AM23" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN23" t="n">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3637,112 +3637,112 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.14</v>
+        <v>2.36</v>
       </c>
       <c r="G24" t="n">
-        <v>2.86</v>
+        <v>2.62</v>
       </c>
       <c r="H24" t="n">
-        <v>2.7</v>
+        <v>2.92</v>
       </c>
       <c r="I24" t="n">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="J24" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K24" t="n">
         <v>3.85</v>
       </c>
       <c r="L24" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M24" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="O24" t="n">
         <v>1.25</v>
       </c>
       <c r="P24" t="n">
-        <v>1.25</v>
+        <v>2.14</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.25</v>
+        <v>1.79</v>
       </c>
       <c r="R24" t="n">
-        <v>1.32</v>
+        <v>1.45</v>
       </c>
       <c r="S24" t="n">
-        <v>2.1</v>
+        <v>2.96</v>
       </c>
       <c r="T24" t="n">
-        <v>1.03</v>
+        <v>1.64</v>
       </c>
       <c r="U24" t="n">
-        <v>1.03</v>
+        <v>2.28</v>
       </c>
       <c r="V24" t="n">
-        <v>1.34</v>
+        <v>1.45</v>
       </c>
       <c r="W24" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Y24" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z24" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AB24" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC24" t="n">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AF24" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AI24" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK24" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AM24" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
@@ -3772,16 +3772,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="G25" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="H25" t="n">
         <v>2.84</v>
       </c>
       <c r="I25" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="J25" t="n">
         <v>3.45</v>
@@ -3790,34 +3790,34 @@
         <v>3.5</v>
       </c>
       <c r="L25" t="n">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="M25" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N25" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="O25" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P25" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="R25" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="S25" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="T25" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="U25" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="V25" t="n">
         <v>1.53</v>
@@ -3826,19 +3826,19 @@
         <v>1.56</v>
       </c>
       <c r="X25" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z25" t="n">
         <v>18.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AB25" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC25" t="n">
         <v>7.6</v>
@@ -3850,34 +3850,34 @@
         <v>30</v>
       </c>
       <c r="AF25" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG25" t="n">
         <v>12</v>
       </c>
       <c r="AH25" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AJ25" t="n">
         <v>40</v>
       </c>
       <c r="AK25" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL25" t="n">
         <v>40</v>
       </c>
       <c r="AM25" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN25" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AO25" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26">
@@ -3907,10 +3907,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="G26" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="H26" t="n">
         <v>6.2</v>
@@ -3919,64 +3919,64 @@
         <v>6.8</v>
       </c>
       <c r="J26" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="K26" t="n">
         <v>4.1</v>
       </c>
       <c r="L26" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M26" t="n">
         <v>1.09</v>
       </c>
       <c r="N26" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O26" t="n">
         <v>1.44</v>
       </c>
       <c r="P26" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R26" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S26" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="T26" t="n">
         <v>2.18</v>
       </c>
       <c r="U26" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="V26" t="n">
         <v>1.17</v>
       </c>
       <c r="W26" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="X26" t="n">
         <v>11.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z26" t="n">
         <v>55</v>
       </c>
       <c r="AA26" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AB26" t="n">
         <v>6.8</v>
       </c>
       <c r="AC26" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AD26" t="n">
         <v>28</v>
@@ -3991,16 +3991,16 @@
         <v>10.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AI26" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AJ26" t="n">
         <v>17</v>
       </c>
       <c r="AK26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL26" t="n">
         <v>55</v>
@@ -4009,7 +4009,7 @@
         <v>580</v>
       </c>
       <c r="AN26" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AO26" t="n">
         <v>1000</v>
@@ -4042,16 +4042,16 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="H27" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="I27" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="J27" t="n">
         <v>3.6</v>
@@ -4060,22 +4060,22 @@
         <v>3.7</v>
       </c>
       <c r="L27" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M27" t="n">
         <v>1.06</v>
       </c>
       <c r="N27" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O27" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P27" t="n">
         <v>2.1</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="R27" t="n">
         <v>1.43</v>
@@ -4084,13 +4084,13 @@
         <v>3.15</v>
       </c>
       <c r="T27" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U27" t="n">
         <v>2.34</v>
       </c>
       <c r="V27" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="W27" t="n">
         <v>1.5</v>
@@ -4108,7 +4108,7 @@
         <v>36</v>
       </c>
       <c r="AB27" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC27" t="n">
         <v>8.199999999999999</v>
@@ -4123,16 +4123,16 @@
         <v>21</v>
       </c>
       <c r="AG27" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH27" t="n">
         <v>16.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ27" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AK27" t="n">
         <v>32</v>
@@ -4141,13 +4141,13 @@
         <v>40</v>
       </c>
       <c r="AM27" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="AN27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO27" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="28">
@@ -4177,100 +4177,100 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="G28" t="n">
         <v>2.06</v>
       </c>
       <c r="H28" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I28" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="J28" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="K28" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L28" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M28" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N28" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="O28" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="P28" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="R28" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="S28" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="T28" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="U28" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="V28" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="W28" t="n">
         <v>1.94</v>
       </c>
       <c r="X28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y28" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Z28" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="AA28" t="n">
-        <v>130</v>
+        <v>330</v>
       </c>
       <c r="AB28" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>1000</v>
+        <v>470</v>
       </c>
       <c r="AF28" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG28" t="n">
         <v>11</v>
       </c>
       <c r="AH28" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI28" t="n">
         <v>370</v>
       </c>
       <c r="AJ28" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AK28" t="n">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="AL28" t="n">
         <v>120</v>
@@ -4279,10 +4279,10 @@
         <v>580</v>
       </c>
       <c r="AN28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO28" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-28.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="G2" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="H2" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I2" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J2" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="K2" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L2" t="n">
         <v>1.34</v>
@@ -694,82 +694,82 @@
         <v>4.4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="P2" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="R2" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="S2" t="n">
-        <v>2.74</v>
+        <v>2.88</v>
       </c>
       <c r="T2" t="n">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="U2" t="n">
         <v>2.28</v>
       </c>
       <c r="V2" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W2" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="X2" t="n">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="Y2" t="n">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="Z2" t="n">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="AA2" t="n">
         <v>290</v>
       </c>
       <c r="AB2" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD2" t="n">
         <v>29</v>
       </c>
-      <c r="AC2" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>30</v>
-      </c>
       <c r="AE2" t="n">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AF2" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="AG2" t="n">
-        <v>9.4</v>
+        <v>17</v>
       </c>
       <c r="AH2" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="AI2" t="n">
-        <v>980</v>
+        <v>160</v>
       </c>
       <c r="AJ2" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="AK2" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AL2" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="AM2" t="n">
         <v>580</v>
       </c>
       <c r="AN2" t="n">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="AO2" t="n">
         <v>980</v>
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="G3" t="n">
-        <v>2.86</v>
+        <v>2.56</v>
       </c>
       <c r="H3" t="n">
-        <v>2.6</v>
+        <v>2.76</v>
       </c>
       <c r="I3" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="K3" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>4.4</v>
+        <v>6.2</v>
       </c>
       <c r="O3" t="n">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="P3" t="n">
-        <v>2.2</v>
+        <v>2.72</v>
       </c>
       <c r="Q3" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="W3" t="n">
         <v>1.64</v>
       </c>
-      <c r="R3" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.53</v>
-      </c>
       <c r="X3" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>220</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF3" t="n">
         <v>22</v>
       </c>
-      <c r="Y3" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>100</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>21</v>
-      </c>
       <c r="AG3" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO3" t="n">
         <v>16</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>120</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>18</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="G4" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="I4" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="J4" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="K4" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.74</v>
+        <v>2.64</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>7.6</v>
       </c>
       <c r="G5" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="H5" t="n">
         <v>1.59</v>
@@ -1084,40 +1084,40 @@
         <v>1.6</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K5" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M5" t="n">
         <v>1.09</v>
       </c>
       <c r="N5" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="O5" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P5" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="R5" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S5" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="T5" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="U5" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="V5" t="n">
         <v>2.66</v>
@@ -1126,28 +1126,28 @@
         <v>1.14</v>
       </c>
       <c r="X5" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y5" t="n">
         <v>6.2</v>
       </c>
       <c r="Z5" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AA5" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD5" t="n">
         <v>10</v>
       </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF5" t="n">
         <v>70</v>
@@ -1162,22 +1162,22 @@
         <v>55</v>
       </c>
       <c r="AJ5" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AK5" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AL5" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AM5" t="n">
         <v>230</v>
       </c>
       <c r="AN5" t="n">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="AO5" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -1210,22 +1210,22 @@
         <v>2.36</v>
       </c>
       <c r="G6" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I6" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J6" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K6" t="n">
         <v>3.65</v>
       </c>
       <c r="L6" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
@@ -1243,76 +1243,76 @@
         <v>1.77</v>
       </c>
       <c r="R6" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S6" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="T6" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="U6" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V6" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="W6" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="X6" t="n">
-        <v>34</v>
+        <v>17.5</v>
       </c>
       <c r="Y6" t="n">
         <v>15.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AA6" t="n">
-        <v>300</v>
+        <v>55</v>
       </c>
       <c r="AB6" t="n">
         <v>13</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE6" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AF6" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AG6" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AJ6" t="n">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="AK6" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AL6" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="AM6" t="n">
-        <v>580</v>
+        <v>75</v>
       </c>
       <c r="AN6" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AO6" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="G7" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="H7" t="n">
-        <v>7.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>8</v>
+        <v>9.4</v>
       </c>
       <c r="J7" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="K7" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="L7" t="n">
         <v>1.26</v>
@@ -1366,43 +1366,43 @@
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P7" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="Q7" t="n">
         <v>1.49</v>
       </c>
       <c r="R7" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S7" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="T7" t="n">
-        <v>1.68</v>
+        <v>1.77</v>
       </c>
       <c r="U7" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="V7" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="W7" t="n">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="X7" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y7" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="Z7" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AA7" t="n">
         <v>980</v>
@@ -1411,43 +1411,43 @@
         <v>13</v>
       </c>
       <c r="AC7" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AD7" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AE7" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AF7" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG7" t="n">
         <v>10</v>
       </c>
       <c r="AH7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI7" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AJ7" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AL7" t="n">
         <v>26</v>
       </c>
       <c r="AM7" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="AO7" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.26</v>
+        <v>2.38</v>
       </c>
       <c r="G8" t="n">
-        <v>2.34</v>
+        <v>2.44</v>
       </c>
       <c r="H8" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="I8" t="n">
-        <v>3.95</v>
+        <v>3.65</v>
       </c>
       <c r="J8" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K8" t="n">
         <v>3.3</v>
@@ -1498,7 +1498,7 @@
         <v>1.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
         <v>3.2</v>
@@ -1510,79 +1510,79 @@
         <v>1.72</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="R8" t="n">
         <v>1.26</v>
       </c>
       <c r="S8" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T8" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="U8" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V8" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="W8" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="X8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y8" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="AA8" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="AB8" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC8" t="n">
         <v>7.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AE8" t="n">
-        <v>240</v>
+        <v>48</v>
       </c>
       <c r="AF8" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG8" t="n">
         <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>350</v>
+        <v>70</v>
       </c>
       <c r="AJ8" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AK8" t="n">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="AL8" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AM8" t="n">
         <v>580</v>
       </c>
       <c r="AN8" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AO8" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -1612,40 +1612,40 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G9" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="H9" t="n">
         <v>4.1</v>
       </c>
       <c r="I9" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J9" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
         <v>3.45</v>
       </c>
       <c r="L9" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M9" t="n">
         <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O9" t="n">
         <v>1.4</v>
       </c>
       <c r="P9" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R9" t="n">
         <v>1.3</v>
@@ -1657,13 +1657,13 @@
         <v>1.92</v>
       </c>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V9" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W9" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="X9" t="n">
         <v>12</v>
@@ -1672,28 +1672,28 @@
         <v>14</v>
       </c>
       <c r="Z9" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="AA9" t="n">
-        <v>290</v>
+        <v>95</v>
       </c>
       <c r="AB9" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="AF9" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH9" t="n">
         <v>21</v>
@@ -1702,22 +1702,22 @@
         <v>190</v>
       </c>
       <c r="AJ9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL9" t="n">
-        <v>200</v>
+        <v>44</v>
       </c>
       <c r="AM9" t="n">
-        <v>580</v>
+        <v>130</v>
       </c>
       <c r="AN9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO9" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="G10" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="H10" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J10" t="n">
         <v>3.15</v>
       </c>
       <c r="K10" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L10" t="n">
         <v>1.54</v>
@@ -1771,13 +1771,13 @@
         <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="O10" t="n">
         <v>1.49</v>
       </c>
       <c r="P10" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q10" t="n">
         <v>2.5</v>
@@ -1786,43 +1786,43 @@
         <v>1.23</v>
       </c>
       <c r="S10" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="T10" t="n">
         <v>2.04</v>
       </c>
       <c r="U10" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="V10" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W10" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="X10" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="Y10" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z10" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB10" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AC10" t="n">
         <v>7.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="AE10" t="n">
-        <v>250</v>
+        <v>55</v>
       </c>
       <c r="AF10" t="n">
         <v>13.5</v>
@@ -1834,25 +1834,25 @@
         <v>22</v>
       </c>
       <c r="AI10" t="n">
-        <v>350</v>
+        <v>170</v>
       </c>
       <c r="AJ10" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AK10" t="n">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="AL10" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AM10" t="n">
         <v>580</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
@@ -1882,19 +1882,19 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="G11" t="n">
         <v>4.9</v>
       </c>
-      <c r="G11" t="n">
-        <v>5</v>
-      </c>
       <c r="H11" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="I11" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K11" t="n">
         <v>3.5</v>
@@ -1909,13 +1909,13 @@
         <v>3.1</v>
       </c>
       <c r="O11" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P11" t="n">
         <v>1.7</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="R11" t="n">
         <v>1.26</v>
@@ -1924,70 +1924,70 @@
         <v>4.5</v>
       </c>
       <c r="T11" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V11" t="n">
         <v>2</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2.02</v>
       </c>
       <c r="W11" t="n">
         <v>1.25</v>
       </c>
       <c r="X11" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Z11" t="n">
         <v>11</v>
       </c>
-      <c r="Y11" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AA11" t="n">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="AB11" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC11" t="n">
         <v>7.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="AF11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI11" t="n">
         <v>110</v>
       </c>
-      <c r="AG11" t="n">
-        <v>50</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>38</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>190</v>
-      </c>
       <c r="AJ11" t="n">
-        <v>340</v>
+        <v>120</v>
       </c>
       <c r="AK11" t="n">
-        <v>440</v>
+        <v>75</v>
       </c>
       <c r="AL11" t="n">
-        <v>350</v>
+        <v>90</v>
       </c>
       <c r="AM11" t="n">
-        <v>580</v>
+        <v>450</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AO11" t="n">
-        <v>55</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="12">
@@ -2020,7 +2020,7 @@
         <v>2.48</v>
       </c>
       <c r="G12" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="H12" t="n">
         <v>3.5</v>
@@ -2035,31 +2035,31 @@
         <v>3.1</v>
       </c>
       <c r="L12" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="M12" t="n">
         <v>1.12</v>
       </c>
       <c r="N12" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="O12" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="P12" t="n">
         <v>1.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="R12" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S12" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="T12" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="U12" t="n">
         <v>1.87</v>
@@ -2071,13 +2071,13 @@
         <v>1.64</v>
       </c>
       <c r="X12" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y12" t="n">
         <v>10.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AA12" t="n">
         <v>75</v>
@@ -2086,13 +2086,13 @@
         <v>8</v>
       </c>
       <c r="AC12" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD12" t="n">
         <v>15.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AF12" t="n">
         <v>14</v>
@@ -2101,10 +2101,10 @@
         <v>12</v>
       </c>
       <c r="AH12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI12" t="n">
-        <v>190</v>
+        <v>75</v>
       </c>
       <c r="AJ12" t="n">
         <v>36</v>
@@ -2116,10 +2116,10 @@
         <v>60</v>
       </c>
       <c r="AM12" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AN12" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AO12" t="n">
         <v>70</v>
@@ -2152,112 +2152,112 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.05</v>
+        <v>2.74</v>
       </c>
       <c r="G13" t="n">
-        <v>3.2</v>
+        <v>2.86</v>
       </c>
       <c r="H13" t="n">
-        <v>2.6</v>
+        <v>2.92</v>
       </c>
       <c r="I13" t="n">
-        <v>2.62</v>
+        <v>2.96</v>
       </c>
       <c r="J13" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K13" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="L13" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S13" t="n">
+        <v>6</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="V13" t="n">
         <v>1.51</v>
       </c>
-      <c r="M13" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N13" t="n">
-        <v>3</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S13" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.61</v>
-      </c>
       <c r="W13" t="n">
-        <v>1.45</v>
+        <v>1.54</v>
       </c>
       <c r="X13" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y13" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z13" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AA13" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AB13" t="n">
-        <v>20</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC13" t="n">
         <v>7.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="AE13" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AF13" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AI13" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>200</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO13" t="n">
         <v>980</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>980</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>36</v>
       </c>
     </row>
     <row r="14">
@@ -2287,28 +2287,28 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="G14" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H14" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="I14" t="n">
-        <v>2.76</v>
+        <v>2.68</v>
       </c>
       <c r="J14" t="n">
         <v>3.15</v>
       </c>
       <c r="K14" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L14" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="M14" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N14" t="n">
         <v>3.05</v>
@@ -2317,52 +2317,52 @@
         <v>1.46</v>
       </c>
       <c r="P14" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R14" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S14" t="n">
         <v>4.7</v>
       </c>
       <c r="T14" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="U14" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V14" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="W14" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="X14" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Y14" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z14" t="n">
         <v>16</v>
       </c>
       <c r="AA14" t="n">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="AB14" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC14" t="n">
         <v>7.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AF14" t="n">
         <v>19.5</v>
@@ -2374,10 +2374,10 @@
         <v>21</v>
       </c>
       <c r="AI14" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ14" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="AK14" t="n">
         <v>44</v>
@@ -2389,10 +2389,10 @@
         <v>580</v>
       </c>
       <c r="AN14" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="AO14" t="n">
-        <v>40</v>
+        <v>600</v>
       </c>
     </row>
     <row r="15">
@@ -2422,10 +2422,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="G15" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="H15" t="n">
         <v>4.9</v>
@@ -2434,49 +2434,49 @@
         <v>5.4</v>
       </c>
       <c r="J15" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="L15" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M15" t="n">
         <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O15" t="n">
         <v>1.21</v>
       </c>
       <c r="P15" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="R15" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S15" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="T15" t="n">
         <v>1.64</v>
       </c>
       <c r="U15" t="n">
-        <v>2.42</v>
+        <v>2.28</v>
       </c>
       <c r="V15" t="n">
         <v>1.23</v>
       </c>
       <c r="W15" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="X15" t="n">
-        <v>90</v>
+        <v>980</v>
       </c>
       <c r="Y15" t="n">
         <v>980</v>
@@ -2488,10 +2488,10 @@
         <v>130</v>
       </c>
       <c r="AB15" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AC15" t="n">
-        <v>42</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD15" t="n">
         <v>980</v>
@@ -2500,10 +2500,10 @@
         <v>130</v>
       </c>
       <c r="AF15" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH15" t="n">
         <v>34</v>
@@ -2557,49 +2557,49 @@
         </is>
       </c>
       <c r="F16" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="G16" t="n">
         <v>1.5</v>
       </c>
-      <c r="G16" t="n">
-        <v>1.51</v>
-      </c>
       <c r="H16" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="I16" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="J16" t="n">
         <v>4.8</v>
       </c>
       <c r="K16" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L16" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O16" t="n">
         <v>1.28</v>
       </c>
       <c r="P16" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="R16" t="n">
         <v>1.41</v>
       </c>
       <c r="S16" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T16" t="n">
-        <v>1.83</v>
+        <v>2.04</v>
       </c>
       <c r="U16" t="n">
         <v>1.89</v>
@@ -2608,19 +2608,19 @@
         <v>1.14</v>
       </c>
       <c r="W16" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="X16" t="n">
         <v>18</v>
       </c>
       <c r="Y16" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
         <v>70</v>
       </c>
       <c r="AA16" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AB16" t="n">
         <v>8.4</v>
@@ -2629,10 +2629,10 @@
         <v>11</v>
       </c>
       <c r="AD16" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE16" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AF16" t="n">
         <v>8.6</v>
@@ -2644,7 +2644,7 @@
         <v>26</v>
       </c>
       <c r="AI16" t="n">
-        <v>110</v>
+        <v>360</v>
       </c>
       <c r="AJ16" t="n">
         <v>14</v>
@@ -2659,10 +2659,10 @@
         <v>160</v>
       </c>
       <c r="AN16" t="n">
-        <v>7.8</v>
+        <v>12.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17">
@@ -2692,13 +2692,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G17" t="n">
         <v>2.38</v>
       </c>
       <c r="H17" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I17" t="n">
         <v>3.7</v>
@@ -2716,7 +2716,7 @@
         <v>1.09</v>
       </c>
       <c r="N17" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O17" t="n">
         <v>1.41</v>
@@ -2725,16 +2725,16 @@
         <v>1.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="R17" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S17" t="n">
         <v>4.2</v>
       </c>
       <c r="T17" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U17" t="n">
         <v>1.96</v>
@@ -2743,16 +2743,16 @@
         <v>1.37</v>
       </c>
       <c r="W17" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="X17" t="n">
         <v>21</v>
       </c>
       <c r="Y17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z17" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AA17" t="n">
         <v>300</v>
@@ -2764,16 +2764,16 @@
         <v>12.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AE17" t="n">
         <v>980</v>
       </c>
       <c r="AF17" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AH17" t="n">
         <v>980</v>
@@ -2827,19 +2827,19 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="G18" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="H18" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I18" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J18" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K18" t="n">
         <v>3.25</v>
@@ -2857,16 +2857,16 @@
         <v>1.51</v>
       </c>
       <c r="P18" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="R18" t="n">
         <v>1.21</v>
       </c>
       <c r="S18" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="T18" t="n">
         <v>2.04</v>
@@ -2899,28 +2899,28 @@
         <v>7.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>44</v>
+        <v>15.5</v>
       </c>
       <c r="AE18" t="n">
         <v>130</v>
       </c>
       <c r="AF18" t="n">
-        <v>46</v>
+        <v>15.5</v>
       </c>
       <c r="AG18" t="n">
         <v>12.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AI18" t="n">
         <v>330</v>
       </c>
       <c r="AJ18" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="AK18" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
         <v>420</v>
@@ -2965,7 +2965,7 @@
         <v>3.05</v>
       </c>
       <c r="G19" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H19" t="n">
         <v>2.54</v>
@@ -2983,7 +2983,7 @@
         <v>1.42</v>
       </c>
       <c r="M19" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N19" t="n">
         <v>3.75</v>
@@ -2995,7 +2995,7 @@
         <v>1.9</v>
       </c>
       <c r="Q19" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="R19" t="n">
         <v>1.35</v>
@@ -3013,19 +3013,19 @@
         <v>1.6</v>
       </c>
       <c r="W19" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="X19" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y19" t="n">
         <v>10.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="AA19" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AB19" t="n">
         <v>12</v>
@@ -3046,25 +3046,25 @@
         <v>14</v>
       </c>
       <c r="AH19" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AI19" t="n">
         <v>980</v>
       </c>
       <c r="AJ19" t="n">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="AK19" t="n">
         <v>980</v>
       </c>
       <c r="AL19" t="n">
-        <v>980</v>
+        <v>150</v>
       </c>
       <c r="AM19" t="n">
         <v>580</v>
       </c>
       <c r="AN19" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3097,13 +3097,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="G20" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="H20" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="I20" t="n">
         <v>2.12</v>
@@ -3121,16 +3121,16 @@
         <v>1.09</v>
       </c>
       <c r="N20" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O20" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P20" t="n">
         <v>1.76</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R20" t="n">
         <v>1.28</v>
@@ -3148,28 +3148,28 @@
         <v>1.89</v>
       </c>
       <c r="W20" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X20" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Y20" t="n">
-        <v>17.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z20" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AA20" t="n">
         <v>980</v>
       </c>
       <c r="AB20" t="n">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="AC20" t="n">
         <v>14</v>
       </c>
       <c r="AD20" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="AE20" t="n">
         <v>980</v>
@@ -3193,7 +3193,7 @@
         <v>300</v>
       </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AM20" t="n">
         <v>580</v>
@@ -3232,28 +3232,28 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="G21" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="H21" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I21" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J21" t="n">
         <v>3.3</v>
       </c>
-      <c r="J21" t="n">
-        <v>3.25</v>
-      </c>
       <c r="K21" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L21" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M21" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N21" t="n">
         <v>3.4</v>
@@ -3265,31 +3265,31 @@
         <v>1.84</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R21" t="n">
         <v>1.3</v>
       </c>
       <c r="S21" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="T21" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U21" t="n">
         <v>2.1</v>
       </c>
       <c r="V21" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="W21" t="n">
         <v>1.6</v>
       </c>
       <c r="X21" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z21" t="n">
         <v>21</v>
@@ -3298,19 +3298,19 @@
         <v>55</v>
       </c>
       <c r="AB21" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC21" t="n">
         <v>7.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE21" t="n">
         <v>38</v>
       </c>
       <c r="AF21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG21" t="n">
         <v>12</v>
@@ -3319,25 +3319,25 @@
         <v>18.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AJ21" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AK21" t="n">
         <v>30</v>
       </c>
       <c r="AL21" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="AM21" t="n">
         <v>110</v>
       </c>
       <c r="AN21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO21" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22">
@@ -3373,70 +3373,70 @@
         <v>3.6</v>
       </c>
       <c r="H22" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="I22" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="J22" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K22" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L22" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M22" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N22" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="O22" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P22" t="n">
         <v>1.76</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R22" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S22" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="T22" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="U22" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="V22" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="W22" t="n">
         <v>1.38</v>
       </c>
       <c r="X22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB22" t="n">
         <v>12</v>
       </c>
-      <c r="Y22" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AC22" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD22" t="n">
         <v>12</v>
@@ -3454,13 +3454,13 @@
         <v>20</v>
       </c>
       <c r="AI22" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AK22" t="n">
-        <v>250</v>
+        <v>55</v>
       </c>
       <c r="AL22" t="n">
         <v>340</v>
@@ -3469,10 +3469,10 @@
         <v>580</v>
       </c>
       <c r="AN22" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AO22" t="n">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23">
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="G23" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="H23" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="I23" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J23" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K23" t="n">
         <v>4.3</v>
@@ -3523,7 +3523,7 @@
         <v>1.37</v>
       </c>
       <c r="M23" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N23" t="n">
         <v>4.3</v>
@@ -3532,34 +3532,34 @@
         <v>1.27</v>
       </c>
       <c r="P23" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="U23" t="n">
         <v>2.1</v>
       </c>
-      <c r="Q23" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="S23" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U23" t="n">
-        <v>2.06</v>
-      </c>
       <c r="V23" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W23" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="X23" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y23" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="Z23" t="n">
         <v>170</v>
@@ -3568,13 +3568,13 @@
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE23" t="n">
         <v>1000</v>
@@ -3592,19 +3592,19 @@
         <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK23" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AL23" t="n">
-        <v>170</v>
+        <v>36</v>
       </c>
       <c r="AM23" t="n">
         <v>580</v>
       </c>
       <c r="AN23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3637,82 +3637,82 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.36</v>
+        <v>2.46</v>
       </c>
       <c r="G24" t="n">
         <v>2.62</v>
       </c>
       <c r="H24" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="I24" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="J24" t="n">
         <v>3.5</v>
       </c>
       <c r="K24" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L24" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M24" t="n">
         <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O24" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P24" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="R24" t="n">
         <v>1.45</v>
       </c>
       <c r="S24" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="T24" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="U24" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="V24" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W24" t="n">
         <v>1.62</v>
       </c>
       <c r="X24" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA24" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="AB24" t="n">
         <v>13</v>
       </c>
       <c r="AC24" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD24" t="n">
         <v>14</v>
       </c>
       <c r="AE24" t="n">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="AF24" t="n">
         <v>18.5</v>
@@ -3721,16 +3721,16 @@
         <v>12.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI24" t="n">
         <v>150</v>
       </c>
       <c r="AJ24" t="n">
-        <v>120</v>
+        <v>900</v>
       </c>
       <c r="AK24" t="n">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="AL24" t="n">
         <v>230</v>
@@ -3739,7 +3739,7 @@
         <v>580</v>
       </c>
       <c r="AN24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -3772,61 +3772,61 @@
         </is>
       </c>
       <c r="F25" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="G25" t="n">
         <v>2.76</v>
       </c>
-      <c r="G25" t="n">
-        <v>2.78</v>
-      </c>
       <c r="H25" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="I25" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="J25" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K25" t="n">
         <v>3.45</v>
       </c>
-      <c r="K25" t="n">
-        <v>3.5</v>
-      </c>
       <c r="L25" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M25" t="n">
         <v>1.07</v>
       </c>
       <c r="N25" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="O25" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P25" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="Q25" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="R25" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="S25" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="T25" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="U25" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="V25" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="W25" t="n">
         <v>1.56</v>
       </c>
       <c r="X25" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y25" t="n">
         <v>11.5</v>
@@ -3838,46 +3838,46 @@
         <v>44</v>
       </c>
       <c r="AB25" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC25" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE25" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF25" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AG25" t="n">
         <v>12</v>
       </c>
       <c r="AH25" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI25" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ25" t="n">
         <v>42</v>
       </c>
-      <c r="AJ25" t="n">
-        <v>40</v>
-      </c>
       <c r="AK25" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL25" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AM25" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AN25" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AO25" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26">
@@ -3907,22 +3907,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="G26" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="H26" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="I26" t="n">
         <v>6.8</v>
       </c>
       <c r="J26" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K26" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L26" t="n">
         <v>1.49</v>
@@ -3931,10 +3931,10 @@
         <v>1.09</v>
       </c>
       <c r="N26" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O26" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="P26" t="n">
         <v>1.69</v>
@@ -3949,7 +3949,7 @@
         <v>4.4</v>
       </c>
       <c r="T26" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="U26" t="n">
         <v>1.74</v>
@@ -3958,7 +3958,7 @@
         <v>1.17</v>
       </c>
       <c r="W26" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="X26" t="n">
         <v>11.5</v>
@@ -3982,7 +3982,7 @@
         <v>28</v>
       </c>
       <c r="AE26" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AF26" t="n">
         <v>8.800000000000001</v>
@@ -3991,13 +3991,13 @@
         <v>10.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AI26" t="n">
-        <v>140</v>
+        <v>960</v>
       </c>
       <c r="AJ26" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AK26" t="n">
         <v>21</v>
@@ -4012,7 +4012,7 @@
         <v>14.5</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27">
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.88</v>
+        <v>2.98</v>
       </c>
       <c r="G27" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="H27" t="n">
         <v>2.54</v>
       </c>
       <c r="I27" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="J27" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K27" t="n">
         <v>3.6</v>
-      </c>
-      <c r="K27" t="n">
-        <v>3.7</v>
       </c>
       <c r="L27" t="n">
         <v>1.38</v>
@@ -4084,22 +4084,22 @@
         <v>3.15</v>
       </c>
       <c r="T27" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U27" t="n">
         <v>2.34</v>
       </c>
       <c r="V27" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="W27" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="X27" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z27" t="n">
         <v>17.5</v>
@@ -4108,16 +4108,16 @@
         <v>36</v>
       </c>
       <c r="AB27" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC27" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD27" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF27" t="n">
         <v>21</v>
@@ -4126,13 +4126,13 @@
         <v>13</v>
       </c>
       <c r="AH27" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI27" t="n">
         <v>36</v>
       </c>
       <c r="AJ27" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AK27" t="n">
         <v>32</v>
@@ -4144,7 +4144,7 @@
         <v>80</v>
       </c>
       <c r="AN27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO27" t="n">
         <v>19.5</v>
@@ -4180,61 +4180,61 @@
         <v>1.94</v>
       </c>
       <c r="G28" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="H28" t="n">
         <v>4.2</v>
       </c>
       <c r="I28" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="J28" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K28" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L28" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="M28" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N28" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="O28" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="P28" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Q28" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="R28" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="S28" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="T28" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U28" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W28" t="n">
         <v>1.98</v>
       </c>
-      <c r="V28" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="W28" t="n">
-        <v>1.94</v>
-      </c>
       <c r="X28" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="Z28" t="n">
         <v>160</v>
@@ -4243,34 +4243,34 @@
         <v>330</v>
       </c>
       <c r="AB28" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AE28" t="n">
         <v>470</v>
       </c>
       <c r="AF28" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AI28" t="n">
         <v>370</v>
       </c>
       <c r="AJ28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK28" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AL28" t="n">
         <v>120</v>
@@ -4279,10 +4279,10 @@
         <v>580</v>
       </c>
       <c r="AN28" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AO28" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO28"/>
+  <dimension ref="A1:AO27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Czech 2 Liga</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>09:35:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>Slavia Praha B</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Al-Arabi Al-Saudi</t>
+          <t>Usti Nad Labem</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.98</v>
+        <v>1.01</v>
       </c>
       <c r="G2" t="n">
-        <v>2.06</v>
+        <v>1.02</v>
       </c>
       <c r="H2" t="n">
+        <v>180</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J2" t="n">
+        <v>34</v>
+      </c>
+      <c r="K2" t="n">
+        <v>800</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="S2" t="n">
+        <v>14</v>
+      </c>
+      <c r="T2" t="n">
         <v>3.75</v>
       </c>
-      <c r="I2" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K2" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N2" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.66</v>
-      </c>
       <c r="U2" t="n">
-        <v>2.28</v>
+        <v>1.28</v>
       </c>
       <c r="V2" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.94</v>
+        <v>34</v>
       </c>
       <c r="X2" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>28</v>
+        <v>1.69</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="AH2" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="AK2" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Czech 2 Liga</t>
+          <t>Czech 1 Liga</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Slavia Praha B</t>
+          <t>Sparta Prague</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Usti Nad Labem</t>
+          <t>Bohemians 1905</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.36</v>
+        <v>1.36</v>
       </c>
       <c r="G3" t="n">
-        <v>2.56</v>
+        <v>1.38</v>
       </c>
       <c r="H3" t="n">
-        <v>2.76</v>
+        <v>9.4</v>
       </c>
       <c r="I3" t="n">
-        <v>3.1</v>
+        <v>10.5</v>
       </c>
       <c r="J3" t="n">
-        <v>3.75</v>
+        <v>5.9</v>
       </c>
       <c r="K3" t="n">
-        <v>4.3</v>
+        <v>6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.72</v>
+        <v>2.32</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.51</v>
+        <v>1.69</v>
       </c>
       <c r="R3" t="n">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>2.24</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Czech 1 Liga</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sparta Prague</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Bohemians 1905</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.33</v>
+        <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>1.36</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H4" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="X4" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD4" t="n">
         <v>10.5</v>
       </c>
-      <c r="I4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,126 +1058,126 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Sion</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>St Gallen</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>7.6</v>
+        <v>2.44</v>
       </c>
       <c r="G5" t="n">
-        <v>7.8</v>
+        <v>2.5</v>
       </c>
       <c r="H5" t="n">
-        <v>1.59</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>1.6</v>
+        <v>3.15</v>
       </c>
       <c r="J5" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="K5" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="L5" t="n">
-        <v>1.51</v>
+        <v>1.34</v>
       </c>
       <c r="M5" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>3.15</v>
+        <v>4.8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.44</v>
+        <v>1.24</v>
       </c>
       <c r="P5" t="n">
-        <v>1.73</v>
+        <v>2.24</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.34</v>
+        <v>1.76</v>
       </c>
       <c r="R5" t="n">
-        <v>1.27</v>
+        <v>1.49</v>
       </c>
       <c r="S5" t="n">
-        <v>4.6</v>
+        <v>2.92</v>
       </c>
       <c r="T5" t="n">
-        <v>2.38</v>
+        <v>1.61</v>
       </c>
       <c r="U5" t="n">
-        <v>1.7</v>
+        <v>2.44</v>
       </c>
       <c r="V5" t="n">
-        <v>2.66</v>
+        <v>1.47</v>
       </c>
       <c r="W5" t="n">
-        <v>1.14</v>
+        <v>1.66</v>
       </c>
       <c r="X5" t="n">
+        <v>90</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>300</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC5" t="n">
         <v>11.5</v>
       </c>
-      <c r="Y5" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>9</v>
-      </c>
       <c r="AD5" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE5" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="AF5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM5" t="n">
         <v>70</v>
       </c>
-      <c r="AG5" t="n">
-        <v>32</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI5" t="n">
+      <c r="AN5" t="n">
         <v>55</v>
       </c>
-      <c r="AJ5" t="n">
-        <v>280</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>160</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>160</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>230</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>310</v>
-      </c>
       <c r="AO5" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
@@ -1198,127 +1198,127 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sion</t>
+          <t>Thun</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>St Gallen</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.36</v>
+        <v>1.36</v>
       </c>
       <c r="G6" t="n">
-        <v>2.44</v>
+        <v>1.38</v>
       </c>
       <c r="H6" t="n">
-        <v>3.15</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>3.3</v>
+        <v>9.6</v>
       </c>
       <c r="J6" t="n">
+        <v>6</v>
+      </c>
+      <c r="K6" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N6" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="W6" t="n">
         <v>3.6</v>
       </c>
-      <c r="K6" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N6" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.69</v>
-      </c>
       <c r="X6" t="n">
-        <v>17.5</v>
+        <v>32</v>
       </c>
       <c r="Y6" t="n">
-        <v>15.5</v>
+        <v>46</v>
       </c>
       <c r="Z6" t="n">
-        <v>24</v>
+        <v>510</v>
       </c>
       <c r="AA6" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AB6" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.4</v>
+        <v>42</v>
       </c>
       <c r="AD6" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="AE6" t="n">
-        <v>34</v>
+        <v>460</v>
       </c>
       <c r="AF6" t="n">
-        <v>17</v>
+        <v>10.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AH6" t="n">
-        <v>15.5</v>
+        <v>23</v>
       </c>
       <c r="AI6" t="n">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="AJ6" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="AK6" t="n">
-        <v>23</v>
+        <v>13.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AM6" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AN6" t="n">
-        <v>17</v>
+        <v>5.3</v>
       </c>
       <c r="AO6" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,121 +1333,121 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Thun</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>AC Monza</t>
         </is>
       </c>
       <c r="F7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="V7" t="n">
         <v>1.38</v>
       </c>
-      <c r="G7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H7" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="I7" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="J7" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="K7" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N7" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.11</v>
-      </c>
       <c r="W7" t="n">
-        <v>3.5</v>
+        <v>1.64</v>
       </c>
       <c r="X7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK7" t="n">
         <v>32</v>
       </c>
-      <c r="Y7" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>90</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AL7" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="AM7" t="n">
-        <v>95</v>
+        <v>580</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.6</v>
+        <v>40</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8">
@@ -1468,121 +1468,121 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>AC Monza</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.38</v>
+        <v>2.06</v>
       </c>
       <c r="G8" t="n">
-        <v>2.44</v>
+        <v>2.1</v>
       </c>
       <c r="H8" t="n">
-        <v>3.55</v>
+        <v>4.3</v>
       </c>
       <c r="I8" t="n">
-        <v>3.65</v>
+        <v>4.6</v>
       </c>
       <c r="J8" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K8" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="L8" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N8" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="O8" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="P8" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="R8" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="S8" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="T8" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="U8" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="V8" t="n">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="W8" t="n">
-        <v>1.69</v>
+        <v>1.9</v>
       </c>
       <c r="X8" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>11.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="AA8" t="n">
-        <v>70</v>
+        <v>290</v>
       </c>
       <c r="AB8" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.4</v>
+        <v>10.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AE8" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AF8" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AG8" t="n">
         <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ8" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AK8" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AL8" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AM8" t="n">
-        <v>580</v>
+        <v>130</v>
       </c>
       <c r="AN8" t="n">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="AO8" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9">
@@ -1603,121 +1603,121 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="G9" t="n">
-        <v>2.16</v>
+        <v>2.32</v>
       </c>
       <c r="H9" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I9" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="K9" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="L9" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="M9" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="O9" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P9" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.2</v>
+        <v>2.36</v>
       </c>
       <c r="R9" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="S9" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="T9" t="n">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="U9" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="V9" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W9" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="X9" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y9" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AA9" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AB9" t="n">
-        <v>8.199999999999999</v>
+        <v>16.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AE9" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF9" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH9" t="n">
         <v>21</v>
       </c>
       <c r="AI9" t="n">
-        <v>190</v>
+        <v>75</v>
       </c>
       <c r="AJ9" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AK9" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AL9" t="n">
-        <v>44</v>
+        <v>200</v>
       </c>
       <c r="AM9" t="n">
-        <v>130</v>
+        <v>580</v>
       </c>
       <c r="AN9" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AO9" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1738,121 +1738,121 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Reggiana</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.34</v>
+        <v>4.8</v>
       </c>
       <c r="G10" t="n">
-        <v>2.4</v>
+        <v>5.1</v>
       </c>
       <c r="H10" t="n">
-        <v>3.7</v>
+        <v>1.96</v>
       </c>
       <c r="I10" t="n">
-        <v>3.9</v>
+        <v>1.98</v>
       </c>
       <c r="J10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N10" t="n">
         <v>3.15</v>
       </c>
-      <c r="K10" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2.98</v>
-      </c>
       <c r="O10" t="n">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
       <c r="P10" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.5</v>
+        <v>2.32</v>
       </c>
       <c r="R10" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="S10" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="T10" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U10" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V10" t="n">
-        <v>1.34</v>
+        <v>2.02</v>
       </c>
       <c r="W10" t="n">
-        <v>1.72</v>
+        <v>1.24</v>
       </c>
       <c r="X10" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="Y10" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Z10" t="n">
         <v>11</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AA10" t="n">
         <v>25</v>
       </c>
-      <c r="AA10" t="n">
-        <v>80</v>
-      </c>
       <c r="AB10" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AE10" t="n">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="AF10" t="n">
-        <v>13.5</v>
+        <v>85</v>
       </c>
       <c r="AG10" t="n">
-        <v>11.5</v>
+        <v>36</v>
       </c>
       <c r="AH10" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AI10" t="n">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="AJ10" t="n">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="AK10" t="n">
-        <v>30</v>
+        <v>440</v>
       </c>
       <c r="AL10" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="AM10" t="n">
         <v>580</v>
       </c>
       <c r="AN10" t="n">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="AO10" t="n">
-        <v>70</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Reggiana</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Modena</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4.6</v>
+        <v>2.44</v>
       </c>
       <c r="G11" t="n">
-        <v>4.9</v>
+        <v>2.5</v>
       </c>
       <c r="H11" t="n">
-        <v>1.98</v>
+        <v>3.65</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="J11" t="n">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="K11" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="L11" t="n">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="M11" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="N11" t="n">
-        <v>3.1</v>
+        <v>2.86</v>
       </c>
       <c r="O11" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="P11" t="n">
-        <v>1.7</v>
+        <v>1.59</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.34</v>
+        <v>2.62</v>
       </c>
       <c r="R11" t="n">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="S11" t="n">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
       <c r="T11" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="U11" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="V11" t="n">
-        <v>2</v>
+        <v>1.36</v>
       </c>
       <c r="W11" t="n">
-        <v>1.25</v>
+        <v>1.66</v>
       </c>
       <c r="X11" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.4</v>
+        <v>11</v>
       </c>
       <c r="Z11" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="AA11" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH11" t="n">
         <v>23</v>
       </c>
-      <c r="AB11" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF11" t="n">
+      <c r="AI11" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK11" t="n">
         <v>34</v>
       </c>
-      <c r="AG11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>120</v>
-      </c>
-      <c r="AK11" t="n">
+      <c r="AL11" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO11" t="n">
         <v>75</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>90</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>450</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>110</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>19.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,127 +2008,127 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.48</v>
+        <v>2.74</v>
       </c>
       <c r="G12" t="n">
-        <v>2.56</v>
+        <v>2.86</v>
       </c>
       <c r="H12" t="n">
-        <v>3.5</v>
+        <v>2.96</v>
       </c>
       <c r="I12" t="n">
-        <v>3.65</v>
+        <v>3.1</v>
       </c>
       <c r="J12" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="K12" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="L12" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="M12" t="n">
         <v>1.12</v>
       </c>
       <c r="N12" t="n">
-        <v>2.84</v>
+        <v>2.72</v>
       </c>
       <c r="O12" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="P12" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="R12" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="S12" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="T12" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="U12" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="V12" t="n">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="W12" t="n">
-        <v>1.64</v>
+        <v>1.54</v>
       </c>
       <c r="X12" t="n">
-        <v>9.199999999999999</v>
+        <v>14</v>
       </c>
       <c r="Y12" t="n">
-        <v>10.5</v>
+        <v>24</v>
       </c>
       <c r="Z12" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AA12" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="AE12" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF12" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AI12" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ12" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AK12" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AL12" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="AM12" t="n">
-        <v>160</v>
+        <v>450</v>
       </c>
       <c r="AN12" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,127 +2143,127 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Laval</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Calcio Avellino SSD</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.74</v>
+        <v>3.2</v>
       </c>
       <c r="G13" t="n">
-        <v>2.86</v>
+        <v>3.35</v>
       </c>
       <c r="H13" t="n">
-        <v>2.92</v>
+        <v>2.58</v>
       </c>
       <c r="I13" t="n">
-        <v>2.96</v>
+        <v>2.68</v>
       </c>
       <c r="J13" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K13" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="L13" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="M13" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N13" t="n">
-        <v>2.56</v>
+        <v>3.15</v>
       </c>
       <c r="O13" t="n">
-        <v>1.59</v>
+        <v>1.44</v>
       </c>
       <c r="P13" t="n">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.72</v>
+        <v>2.34</v>
       </c>
       <c r="R13" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="S13" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="T13" t="n">
-        <v>2.12</v>
+        <v>1.95</v>
       </c>
       <c r="U13" t="n">
-        <v>1.79</v>
+        <v>1.98</v>
       </c>
       <c r="V13" t="n">
-        <v>1.51</v>
+        <v>1.6</v>
       </c>
       <c r="W13" t="n">
-        <v>1.54</v>
+        <v>1.42</v>
       </c>
       <c r="X13" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.800000000000001</v>
+        <v>18</v>
       </c>
       <c r="Z13" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AA13" t="n">
+        <v>170</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE13" t="n">
         <v>980</v>
       </c>
-      <c r="AB13" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>46</v>
-      </c>
       <c r="AF13" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI13" t="n">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="AJ13" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AK13" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AL13" t="n">
-        <v>200</v>
+        <v>370</v>
       </c>
       <c r="AM13" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AO13" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>St Etienne</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Calcio Avellino SSD</t>
+          <t>Pau</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.2</v>
+        <v>1.71</v>
       </c>
       <c r="G14" t="n">
-        <v>3.3</v>
+        <v>1.76</v>
       </c>
       <c r="H14" t="n">
-        <v>2.62</v>
+        <v>5</v>
       </c>
       <c r="I14" t="n">
-        <v>2.68</v>
+        <v>5.5</v>
       </c>
       <c r="J14" t="n">
-        <v>3.15</v>
+        <v>4.2</v>
       </c>
       <c r="K14" t="n">
-        <v>3.2</v>
+        <v>4.4</v>
       </c>
       <c r="L14" t="n">
-        <v>1.53</v>
+        <v>1.3</v>
       </c>
       <c r="M14" t="n">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>3.05</v>
+        <v>5.7</v>
       </c>
       <c r="O14" t="n">
-        <v>1.46</v>
+        <v>1.19</v>
       </c>
       <c r="P14" t="n">
-        <v>1.68</v>
+        <v>2.56</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.42</v>
+        <v>1.6</v>
       </c>
       <c r="R14" t="n">
-        <v>1.25</v>
+        <v>1.62</v>
       </c>
       <c r="S14" t="n">
-        <v>4.7</v>
+        <v>2.48</v>
       </c>
       <c r="T14" t="n">
-        <v>1.98</v>
+        <v>1.57</v>
       </c>
       <c r="U14" t="n">
-        <v>1.93</v>
+        <v>2.44</v>
       </c>
       <c r="V14" t="n">
-        <v>1.59</v>
+        <v>1.22</v>
       </c>
       <c r="W14" t="n">
-        <v>1.43</v>
+        <v>2.3</v>
       </c>
       <c r="X14" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG14" t="n">
         <v>10</v>
       </c>
-      <c r="Y14" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>95</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>14</v>
-      </c>
       <c r="AH14" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AJ14" t="n">
-        <v>150</v>
+        <v>36</v>
       </c>
       <c r="AK14" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO14" t="n">
         <v>44</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>50</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>600</v>
       </c>
     </row>
     <row r="15">
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>St Etienne</t>
+          <t>ESTAC Troyes</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Pau</t>
+          <t>Amiens</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.74</v>
+        <v>1.47</v>
       </c>
       <c r="G15" t="n">
-        <v>1.79</v>
+        <v>1.49</v>
       </c>
       <c r="H15" t="n">
-        <v>4.9</v>
+        <v>7.4</v>
       </c>
       <c r="I15" t="n">
-        <v>5.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="K15" t="n">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
       <c r="L15" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>5.2</v>
+        <v>4.2</v>
       </c>
       <c r="O15" t="n">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="P15" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.66</v>
+        <v>1.84</v>
       </c>
       <c r="R15" t="n">
-        <v>1.56</v>
+        <v>1.43</v>
       </c>
       <c r="S15" t="n">
-        <v>2.62</v>
+        <v>3.2</v>
       </c>
       <c r="T15" t="n">
-        <v>1.64</v>
+        <v>1.03</v>
       </c>
       <c r="U15" t="n">
-        <v>2.28</v>
+        <v>1.89</v>
       </c>
       <c r="V15" t="n">
-        <v>1.23</v>
+        <v>1.13</v>
       </c>
       <c r="W15" t="n">
-        <v>2.26</v>
+        <v>3</v>
       </c>
       <c r="X15" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA15" t="n">
         <v>980</v>
       </c>
-      <c r="Y15" t="n">
-        <v>980</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>130</v>
-      </c>
       <c r="AB15" t="n">
-        <v>24</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AD15" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AE15" t="n">
         <v>130</v>
       </c>
       <c r="AF15" t="n">
-        <v>26</v>
+        <v>8.6</v>
       </c>
       <c r="AG15" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH15" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="AI15" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ15" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>70</v>
+        <v>17.5</v>
       </c>
       <c r="AL15" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN15" t="n">
         <v>29</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ESTAC Troyes</t>
+          <t>Rodez</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Amiens</t>
+          <t>Annecy</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.49</v>
+        <v>2.26</v>
       </c>
       <c r="G16" t="n">
-        <v>1.5</v>
+        <v>2.32</v>
       </c>
       <c r="H16" t="n">
-        <v>7.4</v>
+        <v>3.6</v>
       </c>
       <c r="I16" t="n">
-        <v>8.4</v>
+        <v>3.75</v>
       </c>
       <c r="J16" t="n">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="K16" t="n">
-        <v>5.1</v>
+        <v>3.55</v>
       </c>
       <c r="L16" t="n">
-        <v>1.37</v>
+        <v>1.48</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="N16" t="n">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="O16" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R16" t="n">
         <v>1.28</v>
       </c>
-      <c r="P16" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.41</v>
-      </c>
       <c r="S16" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="T16" t="n">
-        <v>2.04</v>
+        <v>1.03</v>
       </c>
       <c r="U16" t="n">
-        <v>1.89</v>
+        <v>1.82</v>
       </c>
       <c r="V16" t="n">
-        <v>1.14</v>
+        <v>1.36</v>
       </c>
       <c r="W16" t="n">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="X16" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="AA16" t="n">
-        <v>280</v>
+        <v>85</v>
       </c>
       <c r="AB16" t="n">
-        <v>8.4</v>
+        <v>19</v>
       </c>
       <c r="AC16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD16" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AE16" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AF16" t="n">
-        <v>8.6</v>
+        <v>13.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AI16" t="n">
-        <v>360</v>
+        <v>100</v>
       </c>
       <c r="AJ16" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="AK16" t="n">
-        <v>15.5</v>
+        <v>28</v>
       </c>
       <c r="AL16" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AM16" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="AN16" t="n">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="AO16" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17">
@@ -2683,118 +2683,118 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Rodez</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Annecy</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.28</v>
+        <v>2.6</v>
       </c>
       <c r="G17" t="n">
-        <v>2.38</v>
+        <v>2.66</v>
       </c>
       <c r="H17" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="J17" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="K17" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="L17" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="M17" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N17" t="n">
-        <v>3.25</v>
+        <v>2.84</v>
       </c>
       <c r="O17" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="P17" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.24</v>
+        <v>2.56</v>
       </c>
       <c r="R17" t="n">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="S17" t="n">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="T17" t="n">
-        <v>1.92</v>
+        <v>1.03</v>
       </c>
       <c r="U17" t="n">
-        <v>1.96</v>
+        <v>1.03</v>
       </c>
       <c r="V17" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="W17" t="n">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="X17" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>12.5</v>
+        <v>42</v>
       </c>
       <c r="AD17" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
         <v>1000</v>
@@ -2818,112 +2818,112 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Grenoble</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>Guingamp</t>
         </is>
       </c>
       <c r="F18" t="n">
+        <v>3</v>
+      </c>
+      <c r="G18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H18" t="n">
         <v>2.54</v>
       </c>
-      <c r="G18" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="H18" t="n">
-        <v>3.3</v>
-      </c>
       <c r="I18" t="n">
-        <v>3.5</v>
+        <v>2.64</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="K18" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="L18" t="n">
-        <v>1.56</v>
+        <v>1.42</v>
       </c>
       <c r="M18" t="n">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>2.78</v>
+        <v>3.75</v>
       </c>
       <c r="O18" t="n">
-        <v>1.51</v>
+        <v>1.32</v>
       </c>
       <c r="P18" t="n">
-        <v>1.58</v>
+        <v>1.92</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.62</v>
+        <v>2.02</v>
       </c>
       <c r="R18" t="n">
-        <v>1.21</v>
+        <v>1.36</v>
       </c>
       <c r="S18" t="n">
-        <v>5.3</v>
+        <v>3.55</v>
       </c>
       <c r="T18" t="n">
-        <v>2.04</v>
+        <v>1.7</v>
       </c>
       <c r="U18" t="n">
-        <v>1.84</v>
+        <v>2.24</v>
       </c>
       <c r="V18" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="W18" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="X18" t="n">
-        <v>9.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.800000000000001</v>
+        <v>980</v>
       </c>
       <c r="Z18" t="n">
-        <v>90</v>
+        <v>980</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB18" t="n">
-        <v>8.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.2</v>
+        <v>42</v>
       </c>
       <c r="AD18" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="AE18" t="n">
-        <v>130</v>
+        <v>980</v>
       </c>
       <c r="AF18" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="AG18" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AH18" t="n">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="AI18" t="n">
-        <v>330</v>
+        <v>980</v>
       </c>
       <c r="AJ18" t="n">
-        <v>220</v>
+        <v>980</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL18" t="n">
-        <v>420</v>
+        <v>980</v>
       </c>
       <c r="AM18" t="n">
         <v>580</v>
@@ -2953,88 +2953,88 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Grenoble</t>
+          <t>Boulogne</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Guingamp</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.05</v>
+        <v>4.1</v>
       </c>
       <c r="G19" t="n">
-        <v>3.25</v>
+        <v>4.4</v>
       </c>
       <c r="H19" t="n">
-        <v>2.54</v>
+        <v>2.02</v>
       </c>
       <c r="I19" t="n">
-        <v>2.64</v>
+        <v>2.08</v>
       </c>
       <c r="J19" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K19" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="L19" t="n">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="M19" t="n">
         <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="O19" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="P19" t="n">
-        <v>1.9</v>
+        <v>1.76</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.04</v>
+        <v>2.24</v>
       </c>
       <c r="R19" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="S19" t="n">
-        <v>3.55</v>
+        <v>4.3</v>
       </c>
       <c r="T19" t="n">
-        <v>1.78</v>
+        <v>1.05</v>
       </c>
       <c r="U19" t="n">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="V19" t="n">
-        <v>1.6</v>
+        <v>1.92</v>
       </c>
       <c r="W19" t="n">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="X19" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="Y19" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="Z19" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AA19" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AB19" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.8</v>
+        <v>42</v>
       </c>
       <c r="AD19" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AE19" t="n">
         <v>980</v>
@@ -3043,22 +3043,22 @@
         <v>980</v>
       </c>
       <c r="AG19" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AH19" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AI19" t="n">
         <v>980</v>
       </c>
       <c r="AJ19" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>980</v>
+        <v>300</v>
       </c>
       <c r="AL19" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
         <v>580</v>
@@ -3067,7 +3067,7 @@
         <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20">
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Boulogne</t>
+          <t>Dunkerque</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.95</v>
+        <v>2.58</v>
       </c>
       <c r="G20" t="n">
-        <v>4.3</v>
+        <v>2.64</v>
       </c>
       <c r="H20" t="n">
-        <v>2.06</v>
+        <v>3</v>
       </c>
       <c r="I20" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q20" t="n">
         <v>2.12</v>
       </c>
-      <c r="J20" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N20" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.22</v>
-      </c>
       <c r="R20" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="S20" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="T20" t="n">
-        <v>1.93</v>
+        <v>1.03</v>
       </c>
       <c r="U20" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="V20" t="n">
-        <v>1.89</v>
+        <v>1.47</v>
       </c>
       <c r="W20" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="X20" t="n">
-        <v>22</v>
+        <v>16.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>8.199999999999999</v>
+        <v>12</v>
       </c>
       <c r="Z20" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AA20" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AB20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN20" t="n">
         <v>25</v>
       </c>
-      <c r="AC20" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>300</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>400</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO20" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21">
@@ -3223,127 +3223,127 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Dunkerque</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.56</v>
+        <v>3.55</v>
       </c>
       <c r="G21" t="n">
-        <v>2.66</v>
+        <v>3.7</v>
       </c>
       <c r="H21" t="n">
-        <v>3.05</v>
+        <v>2.24</v>
       </c>
       <c r="I21" t="n">
-        <v>3.15</v>
+        <v>2.32</v>
       </c>
       <c r="J21" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="K21" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M21" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N21" t="n">
         <v>3.4</v>
       </c>
       <c r="O21" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W21" t="n">
         <v>1.37</v>
       </c>
-      <c r="P21" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S21" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U21" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1.6</v>
-      </c>
       <c r="X21" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y21" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD21" t="n">
         <v>11.5</v>
       </c>
-      <c r="Z21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AE21" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="AF21" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AG21" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AH21" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AI21" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AJ21" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="AK21" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="AL21" t="n">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="AM21" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN21" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="AO21" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Irish Division 1</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,126 +3353,126 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Cobh Ramblers</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Treaty United</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.4</v>
+        <v>1.76</v>
       </c>
       <c r="G22" t="n">
-        <v>3.6</v>
+        <v>1.81</v>
       </c>
       <c r="H22" t="n">
-        <v>2.34</v>
+        <v>4.9</v>
       </c>
       <c r="I22" t="n">
-        <v>2.4</v>
+        <v>5.2</v>
       </c>
       <c r="J22" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="K22" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="L22" t="n">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="M22" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>3.25</v>
+        <v>4.6</v>
       </c>
       <c r="O22" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="P22" t="n">
-        <v>1.76</v>
+        <v>2.2</v>
       </c>
       <c r="Q22" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="W22" t="n">
         <v>2.22</v>
       </c>
-      <c r="R22" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S22" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="W22" t="n">
-        <v>1.38</v>
-      </c>
       <c r="X22" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y22" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="Z22" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AA22" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.8</v>
+        <v>42</v>
       </c>
       <c r="AD22" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE22" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AG22" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH22" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI22" t="n">
         <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>340</v>
+        <v>1000</v>
       </c>
       <c r="AM22" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="AO22" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
@@ -3493,118 +3493,118 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Cobh Ramblers</t>
+          <t>Bray Wanderers</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Treaty United</t>
+          <t>UCD</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.78</v>
+        <v>2.52</v>
       </c>
       <c r="G23" t="n">
-        <v>1.84</v>
+        <v>2.62</v>
       </c>
       <c r="H23" t="n">
-        <v>4.7</v>
+        <v>2.92</v>
       </c>
       <c r="I23" t="n">
-        <v>5.2</v>
+        <v>3.15</v>
       </c>
       <c r="J23" t="n">
-        <v>3.9</v>
+        <v>3.45</v>
       </c>
       <c r="K23" t="n">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="L23" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="M23" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N23" t="n">
         <v>4.3</v>
       </c>
       <c r="O23" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P23" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="R23" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="S23" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T23" t="n">
-        <v>1.77</v>
+        <v>1.03</v>
       </c>
       <c r="U23" t="n">
-        <v>2.1</v>
+        <v>1.03</v>
       </c>
       <c r="V23" t="n">
-        <v>1.24</v>
+        <v>1.46</v>
       </c>
       <c r="W23" t="n">
-        <v>2.18</v>
+        <v>1.61</v>
       </c>
       <c r="X23" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="Z23" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AA23" t="n">
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>9.4</v>
+        <v>42</v>
       </c>
       <c r="AD23" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE23" t="n">
         <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AG23" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH23" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI23" t="n">
         <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AK23" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AL23" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM23" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3613,7 +3613,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Irish Division 1</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3628,127 +3628,127 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Bray Wanderers</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>UCD</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.46</v>
+        <v>2.78</v>
       </c>
       <c r="G24" t="n">
-        <v>2.62</v>
+        <v>2.82</v>
       </c>
       <c r="H24" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="I24" t="n">
-        <v>3.15</v>
+        <v>2.88</v>
       </c>
       <c r="J24" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K24" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N24" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S24" t="n">
         <v>3.75</v>
       </c>
-      <c r="L24" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N24" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P24" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Q24" t="n">
+      <c r="T24" t="n">
         <v>1.8</v>
       </c>
-      <c r="R24" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S24" t="n">
-        <v>3</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.66</v>
-      </c>
       <c r="U24" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="V24" t="n">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="W24" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="X24" t="n">
-        <v>18.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="Z24" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>220</v>
+        <v>44</v>
       </c>
       <c r="AB24" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.800000000000001</v>
+        <v>7</v>
       </c>
       <c r="AD24" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF24" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AG24" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH24" t="n">
         <v>16.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="AJ24" t="n">
-        <v>900</v>
+        <v>42</v>
       </c>
       <c r="AK24" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AL24" t="n">
-        <v>230</v>
+        <v>44</v>
       </c>
       <c r="AM24" t="n">
-        <v>580</v>
+        <v>95</v>
       </c>
       <c r="AN24" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="AO24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Aguilas Doradas</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Envigado</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.74</v>
+        <v>1.65</v>
       </c>
       <c r="G25" t="n">
-        <v>2.76</v>
+        <v>1.7</v>
       </c>
       <c r="H25" t="n">
-        <v>2.86</v>
+        <v>6.2</v>
       </c>
       <c r="I25" t="n">
-        <v>2.9</v>
+        <v>7.2</v>
       </c>
       <c r="J25" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="K25" t="n">
-        <v>3.45</v>
+        <v>4.1</v>
       </c>
       <c r="L25" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="M25" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N25" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="O25" t="n">
-        <v>1.34</v>
+        <v>1.43</v>
       </c>
       <c r="P25" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.06</v>
+        <v>2.26</v>
       </c>
       <c r="R25" t="n">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="S25" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="T25" t="n">
-        <v>1.79</v>
+        <v>2.14</v>
       </c>
       <c r="U25" t="n">
-        <v>2.22</v>
+        <v>1.74</v>
       </c>
       <c r="V25" t="n">
-        <v>1.52</v>
+        <v>1.16</v>
       </c>
       <c r="W25" t="n">
-        <v>1.56</v>
+        <v>2.44</v>
       </c>
       <c r="X25" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.5</v>
+        <v>18</v>
       </c>
       <c r="Z25" t="n">
-        <v>18.5</v>
+        <v>55</v>
       </c>
       <c r="AA25" t="n">
-        <v>44</v>
+        <v>250</v>
       </c>
       <c r="AB25" t="n">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="AC25" t="n">
-        <v>7.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD25" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AE25" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AG25" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="AI25" t="n">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="AJ25" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="AK25" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AL25" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AM25" t="n">
-        <v>90</v>
+        <v>220</v>
       </c>
       <c r="AN25" t="n">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="AO25" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>US MLS</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,132 +3893,132 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>19:45:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Aguilas Doradas</t>
+          <t>Charlotte FC</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Envigado</t>
+          <t>New York City</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.67</v>
+        <v>2.8</v>
       </c>
       <c r="G26" t="n">
-        <v>1.69</v>
+        <v>2.86</v>
       </c>
       <c r="H26" t="n">
-        <v>6.4</v>
+        <v>2.62</v>
       </c>
       <c r="I26" t="n">
-        <v>6.8</v>
+        <v>2.68</v>
       </c>
       <c r="J26" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="K26" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L26" t="n">
-        <v>1.49</v>
+        <v>1.38</v>
       </c>
       <c r="M26" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>3.05</v>
+        <v>4.3</v>
       </c>
       <c r="O26" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R26" t="n">
         <v>1.43</v>
       </c>
-      <c r="P26" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.25</v>
-      </c>
       <c r="S26" t="n">
-        <v>4.4</v>
+        <v>3.2</v>
       </c>
       <c r="T26" t="n">
-        <v>2.24</v>
+        <v>1.7</v>
       </c>
       <c r="U26" t="n">
-        <v>1.74</v>
+        <v>2.34</v>
       </c>
       <c r="V26" t="n">
-        <v>1.17</v>
+        <v>1.59</v>
       </c>
       <c r="W26" t="n">
-        <v>2.44</v>
+        <v>1.53</v>
       </c>
       <c r="X26" t="n">
-        <v>11.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y26" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z26" t="n">
         <v>18</v>
       </c>
-      <c r="Z26" t="n">
-        <v>55</v>
-      </c>
       <c r="AA26" t="n">
-        <v>230</v>
+        <v>40</v>
       </c>
       <c r="AB26" t="n">
-        <v>6.8</v>
+        <v>13</v>
       </c>
       <c r="AC26" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD26" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="AE26" t="n">
-        <v>120</v>
+        <v>27</v>
       </c>
       <c r="AF26" t="n">
-        <v>8.800000000000001</v>
+        <v>19.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AH26" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="AI26" t="n">
-        <v>960</v>
+        <v>38</v>
       </c>
       <c r="AJ26" t="n">
-        <v>16.5</v>
+        <v>210</v>
       </c>
       <c r="AK26" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO26" t="n">
         <v>21</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>190</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>US MLS</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,260 +4028,125 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>20:10:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Charlotte FC</t>
+          <t>Deportivo Cali</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>New York City</t>
+          <t>Alianza FC Valledupar</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.98</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>3.05</v>
+        <v>2.04</v>
       </c>
       <c r="H27" t="n">
-        <v>2.54</v>
+        <v>4.1</v>
       </c>
       <c r="I27" t="n">
-        <v>2.6</v>
+        <v>4.7</v>
       </c>
       <c r="J27" t="n">
         <v>3.55</v>
       </c>
       <c r="K27" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="L27" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N27" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O27" t="n">
         <v>1.38</v>
       </c>
-      <c r="M27" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N27" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.28</v>
-      </c>
       <c r="P27" t="n">
-        <v>2.1</v>
+        <v>1.79</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.86</v>
+        <v>2.16</v>
       </c>
       <c r="R27" t="n">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="S27" t="n">
-        <v>3.15</v>
+        <v>3.9</v>
       </c>
       <c r="T27" t="n">
-        <v>1.7</v>
+        <v>1.03</v>
       </c>
       <c r="U27" t="n">
-        <v>2.34</v>
+        <v>1.03</v>
       </c>
       <c r="V27" t="n">
-        <v>1.62</v>
+        <v>1.27</v>
       </c>
       <c r="W27" t="n">
-        <v>1.49</v>
+        <v>1.96</v>
       </c>
       <c r="X27" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Y27" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z27" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AA27" t="n">
-        <v>36</v>
+        <v>330</v>
       </c>
       <c r="AB27" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AC27" t="n">
-        <v>8.199999999999999</v>
+        <v>42</v>
       </c>
       <c r="AD27" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AE27" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG27" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH27" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AI27" t="n">
-        <v>36</v>
+        <v>370</v>
       </c>
       <c r="AJ27" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AK27" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL27" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM27" t="n">
-        <v>80</v>
+        <v>580</v>
       </c>
       <c r="AN27" t="n">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="AO27" t="n">
-        <v>19.5</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2025-10-28</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>20:10:00</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Deportivo Cali</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Alianza FC Valledupar</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="G28" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="H28" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>5</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K28" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N28" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S28" t="n">
-        <v>4</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W28" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="X28" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>160</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>330</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>470</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>370</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AO28" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO27"/>
+  <dimension ref="A1:AO25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Czech 2 Liga</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,90 +653,90 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Slavia Praha B</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Usti Nad Labem</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.01</v>
+        <v>6.6</v>
       </c>
       <c r="G2" t="n">
-        <v>1.02</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>180</v>
+        <v>2.5</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>2.56</v>
       </c>
       <c r="J2" t="n">
-        <v>34</v>
+        <v>2.18</v>
       </c>
       <c r="K2" t="n">
-        <v>800</v>
+        <v>2.2</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P2" t="n">
-        <v>1.71</v>
+        <v>1.06</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.34</v>
+        <v>15.5</v>
       </c>
       <c r="R2" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="S2" t="n">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="T2" t="n">
-        <v>3.75</v>
+        <v>7.2</v>
       </c>
       <c r="U2" t="n">
-        <v>1.28</v>
+        <v>1.15</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="W2" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Z2" t="n">
         <v>34</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1000</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD2" t="n">
         <v>1000</v>
@@ -745,10 +745,10 @@
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.69</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
         <v>1000</v>
@@ -757,7 +757,7 @@
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Czech 1 Liga</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sparta Prague</t>
+          <t>Sion</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Bohemians 1905</t>
+          <t>St Gallen</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.36</v>
+        <v>2.52</v>
       </c>
       <c r="G3" t="n">
-        <v>1.38</v>
+        <v>2.54</v>
       </c>
       <c r="H3" t="n">
-        <v>9.4</v>
+        <v>2.98</v>
       </c>
       <c r="I3" t="n">
-        <v>10.5</v>
+        <v>3.05</v>
       </c>
       <c r="J3" t="n">
-        <v>5.9</v>
+        <v>3.7</v>
       </c>
       <c r="K3" t="n">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Thun</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="F4" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
-      <c r="G4" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.58</v>
-      </c>
       <c r="I4" t="n">
-        <v>1.59</v>
+        <v>8.4</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>5.6</v>
       </c>
       <c r="K4" t="n">
-        <v>4.1</v>
+        <v>5.9</v>
       </c>
       <c r="L4" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="M4" t="n">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.44</v>
+        <v>1.15</v>
       </c>
       <c r="P4" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="T4" t="n">
         <v>1.72</v>
       </c>
-      <c r="Q4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.38</v>
-      </c>
       <c r="U4" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="V4" t="n">
-        <v>2.66</v>
+        <v>1.13</v>
       </c>
       <c r="W4" t="n">
-        <v>1.13</v>
+        <v>3.3</v>
       </c>
       <c r="X4" t="n">
-        <v>11.5</v>
+        <v>32</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.2</v>
+        <v>40</v>
       </c>
       <c r="Z4" t="n">
-        <v>7.6</v>
+        <v>80</v>
       </c>
       <c r="AA4" t="n">
-        <v>14</v>
+        <v>260</v>
       </c>
       <c r="AB4" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.800000000000001</v>
+        <v>13.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>10.5</v>
+        <v>29</v>
       </c>
       <c r="AE4" t="n">
-        <v>19.5</v>
+        <v>100</v>
       </c>
       <c r="AF4" t="n">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="AG4" t="n">
-        <v>32</v>
+        <v>9.4</v>
       </c>
       <c r="AH4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AL4" t="n">
         <v>28</v>
       </c>
-      <c r="AI4" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>300</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>160</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>160</v>
-      </c>
       <c r="AM4" t="n">
-        <v>580</v>
+        <v>90</v>
       </c>
       <c r="AN4" t="n">
-        <v>280</v>
+        <v>4.7</v>
       </c>
       <c r="AO4" t="n">
-        <v>12</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1063,127 +1063,127 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Sion</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>St Gallen</t>
+          <t>AC Monza</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="G5" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>3.55</v>
       </c>
       <c r="I5" t="n">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="J5" t="n">
-        <v>3.7</v>
+        <v>3.05</v>
       </c>
       <c r="K5" t="n">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="L5" t="n">
-        <v>1.34</v>
+        <v>1.52</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>4.8</v>
+        <v>3.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.24</v>
+        <v>1.46</v>
       </c>
       <c r="P5" t="n">
-        <v>2.24</v>
+        <v>1.68</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.76</v>
+        <v>2.4</v>
       </c>
       <c r="R5" t="n">
-        <v>1.49</v>
+        <v>1.25</v>
       </c>
       <c r="S5" t="n">
-        <v>2.92</v>
+        <v>4.7</v>
       </c>
       <c r="T5" t="n">
-        <v>1.61</v>
+        <v>1.97</v>
       </c>
       <c r="U5" t="n">
-        <v>2.44</v>
+        <v>1.97</v>
       </c>
       <c r="V5" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="W5" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="X5" t="n">
-        <v>90</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA5" t="n">
         <v>70</v>
       </c>
-      <c r="AA5" t="n">
-        <v>300</v>
-      </c>
       <c r="AB5" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD5" t="n">
         <v>14.5</v>
       </c>
-      <c r="AC5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>14</v>
-      </c>
       <c r="AE5" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="AF5" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AG5" t="n">
         <v>11.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="AI5" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AJ5" t="n">
         <v>36</v>
       </c>
       <c r="AK5" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AL5" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AM5" t="n">
-        <v>70</v>
+        <v>450</v>
       </c>
       <c r="AN5" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="AO5" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1198,121 +1198,121 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Thun</t>
+          <t>Cesena</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Carrarese</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.36</v>
+        <v>2.06</v>
       </c>
       <c r="G6" t="n">
-        <v>1.38</v>
+        <v>2.08</v>
       </c>
       <c r="H6" t="n">
-        <v>8.800000000000001</v>
+        <v>4.5</v>
       </c>
       <c r="I6" t="n">
-        <v>9.6</v>
+        <v>4.7</v>
       </c>
       <c r="J6" t="n">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="K6" t="n">
-        <v>6.4</v>
+        <v>3.35</v>
       </c>
       <c r="L6" t="n">
-        <v>1.25</v>
+        <v>1.48</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="N6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="X6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC6" t="n">
         <v>7.2</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="X6" t="n">
-        <v>32</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>46</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>510</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>28</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>42</v>
-      </c>
       <c r="AD6" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AE6" t="n">
-        <v>460</v>
+        <v>60</v>
       </c>
       <c r="AF6" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH6" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AI6" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AJ6" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AK6" t="n">
-        <v>13.5</v>
+        <v>25</v>
       </c>
       <c r="AL6" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="AM6" t="n">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="AN6" t="n">
-        <v>5.3</v>
+        <v>18.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
@@ -1333,121 +1333,121 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>AC Monza</t>
+          <t>Entella</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="G7" t="n">
-        <v>2.54</v>
+        <v>2.32</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="I7" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K7" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L7" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="M7" t="n">
         <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="O7" t="n">
         <v>1.43</v>
       </c>
       <c r="P7" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.36</v>
+        <v>2.26</v>
       </c>
       <c r="R7" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="S7" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="T7" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="U7" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="V7" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="W7" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="X7" t="n">
         <v>10.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AA7" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AD7" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE7" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AF7" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI7" t="n">
         <v>65</v>
       </c>
       <c r="AJ7" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AK7" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AL7" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AM7" t="n">
-        <v>580</v>
+        <v>130</v>
       </c>
       <c r="AN7" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="AO7" t="n">
-        <v>160</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
@@ -1468,121 +1468,121 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Cesena</t>
+          <t>Reggiana</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Carrarese</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.06</v>
+        <v>4.6</v>
       </c>
       <c r="G8" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="I8" t="n">
         <v>2.1</v>
       </c>
-      <c r="H8" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S8" t="n">
         <v>4.6</v>
       </c>
-      <c r="J8" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S8" t="n">
-        <v>4.1</v>
-      </c>
       <c r="T8" t="n">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="U8" t="n">
-        <v>2.02</v>
+        <v>1.94</v>
       </c>
       <c r="V8" t="n">
-        <v>1.28</v>
+        <v>1.91</v>
       </c>
       <c r="W8" t="n">
-        <v>1.9</v>
+        <v>1.26</v>
       </c>
       <c r="X8" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>14.5</v>
+        <v>7.4</v>
       </c>
       <c r="Z8" t="n">
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="AA8" t="n">
-        <v>290</v>
+        <v>24</v>
       </c>
       <c r="AB8" t="n">
-        <v>8.800000000000001</v>
+        <v>13</v>
       </c>
       <c r="AC8" t="n">
-        <v>10.5</v>
+        <v>7.2</v>
       </c>
       <c r="AD8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF8" t="n">
         <v>34</v>
       </c>
-      <c r="AE8" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>12</v>
-      </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>19.5</v>
       </c>
       <c r="AH8" t="n">
         <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="AJ8" t="n">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="AK8" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="AL8" t="n">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="AM8" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="AN8" t="n">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AO8" t="n">
-        <v>110</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
@@ -1603,127 +1603,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Entella</t>
+          <t>Calcio Avellino SSD</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.3</v>
+        <v>2.92</v>
       </c>
       <c r="G9" t="n">
-        <v>2.32</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>2.96</v>
       </c>
       <c r="J9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K9" t="n">
         <v>3.15</v>
       </c>
-      <c r="K9" t="n">
-        <v>3.25</v>
-      </c>
       <c r="L9" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O9" t="n">
         <v>1.44</v>
       </c>
       <c r="P9" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="R9" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S9" t="n">
         <v>4.5</v>
       </c>
       <c r="T9" t="n">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="U9" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="V9" t="n">
-        <v>1.33</v>
+        <v>1.51</v>
       </c>
       <c r="W9" t="n">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="X9" t="n">
         <v>10</v>
       </c>
       <c r="Y9" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="Z9" t="n">
-        <v>25</v>
+        <v>18.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="AB9" t="n">
-        <v>16.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AE9" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL9" t="n">
         <v>55</v>
       </c>
-      <c r="AF9" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>200</v>
-      </c>
       <c r="AM9" t="n">
-        <v>580</v>
+        <v>450</v>
       </c>
       <c r="AN9" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,121 +1738,121 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Reggiana</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Modena</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4.8</v>
+        <v>2.8</v>
       </c>
       <c r="G10" t="n">
-        <v>5.1</v>
+        <v>2.82</v>
       </c>
       <c r="H10" t="n">
-        <v>1.96</v>
+        <v>2.98</v>
       </c>
       <c r="I10" t="n">
-        <v>1.98</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K10" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="L10" t="n">
-        <v>1.51</v>
+        <v>1.59</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="N10" t="n">
-        <v>3.15</v>
+        <v>2.66</v>
       </c>
       <c r="O10" t="n">
-        <v>1.43</v>
+        <v>1.56</v>
       </c>
       <c r="P10" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.32</v>
+        <v>2.68</v>
       </c>
       <c r="R10" t="n">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="S10" t="n">
-        <v>4.4</v>
+        <v>5.6</v>
       </c>
       <c r="T10" t="n">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="U10" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="V10" t="n">
-        <v>2.02</v>
+        <v>1.49</v>
       </c>
       <c r="W10" t="n">
-        <v>1.24</v>
+        <v>1.54</v>
       </c>
       <c r="X10" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="Z10" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AA10" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="AB10" t="n">
-        <v>15</v>
+        <v>8.4</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="AF10" t="n">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="AG10" t="n">
-        <v>36</v>
+        <v>13.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI10" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AJ10" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="AK10" t="n">
-        <v>440</v>
+        <v>44</v>
       </c>
       <c r="AL10" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AM10" t="n">
-        <v>580</v>
+        <v>980</v>
       </c>
       <c r="AN10" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="AO10" t="n">
-        <v>18</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11">
@@ -1885,109 +1885,109 @@
         <v>2.44</v>
       </c>
       <c r="G11" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="H11" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J11" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K11" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L11" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="M11" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N11" t="n">
-        <v>2.86</v>
+        <v>3</v>
       </c>
       <c r="O11" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="P11" t="n">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.62</v>
+        <v>2.38</v>
       </c>
       <c r="R11" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="S11" t="n">
-        <v>5.3</v>
+        <v>4.6</v>
       </c>
       <c r="T11" t="n">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="U11" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="V11" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W11" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="X11" t="n">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Z11" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AA11" t="n">
         <v>75</v>
       </c>
       <c r="AB11" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD11" t="n">
         <v>15</v>
       </c>
-      <c r="AC11" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>16</v>
-      </c>
       <c r="AE11" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF11" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AJ11" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AK11" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL11" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AM11" t="n">
         <v>170</v>
       </c>
       <c r="AN11" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AO11" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
@@ -2008,127 +2008,127 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Laval</t>
+          <t>St Etienne</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Pau</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.74</v>
+        <v>1.75</v>
       </c>
       <c r="G12" t="n">
-        <v>2.86</v>
+        <v>1.78</v>
       </c>
       <c r="H12" t="n">
-        <v>2.96</v>
+        <v>4.9</v>
       </c>
       <c r="I12" t="n">
-        <v>3.1</v>
+        <v>5.1</v>
       </c>
       <c r="J12" t="n">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="K12" t="n">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="L12" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T12" t="n">
         <v>1.58</v>
       </c>
-      <c r="M12" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N12" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S12" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.02</v>
-      </c>
       <c r="U12" t="n">
-        <v>1.86</v>
+        <v>2.52</v>
       </c>
       <c r="V12" t="n">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="W12" t="n">
-        <v>1.54</v>
+        <v>2.28</v>
       </c>
       <c r="X12" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="Y12" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Z12" t="n">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB12" t="n">
-        <v>8.6</v>
+        <v>13.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.4</v>
+        <v>10.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AE12" t="n">
         <v>50</v>
       </c>
       <c r="AF12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH12" t="n">
         <v>16.5</v>
       </c>
-      <c r="AG12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>24</v>
-      </c>
       <c r="AI12" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ12" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AK12" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="AL12" t="n">
-        <v>200</v>
+        <v>26</v>
       </c>
       <c r="AM12" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AO12" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>ESTAC Troyes</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Calcio Avellino SSD</t>
+          <t>Amiens</t>
         </is>
       </c>
       <c r="F13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H13" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="I13" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="J13" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N13" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="W13" t="n">
         <v>3.2</v>
       </c>
-      <c r="G13" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N13" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S13" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.42</v>
-      </c>
       <c r="X13" t="n">
-        <v>10.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Z13" t="n">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="AA13" t="n">
-        <v>170</v>
+        <v>980</v>
       </c>
       <c r="AB13" t="n">
-        <v>11</v>
+        <v>8.4</v>
       </c>
       <c r="AC13" t="n">
-        <v>7</v>
+        <v>11.5</v>
       </c>
       <c r="AD13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>140</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>12.5</v>
       </c>
-      <c r="AE13" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>200</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>60</v>
-      </c>
       <c r="AK13" t="n">
-        <v>44</v>
+        <v>15.5</v>
       </c>
       <c r="AL13" t="n">
-        <v>370</v>
+        <v>38</v>
       </c>
       <c r="AM13" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="AN13" t="n">
-        <v>70</v>
+        <v>6.8</v>
       </c>
       <c r="AO13" t="n">
-        <v>32</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>St Etienne</t>
+          <t>Rodez</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Pau</t>
+          <t>Annecy</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.71</v>
+        <v>2.22</v>
       </c>
       <c r="G14" t="n">
-        <v>1.76</v>
+        <v>2.26</v>
       </c>
       <c r="H14" t="n">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="I14" t="n">
-        <v>5.5</v>
+        <v>3.9</v>
       </c>
       <c r="J14" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S14" t="n">
         <v>4.2</v>
       </c>
-      <c r="K14" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N14" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.48</v>
-      </c>
       <c r="T14" t="n">
-        <v>1.57</v>
+        <v>1.91</v>
       </c>
       <c r="U14" t="n">
-        <v>2.44</v>
+        <v>1.99</v>
       </c>
       <c r="V14" t="n">
-        <v>1.22</v>
+        <v>1.34</v>
       </c>
       <c r="W14" t="n">
-        <v>2.3</v>
+        <v>1.79</v>
       </c>
       <c r="X14" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="Y14" t="n">
-        <v>26</v>
+        <v>12.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="AA14" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="AB14" t="n">
-        <v>980</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC14" t="n">
-        <v>15</v>
+        <v>7.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>20</v>
+        <v>15.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF14" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="AI14" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM14" t="n">
         <v>130</v>
       </c>
-      <c r="AJ14" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>27</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>70</v>
-      </c>
       <c r="AN14" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AO14" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ESTAC Troyes</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Amiens</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.47</v>
+        <v>2.54</v>
       </c>
       <c r="G15" t="n">
-        <v>1.49</v>
+        <v>2.62</v>
       </c>
       <c r="H15" t="n">
-        <v>7.4</v>
+        <v>3.25</v>
       </c>
       <c r="I15" t="n">
-        <v>8.199999999999999</v>
+        <v>3.45</v>
       </c>
       <c r="J15" t="n">
-        <v>4.8</v>
+        <v>3.15</v>
       </c>
       <c r="K15" t="n">
-        <v>5.2</v>
+        <v>3.2</v>
       </c>
       <c r="L15" t="n">
-        <v>1.36</v>
+        <v>1.56</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.12</v>
       </c>
       <c r="N15" t="n">
-        <v>4.2</v>
+        <v>2.86</v>
       </c>
       <c r="O15" t="n">
-        <v>1.28</v>
+        <v>1.51</v>
       </c>
       <c r="P15" t="n">
-        <v>2.1</v>
+        <v>1.59</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.84</v>
+        <v>2.56</v>
       </c>
       <c r="R15" t="n">
-        <v>1.43</v>
+        <v>1.22</v>
       </c>
       <c r="S15" t="n">
-        <v>3.2</v>
+        <v>5.1</v>
       </c>
       <c r="T15" t="n">
-        <v>1.03</v>
+        <v>2.08</v>
       </c>
       <c r="U15" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="V15" t="n">
-        <v>1.13</v>
+        <v>1.41</v>
       </c>
       <c r="W15" t="n">
-        <v>3</v>
+        <v>1.61</v>
       </c>
       <c r="X15" t="n">
-        <v>34</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y15" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z15" t="n">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="AA15" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AB15" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>11</v>
+        <v>7.2</v>
       </c>
       <c r="AD15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK15" t="n">
         <v>36</v>
       </c>
-      <c r="AE15" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>48</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AL15" t="n">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="AM15" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="AN15" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="AO15" t="n">
-        <v>240</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Rodez</t>
+          <t>Grenoble</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Annecy</t>
+          <t>Guingamp</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.26</v>
+        <v>3.05</v>
       </c>
       <c r="G16" t="n">
-        <v>2.32</v>
+        <v>3.2</v>
       </c>
       <c r="H16" t="n">
-        <v>3.6</v>
+        <v>2.52</v>
       </c>
       <c r="I16" t="n">
-        <v>3.75</v>
+        <v>2.64</v>
       </c>
       <c r="J16" t="n">
         <v>3.4</v>
       </c>
       <c r="K16" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S16" t="n">
         <v>3.55</v>
       </c>
-      <c r="L16" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N16" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S16" t="n">
-        <v>4.2</v>
-      </c>
       <c r="T16" t="n">
-        <v>1.03</v>
+        <v>1.74</v>
       </c>
       <c r="U16" t="n">
-        <v>1.82</v>
+        <v>2.22</v>
       </c>
       <c r="V16" t="n">
-        <v>1.36</v>
+        <v>1.61</v>
       </c>
       <c r="W16" t="n">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="X16" t="n">
-        <v>21</v>
+        <v>13.5</v>
       </c>
       <c r="Y16" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB16" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z16" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>85</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>19</v>
-      </c>
       <c r="AC16" t="n">
-        <v>10</v>
+        <v>7.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AE16" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>55</v>
       </c>
-      <c r="AF16" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ16" t="n">
+      <c r="AK16" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN16" t="n">
         <v>32</v>
       </c>
-      <c r="AK16" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>25</v>
-      </c>
       <c r="AO16" t="n">
-        <v>55</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Boulogne</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.6</v>
+        <v>4.3</v>
       </c>
       <c r="G17" t="n">
-        <v>2.66</v>
+        <v>4.5</v>
       </c>
       <c r="H17" t="n">
-        <v>3.2</v>
+        <v>1.98</v>
       </c>
       <c r="I17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N17" t="n">
         <v>3.3</v>
       </c>
-      <c r="J17" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N17" t="n">
-        <v>2.84</v>
-      </c>
       <c r="O17" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="P17" t="n">
-        <v>1.6</v>
+        <v>1.77</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.56</v>
+        <v>2.2</v>
       </c>
       <c r="R17" t="n">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="S17" t="n">
-        <v>5.1</v>
+        <v>4.2</v>
       </c>
       <c r="T17" t="n">
-        <v>1.03</v>
+        <v>1.96</v>
       </c>
       <c r="U17" t="n">
-        <v>1.03</v>
+        <v>1.97</v>
       </c>
       <c r="V17" t="n">
-        <v>1.43</v>
+        <v>2</v>
       </c>
       <c r="W17" t="n">
-        <v>1.6</v>
+        <v>1.28</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AB17" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC17" t="n">
-        <v>42</v>
+        <v>7.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Grenoble</t>
+          <t>Dunkerque</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Guingamp</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>2.62</v>
       </c>
       <c r="G18" t="n">
-        <v>3.25</v>
+        <v>2.66</v>
       </c>
       <c r="H18" t="n">
-        <v>2.54</v>
+        <v>2.98</v>
       </c>
       <c r="I18" t="n">
-        <v>2.64</v>
+        <v>3.05</v>
       </c>
       <c r="J18" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K18" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L18" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="M18" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="O18" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R18" t="n">
         <v>1.32</v>
       </c>
-      <c r="P18" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.36</v>
-      </c>
       <c r="S18" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="T18" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="U18" t="n">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="V18" t="n">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="W18" t="n">
-        <v>1.45</v>
+        <v>1.61</v>
       </c>
       <c r="X18" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="Y18" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="Z18" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AB18" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>42</v>
+        <v>7.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AE18" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AF18" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AH18" t="n">
         <v>18</v>
       </c>
       <c r="AI18" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AJ18" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AK18" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AL18" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AM18" t="n">
-        <v>580</v>
+        <v>110</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19">
@@ -2953,127 +2953,127 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Boulogne</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="G19" t="n">
-        <v>4.4</v>
+        <v>3.65</v>
       </c>
       <c r="H19" t="n">
-        <v>2.02</v>
+        <v>2.32</v>
       </c>
       <c r="I19" t="n">
-        <v>2.08</v>
+        <v>2.36</v>
       </c>
       <c r="J19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K19" t="n">
         <v>3.45</v>
       </c>
-      <c r="K19" t="n">
-        <v>3.7</v>
-      </c>
       <c r="L19" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="M19" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N19" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O19" t="n">
         <v>1.4</v>
       </c>
       <c r="P19" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="R19" t="n">
         <v>1.29</v>
       </c>
       <c r="S19" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="T19" t="n">
-        <v>1.05</v>
+        <v>1.88</v>
       </c>
       <c r="U19" t="n">
         <v>2</v>
       </c>
       <c r="V19" t="n">
-        <v>1.92</v>
+        <v>1.72</v>
       </c>
       <c r="W19" t="n">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="X19" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>980</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z19" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AB19" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AC19" t="n">
-        <v>42</v>
+        <v>7.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AE19" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AF19" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AG19" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AH19" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AK19" t="n">
-        <v>300</v>
+        <v>65</v>
       </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AM19" t="n">
-        <v>580</v>
+        <v>120</v>
       </c>
       <c r="AN19" t="n">
         <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>85</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Irish Division 1</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Dunkerque</t>
+          <t>Cobh Ramblers</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>Treaty United</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.58</v>
+        <v>1.75</v>
       </c>
       <c r="G20" t="n">
-        <v>2.64</v>
+        <v>1.78</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>5.1</v>
       </c>
       <c r="I20" t="n">
-        <v>3.1</v>
+        <v>5.2</v>
       </c>
       <c r="J20" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="K20" t="n">
-        <v>3.45</v>
+        <v>4.4</v>
       </c>
       <c r="L20" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="M20" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>3.55</v>
+        <v>4.5</v>
       </c>
       <c r="O20" t="n">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
       <c r="P20" t="n">
-        <v>1.87</v>
+        <v>2.22</v>
       </c>
       <c r="Q20" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U20" t="n">
         <v>2.12</v>
       </c>
-      <c r="R20" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S20" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2.16</v>
-      </c>
       <c r="V20" t="n">
-        <v>1.47</v>
+        <v>1.23</v>
       </c>
       <c r="W20" t="n">
-        <v>1.6</v>
+        <v>2.28</v>
       </c>
       <c r="X20" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y20" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>190</v>
+      </c>
+      <c r="AF20" t="n">
         <v>12</v>
       </c>
-      <c r="Z20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB20" t="n">
+      <c r="AG20" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC20" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>12</v>
-      </c>
       <c r="AH20" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AI20" t="n">
         <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="AK20" t="n">
-        <v>29</v>
+        <v>18.5</v>
       </c>
       <c r="AL20" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AM20" t="n">
-        <v>110</v>
+        <v>580</v>
       </c>
       <c r="AN20" t="n">
-        <v>25</v>
+        <v>10.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Irish Division 1</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Bray Wanderers</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>UCD</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.55</v>
+        <v>2.76</v>
       </c>
       <c r="G21" t="n">
-        <v>3.7</v>
+        <v>2.88</v>
       </c>
       <c r="H21" t="n">
-        <v>2.24</v>
+        <v>2.74</v>
       </c>
       <c r="I21" t="n">
-        <v>2.32</v>
+        <v>2.86</v>
       </c>
       <c r="J21" t="n">
         <v>3.45</v>
       </c>
       <c r="K21" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S21" t="n">
         <v>3.5</v>
       </c>
-      <c r="L21" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N21" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S21" t="n">
-        <v>4.1</v>
-      </c>
       <c r="T21" t="n">
-        <v>1.03</v>
+        <v>1.73</v>
       </c>
       <c r="U21" t="n">
-        <v>1.03</v>
+        <v>2.12</v>
       </c>
       <c r="V21" t="n">
-        <v>1.75</v>
+        <v>1.54</v>
       </c>
       <c r="W21" t="n">
-        <v>1.37</v>
+        <v>1.53</v>
       </c>
       <c r="X21" t="n">
-        <v>11.5</v>
+        <v>17</v>
       </c>
       <c r="Y21" t="n">
         <v>12</v>
       </c>
       <c r="Z21" t="n">
-        <v>14</v>
+        <v>19.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="AB21" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD21" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AE21" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="AF21" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AI21" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="AJ21" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL21" t="n">
         <v>70</v>
       </c>
-      <c r="AK21" t="n">
-        <v>48</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>65</v>
-      </c>
       <c r="AM21" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="AN21" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="AO21" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Irish Division 1</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,127 +3358,127 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Cobh Ramblers</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Treaty United</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.76</v>
+        <v>2.72</v>
       </c>
       <c r="G22" t="n">
-        <v>1.81</v>
+        <v>2.74</v>
       </c>
       <c r="H22" t="n">
-        <v>4.9</v>
+        <v>2.92</v>
       </c>
       <c r="I22" t="n">
-        <v>5.2</v>
+        <v>2.96</v>
       </c>
       <c r="J22" t="n">
-        <v>4.1</v>
+        <v>3.35</v>
       </c>
       <c r="K22" t="n">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="L22" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="M22" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="O22" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="P22" t="n">
-        <v>2.2</v>
+        <v>1.96</v>
       </c>
       <c r="Q22" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T22" t="n">
         <v>1.77</v>
       </c>
-      <c r="R22" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.03</v>
-      </c>
       <c r="U22" t="n">
-        <v>1.03</v>
+        <v>2.28</v>
       </c>
       <c r="V22" t="n">
-        <v>1.24</v>
+        <v>1.51</v>
       </c>
       <c r="W22" t="n">
-        <v>2.22</v>
+        <v>1.57</v>
       </c>
       <c r="X22" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y22" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AB22" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC22" t="n">
-        <v>42</v>
+        <v>7.2</v>
       </c>
       <c r="AD22" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF22" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AG22" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH22" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK22" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM22" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN22" t="n">
+        <v>27</v>
+      </c>
+      <c r="AO22" t="n">
         <v>29</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Irish Division 1</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Bray Wanderers</t>
+          <t>Aguilas Doradas</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>UCD</t>
+          <t>Envigado</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.52</v>
+        <v>1.65</v>
       </c>
       <c r="G23" t="n">
-        <v>2.62</v>
+        <v>1.69</v>
       </c>
       <c r="H23" t="n">
-        <v>2.92</v>
+        <v>6.4</v>
       </c>
       <c r="I23" t="n">
-        <v>3.15</v>
+        <v>6.8</v>
       </c>
       <c r="J23" t="n">
-        <v>3.45</v>
+        <v>3.95</v>
       </c>
       <c r="K23" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="L23" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="M23" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="O23" t="n">
-        <v>1.26</v>
+        <v>1.41</v>
       </c>
       <c r="P23" t="n">
-        <v>2.12</v>
+        <v>1.79</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.84</v>
+        <v>2.22</v>
       </c>
       <c r="R23" t="n">
-        <v>1.43</v>
+        <v>1.28</v>
       </c>
       <c r="S23" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="T23" t="n">
-        <v>1.03</v>
+        <v>2.14</v>
       </c>
       <c r="U23" t="n">
-        <v>1.03</v>
+        <v>1.76</v>
       </c>
       <c r="V23" t="n">
-        <v>1.46</v>
+        <v>1.17</v>
       </c>
       <c r="W23" t="n">
-        <v>1.61</v>
+        <v>2.5</v>
       </c>
       <c r="X23" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y23" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Z23" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AA23" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AB23" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AC23" t="n">
-        <v>42</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD23" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AE23" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AF23" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AG23" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AK23" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AL23" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM23" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN23" t="n">
-        <v>55</v>
+        <v>12.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>US MLS</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,126 +3623,126 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>19:45:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Charlotte FC</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>New York City</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="G24" t="n">
-        <v>2.82</v>
+        <v>2.96</v>
       </c>
       <c r="H24" t="n">
-        <v>2.86</v>
+        <v>2.58</v>
       </c>
       <c r="I24" t="n">
-        <v>2.88</v>
+        <v>2.66</v>
       </c>
       <c r="J24" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K24" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="L24" t="n">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
       <c r="M24" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="O24" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="P24" t="n">
-        <v>1.9</v>
+        <v>2.14</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.08</v>
+        <v>1.84</v>
       </c>
       <c r="R24" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="S24" t="n">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="T24" t="n">
-        <v>1.8</v>
+        <v>1.68</v>
       </c>
       <c r="U24" t="n">
-        <v>2.22</v>
+        <v>2.44</v>
       </c>
       <c r="V24" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="W24" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="X24" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB24" t="n">
         <v>13.5</v>
       </c>
-      <c r="Y24" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>44</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>11</v>
-      </c>
       <c r="AC24" t="n">
-        <v>7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD24" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE24" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AF24" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AG24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH24" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI24" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AJ24" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AK24" t="n">
         <v>32</v>
       </c>
       <c r="AL24" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AM24" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AN24" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AO24" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
@@ -3758,396 +3758,126 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>20:10:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Aguilas Doradas</t>
+          <t>Deportivo Cali</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Envigado</t>
+          <t>Alianza FC Valledupar</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.65</v>
+        <v>1.94</v>
       </c>
       <c r="G25" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H25" t="n">
-        <v>6.2</v>
+        <v>4.5</v>
       </c>
       <c r="I25" t="n">
-        <v>7.2</v>
+        <v>4.7</v>
       </c>
       <c r="J25" t="n">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="K25" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="L25" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="M25" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O25" t="n">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="P25" t="n">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="R25" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="S25" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="T25" t="n">
-        <v>2.14</v>
+        <v>1.98</v>
       </c>
       <c r="U25" t="n">
-        <v>1.74</v>
+        <v>1.89</v>
       </c>
       <c r="V25" t="n">
-        <v>1.16</v>
+        <v>1.27</v>
       </c>
       <c r="W25" t="n">
-        <v>2.44</v>
+        <v>2</v>
       </c>
       <c r="X25" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Z25" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="AA25" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="AB25" t="n">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="AC25" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AE25" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AF25" t="n">
-        <v>9</v>
+        <v>11.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AI25" t="n">
-        <v>140</v>
+        <v>370</v>
       </c>
       <c r="AJ25" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AK25" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AL25" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AM25" t="n">
-        <v>220</v>
+        <v>580</v>
       </c>
       <c r="AN25" t="n">
-        <v>55</v>
+        <v>17.5</v>
       </c>
       <c r="AO25" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>US MLS</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2025-10-28</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>19:45:00</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Charlotte FC</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>New York City</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="G26" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="I26" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N26" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P26" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="S26" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="U26" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="W26" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="X26" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>210</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>24</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2025-10-28</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>20:10:00</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Deportivo Cali</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Alianza FC Valledupar</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>2</v>
-      </c>
-      <c r="G27" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="H27" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K27" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N27" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S27" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="W27" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="X27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>330</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>42</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>370</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>85</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
